--- a/statistic/result.xlsx
+++ b/statistic/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="plant 940" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
   <si>
     <t>均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1v1 c=100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MC-MKL p=1 C=4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -417,6 +413,14 @@
   </si>
   <si>
     <t>gmnp C=64 width=0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneVsRest C=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1v1 C=2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +792,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>
@@ -3056,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -3067,31 +3071,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5207,7 +5211,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G35" sqref="G35:I35"/>
     </sheetView>
   </sheetViews>
@@ -5218,7 +5222,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>35</v>
@@ -5227,22 +5231,22 @@
         <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>31</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6210,35 +6214,35 @@
         <v>0</v>
       </c>
       <c r="B33" s="3">
-        <f>AVERAGE(B2:B31)</f>
+        <f t="shared" ref="B33:H33" si="0">AVERAGE(B2:B31)</f>
         <v>73.720930232558146</v>
       </c>
       <c r="C33" s="3">
-        <f>AVERAGE(C2:C31)</f>
+        <f t="shared" si="0"/>
         <v>75.193798449612387</v>
       </c>
       <c r="D33" s="3">
-        <f>AVERAGE(D2:D31)</f>
+        <f t="shared" si="0"/>
         <v>63.95348837209999</v>
       </c>
       <c r="E33" s="3">
-        <f>AVERAGE(E2:E31)</f>
+        <f t="shared" si="0"/>
         <v>71.984126984126988</v>
       </c>
       <c r="F33" s="3">
-        <f>AVERAGE(F2:F31)</f>
+        <f t="shared" si="0"/>
         <v>69.999999999999986</v>
       </c>
       <c r="G33" s="3">
-        <f>AVERAGE(G2:G31)</f>
+        <f t="shared" si="0"/>
         <v>71.240310077529998</v>
       </c>
       <c r="H33" s="3">
-        <f>AVERAGE(H2:H31)</f>
+        <f t="shared" si="0"/>
         <v>69.069767441866659</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" ref="I33" si="0">AVERAGE(I2:I31)</f>
+        <f t="shared" ref="I33" si="1">AVERAGE(I2:I31)</f>
         <v>74.03100775194666</v>
       </c>
       <c r="J33" s="3">
@@ -6251,35 +6255,35 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f>STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:H34" si="2">STDEV(B2:B31)</f>
         <v>5.7986969029571904</v>
       </c>
       <c r="C34" s="3">
-        <f>STDEV(C2:C31)</f>
+        <f t="shared" si="2"/>
         <v>5.0485172727361114</v>
       </c>
       <c r="D34" s="3">
-        <f>STDEV(D2:D31)</f>
+        <f t="shared" si="2"/>
         <v>6.0381782065316179</v>
       </c>
       <c r="E34" s="3">
-        <f>STDEV(E2:E31)</f>
+        <f t="shared" si="2"/>
         <v>5.7539446614468339</v>
       </c>
       <c r="F34" s="3">
-        <f>STDEV(F2:F31)</f>
+        <f t="shared" si="2"/>
         <v>5.7511128562349745</v>
       </c>
       <c r="G34" s="3">
-        <f>STDEV(G2:G31)</f>
+        <f t="shared" si="2"/>
         <v>8.1362883509017774</v>
       </c>
       <c r="H34" s="3">
-        <f>STDEV(H2:H31)</f>
+        <f t="shared" si="2"/>
         <v>8.082628430214136</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34" si="1">STDEV(I2:I31)</f>
+        <f t="shared" ref="I34" si="3">STDEV(I2:I31)</f>
         <v>6.4077908666911716</v>
       </c>
       <c r="J34" s="3">
@@ -6300,31 +6304,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="B35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>9.3901149544273874</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.0523792122110573</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.4500623652014557</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1352722326347298</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.6908071324566061</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94783389652420103</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.1231223243015429</v>
       </c>
     </row>
@@ -6334,1137 +6338,1137 @@
         <v>-4.6511627906976969</v>
       </c>
       <c r="C37" s="3">
-        <f>C2-C2</f>
+        <f t="shared" ref="C37:C66" si="5">C2-C2</f>
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <f>C2-D2</f>
+        <f t="shared" ref="D37:D66" si="6">C2-D2</f>
         <v>32.558139534909294</v>
       </c>
       <c r="E37" s="3">
-        <f>C2-E2</f>
+        <f t="shared" ref="E37:E66" si="7">C2-E2</f>
         <v>5.2048726467330937</v>
       </c>
       <c r="F37" s="3">
-        <f>C2-F2</f>
+        <f t="shared" ref="F37:F66" si="8">C2-F2</f>
         <v>12.347729789590204</v>
       </c>
       <c r="G37" s="3">
-        <f>C2-G2</f>
+        <f t="shared" ref="G37:G66" si="9">C2-G2</f>
         <v>6.9767441860092987</v>
       </c>
       <c r="H37" s="3">
-        <f>C2-H2</f>
+        <f t="shared" ref="H37:H66" si="10">C2-H2</f>
         <v>18.604651162809297</v>
       </c>
       <c r="I37" s="3">
-        <f>C2-I2</f>
+        <f t="shared" ref="I37:I66" si="11">C2-I2</f>
         <v>6.9767441860092987</v>
       </c>
       <c r="J37" s="3">
-        <f>C2-J2</f>
+        <f t="shared" ref="J37:J66" si="12">C2-J2</f>
         <v>5.2048726467330937</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <f t="shared" ref="B38:B66" si="3">C3-B3</f>
+        <f t="shared" ref="B38:B66" si="13">C3-B3</f>
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <f>C3-C3</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <f>C3-D3</f>
+        <f t="shared" si="6"/>
         <v>2.3255813953650915</v>
       </c>
       <c r="E38" s="3">
-        <f>C3-E3</f>
+        <f t="shared" si="7"/>
         <v>-4.0420819490586979</v>
       </c>
       <c r="F38" s="3">
-        <f>C3-F3</f>
+        <f t="shared" si="8"/>
         <v>3.1007751937983983</v>
       </c>
       <c r="G38" s="3">
-        <f>C3-G3</f>
+        <f t="shared" si="9"/>
         <v>13.953488372065095</v>
       </c>
       <c r="H38" s="3">
-        <f>C3-H3</f>
+        <f t="shared" si="10"/>
         <v>-3.4901859180536121E-11</v>
       </c>
       <c r="I38" s="3">
-        <f>C3-I3</f>
+        <f t="shared" si="11"/>
         <v>2.3255813953650915</v>
       </c>
       <c r="J38" s="3">
-        <f>C3-J3</f>
+        <f t="shared" si="12"/>
         <v>-8.8039867109634997</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <f>C4-C4</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <f>C4-D4</f>
+        <f t="shared" si="6"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="E39" s="3">
-        <f>C4-E4</f>
+        <f t="shared" si="7"/>
         <v>0.71982281284600447</v>
       </c>
       <c r="F39" s="3">
-        <f>C4-F4</f>
+        <f t="shared" si="8"/>
         <v>-4.0420819490586979</v>
       </c>
       <c r="G39" s="3">
-        <f>C4-G4</f>
+        <f t="shared" si="9"/>
         <v>4.6511627906650972</v>
       </c>
       <c r="H39" s="3">
-        <f>C4-H4</f>
+        <f t="shared" si="10"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="I39" s="3">
-        <f>C4-I4</f>
+        <f t="shared" si="11"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="J39" s="3">
-        <f>C4-J4</f>
+        <f t="shared" si="12"/>
         <v>-8.8039867109634997</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>6.9767441860464885</v>
       </c>
       <c r="C40" s="3">
-        <f>C5-C5</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <f>C5-D5</f>
+        <f t="shared" si="6"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="E40" s="3">
-        <f>C5-E5</f>
+        <f t="shared" si="7"/>
         <v>-6.5337763012182108</v>
       </c>
       <c r="F40" s="3">
-        <f>C5-F5</f>
+        <f t="shared" si="8"/>
         <v>2.9900332225913928</v>
       </c>
       <c r="G40" s="3">
-        <f>C5-G5</f>
+        <f t="shared" si="9"/>
         <v>-6.9767441860372088</v>
       </c>
       <c r="H40" s="3">
-        <f>C5-H5</f>
+        <f t="shared" si="10"/>
         <v>-9.3023255814372021</v>
       </c>
       <c r="I40" s="3">
-        <f>C5-I5</f>
+        <f t="shared" si="11"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="J40" s="3">
-        <f>C5-J5</f>
+        <f t="shared" si="12"/>
         <v>5.3709856035437014</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6511627906976969</v>
       </c>
       <c r="C41" s="3">
-        <f>C6-C6</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D41" s="3">
-        <f>C6-D6</f>
+        <f t="shared" si="6"/>
         <v>2.3255813953650915</v>
       </c>
       <c r="E41" s="3">
-        <f>C6-E6</f>
+        <f t="shared" si="7"/>
         <v>5.4817275747507921</v>
       </c>
       <c r="F41" s="3">
-        <f>C6-F6</f>
+        <f t="shared" si="8"/>
         <v>-1.6611295681063041</v>
       </c>
       <c r="G41" s="3">
-        <f>C6-G6</f>
+        <f t="shared" si="9"/>
         <v>-3.4901859180536121E-11</v>
       </c>
       <c r="H41" s="3">
-        <f>C6-H6</f>
+        <f t="shared" si="10"/>
         <v>-3.4901859180536121E-11</v>
       </c>
       <c r="I41" s="3">
-        <f>C6-I6</f>
+        <f t="shared" si="11"/>
         <v>-2.3255813953349076</v>
       </c>
       <c r="J41" s="3">
-        <f>C6-J6</f>
+        <f t="shared" si="12"/>
         <v>-4.0420819490586979</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C42" s="3">
-        <f>C7-C7</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <f>C7-D7</f>
+        <f t="shared" si="6"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="E42" s="3">
-        <f>C7-E7</f>
+        <f t="shared" si="7"/>
         <v>-4.1528239202658028</v>
       </c>
       <c r="F42" s="3">
-        <f>C7-F7</f>
+        <f t="shared" si="8"/>
         <v>5.3709856035437014</v>
       </c>
       <c r="G42" s="3">
-        <f>C7-G7</f>
+        <f t="shared" si="9"/>
         <v>13.953488372062793</v>
       </c>
       <c r="H42" s="3">
-        <f>C7-H7</f>
+        <f t="shared" si="10"/>
         <v>-9.3023255814372021</v>
       </c>
       <c r="I42" s="3">
-        <f>C7-I7</f>
+        <f t="shared" si="11"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="J42" s="3">
-        <f>C7-J7</f>
+        <f t="shared" si="12"/>
         <v>-1.771871539313409</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C43" s="3">
-        <f>C8-C8</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <f>C8-D8</f>
+        <f t="shared" si="6"/>
         <v>13.953488372062793</v>
       </c>
       <c r="E43" s="3">
-        <f>C8-E8</f>
+        <f t="shared" si="7"/>
         <v>-1.771871539313409</v>
       </c>
       <c r="F43" s="3">
-        <f>C8-F8</f>
+        <f t="shared" si="8"/>
         <v>0.609080841638999</v>
       </c>
       <c r="G43" s="3">
-        <f>C8-G8</f>
+        <f t="shared" si="9"/>
         <v>4.651162790662795</v>
       </c>
       <c r="H43" s="3">
-        <f>C8-H8</f>
+        <f t="shared" si="10"/>
         <v>16.279069767462794</v>
       </c>
       <c r="I43" s="3">
-        <f>C8-I8</f>
+        <f t="shared" si="11"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="J43" s="3">
-        <f>C8-J8</f>
+        <f t="shared" si="12"/>
         <v>2.9900332225913928</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C44" s="3">
-        <f>C9-C9</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <f>C9-D9</f>
+        <f t="shared" si="6"/>
         <v>18.604651162762792</v>
       </c>
       <c r="E44" s="3">
-        <f>C9-E9</f>
+        <f t="shared" si="7"/>
         <v>-1.771871539313409</v>
       </c>
       <c r="F44" s="3">
-        <f>C9-F9</f>
+        <f t="shared" si="8"/>
         <v>0.609080841638999</v>
       </c>
       <c r="G44" s="3">
-        <f>C9-G9</f>
+        <f t="shared" si="9"/>
         <v>-2.3255813953372098</v>
       </c>
       <c r="H44" s="3">
-        <f>C9-H9</f>
+        <f t="shared" si="10"/>
         <v>4.651162790662795</v>
       </c>
       <c r="I44" s="3">
-        <f>C9-I9</f>
+        <f t="shared" si="11"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="J44" s="3">
-        <f>C9-J9</f>
+        <f t="shared" si="12"/>
         <v>-8.9147286821705052</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>9.3023255813952943</v>
       </c>
       <c r="C45" s="3">
-        <f>C10-C10</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <f>C10-D10</f>
+        <f t="shared" si="6"/>
         <v>18.604651162811599</v>
       </c>
       <c r="E45" s="3">
-        <f>C10-E10</f>
+        <f t="shared" si="7"/>
         <v>2.9346622369878048</v>
       </c>
       <c r="F45" s="3">
-        <f>C10-F10</f>
+        <f t="shared" si="8"/>
         <v>5.3156146179401986</v>
       </c>
       <c r="G45" s="3">
-        <f>C10-G10</f>
+        <f t="shared" si="9"/>
         <v>2.3255813953116018</v>
       </c>
       <c r="H45" s="3">
-        <f>C10-H10</f>
+        <f t="shared" si="10"/>
         <v>13.9534883721116</v>
       </c>
       <c r="I45" s="3">
-        <f>C10-I10</f>
+        <f t="shared" si="11"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="J45" s="3">
-        <f>C10-J10</f>
+        <f t="shared" si="12"/>
         <v>7.6965669988925072</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-2.3255813953489053</v>
       </c>
       <c r="C46" s="3">
-        <f>C11-C11</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <f>C11-D11</f>
+        <f t="shared" si="6"/>
         <v>6.9767441860650976</v>
       </c>
       <c r="E46" s="3">
-        <f>C11-E11</f>
+        <f t="shared" si="7"/>
         <v>-4.0420819490586979</v>
       </c>
       <c r="F46" s="3">
-        <f>C11-F11</f>
+        <f t="shared" si="8"/>
         <v>-15.946843853820596</v>
       </c>
       <c r="G46" s="3">
-        <f>C11-G11</f>
+        <f t="shared" si="9"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="H46" s="3">
-        <f>C11-H11</f>
+        <f t="shared" si="10"/>
         <v>-2.3255813953349076</v>
       </c>
       <c r="I46" s="3">
-        <f>C11-I11</f>
+        <f t="shared" si="11"/>
         <v>-11.627906976734906</v>
       </c>
       <c r="J46" s="3">
-        <f>C11-J11</f>
+        <f t="shared" si="12"/>
         <v>-4.0420819490586979</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C47" s="3">
-        <f>C12-C12</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <f>C12-D12</f>
+        <f t="shared" si="6"/>
         <v>13.953488372109291</v>
       </c>
       <c r="E47" s="3">
-        <f>C12-E12</f>
+        <f t="shared" si="7"/>
         <v>9.9667774086378955</v>
       </c>
       <c r="F47" s="3">
-        <f>C12-F12</f>
+        <f t="shared" si="8"/>
         <v>17.109634551494992</v>
       </c>
       <c r="G47" s="3">
-        <f>C12-G12</f>
+        <f t="shared" si="9"/>
         <v>-2.3255813953906994</v>
       </c>
       <c r="H47" s="3">
-        <f>C12-H12</f>
+        <f t="shared" si="10"/>
         <v>6.9767441860092987</v>
       </c>
       <c r="I47" s="3">
-        <f>C12-I12</f>
+        <f t="shared" si="11"/>
         <v>4.6511627907092929</v>
       </c>
       <c r="J47" s="3">
-        <f>C12-J12</f>
+        <f t="shared" si="12"/>
         <v>14.728682170542598</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-2.3255813953487916</v>
       </c>
       <c r="C48" s="3">
-        <f>C13-C13</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <f>C13-D13</f>
+        <f t="shared" si="6"/>
         <v>11.627906976760499</v>
       </c>
       <c r="E48" s="3">
-        <f>C13-E13</f>
+        <f t="shared" si="7"/>
         <v>14.7840531561462</v>
       </c>
       <c r="F48" s="3">
-        <f>C13-F13</f>
+        <f t="shared" si="8"/>
         <v>10.022148394241412</v>
       </c>
       <c r="G48" s="3">
-        <f>C13-G13</f>
+        <f t="shared" si="9"/>
         <v>2.3255813953605013</v>
       </c>
       <c r="H48" s="3">
-        <f>C13-H13</f>
+        <f t="shared" si="10"/>
         <v>11.627906976760499</v>
       </c>
       <c r="I48" s="3">
-        <f>C13-I13</f>
+        <f t="shared" si="11"/>
         <v>6.9767441860605004</v>
       </c>
       <c r="J48" s="3">
-        <f>C13-J13</f>
+        <f t="shared" si="12"/>
         <v>7.6411960132891039</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C49" s="3">
-        <f>C14-C14</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <f>C14-D14</f>
+        <f t="shared" si="6"/>
         <v>11.627906976714002</v>
       </c>
       <c r="E49" s="3">
-        <f>C14-E14</f>
+        <f t="shared" si="7"/>
         <v>3.0454042081949098</v>
       </c>
       <c r="F49" s="3">
-        <f>C14-F14</f>
+        <f t="shared" si="8"/>
         <v>5.4263565891473036</v>
       </c>
       <c r="G49" s="3">
-        <f>C14-G14</f>
+        <f t="shared" si="9"/>
         <v>18.604651162814001</v>
       </c>
       <c r="H49" s="3">
-        <f>C14-H14</f>
+        <f t="shared" si="10"/>
         <v>4.6511627907139967</v>
       </c>
       <c r="I49" s="3">
-        <f>C14-I14</f>
+        <f t="shared" si="11"/>
         <v>-11.627906976785994</v>
       </c>
       <c r="J49" s="3">
-        <f>C14-J14</f>
+        <f t="shared" si="12"/>
         <v>-4.0974529346622006</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953489053</v>
       </c>
       <c r="C50" s="3">
-        <f>C15-C15</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f>C15-D15</f>
+        <f t="shared" si="6"/>
         <v>4.6511627907139967</v>
       </c>
       <c r="E50" s="3">
-        <f>C15-E15</f>
+        <f t="shared" si="7"/>
         <v>-1.7165005537097926</v>
       </c>
       <c r="F50" s="3">
-        <f>C15-F15</f>
+        <f t="shared" si="8"/>
         <v>3.0454042081949098</v>
       </c>
       <c r="G50" s="3">
-        <f>C15-G15</f>
+        <f t="shared" si="9"/>
         <v>-2.3255813953859956</v>
       </c>
       <c r="H50" s="3">
-        <f>C15-H15</f>
+        <f t="shared" si="10"/>
         <v>13.953488372114002</v>
       </c>
       <c r="I50" s="3">
-        <f>C15-I15</f>
+        <f t="shared" si="11"/>
         <v>2.3255813953140034</v>
       </c>
       <c r="J50" s="3">
-        <f>C15-J15</f>
+        <f t="shared" si="12"/>
         <v>-1.7165005537097926</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C51" s="3">
-        <f>C16-C16</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <f>C16-D16</f>
+        <f t="shared" si="6"/>
         <v>18.604651162811599</v>
       </c>
       <c r="E51" s="3">
-        <f>C16-E16</f>
+        <f t="shared" si="7"/>
         <v>0.5537098560353968</v>
       </c>
       <c r="F51" s="3">
-        <f>C16-F16</f>
+        <f t="shared" si="8"/>
         <v>0.5537098560353968</v>
       </c>
       <c r="G51" s="3">
-        <f>C16-G16</f>
+        <f t="shared" si="9"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="H51" s="3">
-        <f>C16-H16</f>
+        <f t="shared" si="10"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="I51" s="3">
-        <f>C16-I16</f>
+        <f t="shared" si="11"/>
         <v>4.6511627907115951</v>
       </c>
       <c r="J51" s="3">
-        <f>C16-J16</f>
+        <f t="shared" si="12"/>
         <v>-4.208194905869405</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953488058</v>
       </c>
       <c r="C52" s="3">
-        <f>C17-C17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f>C17-D17</f>
+        <f t="shared" si="6"/>
         <v>16.279069767411599</v>
       </c>
       <c r="E52" s="3">
-        <f>C17-E17</f>
+        <f t="shared" si="7"/>
         <v>12.458471760797295</v>
       </c>
       <c r="F52" s="3">
-        <f>C17-F17</f>
+        <f t="shared" si="8"/>
         <v>21.982281284606799</v>
       </c>
       <c r="G52" s="3">
-        <f>C17-G17</f>
+        <f t="shared" si="9"/>
         <v>4.6511627907115951</v>
       </c>
       <c r="H52" s="3">
-        <f>C17-H17</f>
+        <f t="shared" si="10"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="I52" s="3">
-        <f>C17-I17</f>
+        <f t="shared" si="11"/>
         <v>4.6511627907115951</v>
       </c>
       <c r="J52" s="3">
-        <f>C17-J17</f>
+        <f t="shared" si="12"/>
         <v>0.5537098560353968</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C53" s="3">
-        <f>C18-C18</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <f>C18-D18</f>
+        <f t="shared" si="6"/>
         <v>20.930232558109296</v>
       </c>
       <c r="E53" s="3">
-        <f>C18-E18</f>
+        <f t="shared" si="7"/>
         <v>19.4905869324474</v>
       </c>
       <c r="F53" s="3">
-        <f>C18-F18</f>
+        <f t="shared" si="8"/>
         <v>12.347729789590204</v>
       </c>
       <c r="G53" s="3">
-        <f>C18-G18</f>
+        <f t="shared" si="9"/>
         <v>9.302325581409292</v>
       </c>
       <c r="H53" s="3">
-        <f>C18-H18</f>
+        <f t="shared" si="10"/>
         <v>18.604651162809297</v>
       </c>
       <c r="I53" s="3">
-        <f>C18-I18</f>
+        <f t="shared" si="11"/>
         <v>6.9767441860092987</v>
       </c>
       <c r="J53" s="3">
-        <f>C18-J18</f>
+        <f t="shared" si="12"/>
         <v>26.633444075304496</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953489053</v>
       </c>
       <c r="C54" s="3">
-        <f>C19-C19</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f>C19-D19</f>
+        <f t="shared" si="6"/>
         <v>16.279069767460506</v>
       </c>
       <c r="E54" s="3">
-        <f>C19-E19</f>
+        <f t="shared" si="7"/>
         <v>7.6411960132891039</v>
       </c>
       <c r="F54" s="3">
-        <f>C19-F19</f>
+        <f t="shared" si="8"/>
         <v>7.6411960132891039</v>
       </c>
       <c r="G54" s="3">
-        <f>C19-G19</f>
+        <f t="shared" si="9"/>
         <v>6.9767441860605004</v>
       </c>
       <c r="H54" s="3">
-        <f>C19-H19</f>
+        <f t="shared" si="10"/>
         <v>11.627906976760499</v>
       </c>
       <c r="I54" s="3">
-        <f>C19-I19</f>
+        <f t="shared" si="11"/>
         <v>6.9767441860605004</v>
       </c>
       <c r="J54" s="3">
-        <f>C19-J19</f>
+        <f t="shared" si="12"/>
         <v>19.545957918051009</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-2.3255813953488058</v>
       </c>
       <c r="C55" s="3">
-        <f>C20-C20</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D55" s="3">
-        <f>C20-D20</f>
+        <f t="shared" si="6"/>
         <v>18.604651162806988</v>
       </c>
       <c r="E55" s="3">
-        <f>C20-E20</f>
+        <f t="shared" si="7"/>
         <v>12.236987818383199</v>
       </c>
       <c r="F55" s="3">
-        <f>C20-F20</f>
+        <f t="shared" si="8"/>
         <v>16.998892580287901</v>
       </c>
       <c r="G55" s="3">
-        <f>C20-G20</f>
+        <f t="shared" si="9"/>
         <v>23.255813953506994</v>
       </c>
       <c r="H55" s="3">
-        <f>C20-H20</f>
+        <f t="shared" si="10"/>
         <v>25.581395348806993</v>
       </c>
       <c r="I55" s="3">
-        <f>C20-I20</f>
+        <f t="shared" si="11"/>
         <v>13.953488372106989</v>
       </c>
       <c r="J55" s="3">
-        <f>C20-J20</f>
+        <f t="shared" si="12"/>
         <v>16.998892580287901</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6511627906975974</v>
       </c>
       <c r="C56" s="3">
-        <f>C21-C21</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D56" s="3">
-        <f>C21-D21</f>
+        <f t="shared" si="6"/>
         <v>11.6279069767116</v>
       </c>
       <c r="E56" s="3">
-        <f>C21-E21</f>
+        <f t="shared" si="7"/>
         <v>-4.208194905869405</v>
       </c>
       <c r="F56" s="3">
-        <f>C21-F21</f>
+        <f t="shared" si="8"/>
         <v>7.6965669988925072</v>
       </c>
       <c r="G56" s="3">
-        <f>C21-G21</f>
+        <f t="shared" si="9"/>
         <v>25.581395348811604</v>
       </c>
       <c r="H56" s="3">
-        <f>C21-H21</f>
+        <f t="shared" si="10"/>
         <v>11.6279069767116</v>
       </c>
       <c r="I56" s="3">
-        <f>C21-I21</f>
+        <f t="shared" si="11"/>
         <v>9.3023255814115942</v>
       </c>
       <c r="J56" s="3">
-        <f>C21-J21</f>
+        <f t="shared" si="12"/>
         <v>5.3156146179401986</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C57" s="3">
-        <f>C22-C22</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D57" s="3">
-        <f>C22-D22</f>
+        <f t="shared" si="6"/>
         <v>6.9767441860673998</v>
       </c>
       <c r="E57" s="3">
-        <f>C22-E22</f>
+        <f t="shared" si="7"/>
         <v>-11.074197120708803</v>
       </c>
       <c r="F57" s="3">
-        <f>C22-F22</f>
+        <f t="shared" si="8"/>
         <v>-13.455149501661197</v>
       </c>
       <c r="G57" s="3">
-        <f>C22-G22</f>
+        <f t="shared" si="9"/>
         <v>-9.3023255814325978</v>
       </c>
       <c r="H57" s="3">
-        <f>C22-H22</f>
+        <f t="shared" si="10"/>
         <v>18.604651162767404</v>
       </c>
       <c r="I57" s="3">
-        <f>C22-I22</f>
+        <f t="shared" si="11"/>
         <v>-3.2599700716673397E-11</v>
       </c>
       <c r="J57" s="3">
-        <f>C22-J22</f>
+        <f t="shared" si="12"/>
         <v>-8.6932447397563948</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-2.3255813953489053</v>
       </c>
       <c r="C58" s="3">
-        <f>C23-C23</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f>C23-D23</f>
+        <f t="shared" si="6"/>
         <v>-3.2599700716673397E-11</v>
       </c>
       <c r="E58" s="3">
-        <f>C23-E23</f>
+        <f t="shared" si="7"/>
         <v>0.8305647840530952</v>
       </c>
       <c r="F58" s="3">
-        <f>C23-F23</f>
+        <f t="shared" si="8"/>
         <v>-3.9313399778516924</v>
       </c>
       <c r="G58" s="3">
-        <f>C23-G23</f>
+        <f t="shared" si="9"/>
         <v>-4.6511627907325988</v>
       </c>
       <c r="H58" s="3">
-        <f>C23-H23</f>
+        <f t="shared" si="10"/>
         <v>-4.6511627907325988</v>
       </c>
       <c r="I58" s="3">
-        <f>C23-I23</f>
+        <f t="shared" si="11"/>
         <v>-13.953488372132597</v>
       </c>
       <c r="J58" s="3">
-        <f>C23-J23</f>
+        <f t="shared" si="12"/>
         <v>-3.9313399778516924</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6511627906976969</v>
       </c>
       <c r="C59" s="3">
-        <f>C24-C24</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D59" s="3">
-        <f>C24-D24</f>
+        <f t="shared" si="6"/>
         <v>6.9767441860140025</v>
       </c>
       <c r="E59" s="3">
-        <f>C24-E24</f>
+        <f t="shared" si="7"/>
         <v>7.8073089700996974</v>
       </c>
       <c r="F59" s="3">
-        <f>C24-F24</f>
+        <f t="shared" si="8"/>
         <v>7.8073089700996974</v>
       </c>
       <c r="G59" s="3">
-        <f>C24-G24</f>
+        <f t="shared" si="9"/>
         <v>-9.3023255813860004</v>
       </c>
       <c r="H59" s="3">
-        <f>C24-H24</f>
+        <f t="shared" si="10"/>
         <v>-4.6511627906860014</v>
       </c>
       <c r="I59" s="3">
-        <f>C24-I24</f>
+        <f t="shared" si="11"/>
         <v>-13.953488372085999</v>
       </c>
       <c r="J59" s="3">
-        <f>C24-J24</f>
+        <f t="shared" si="12"/>
         <v>-6.4784053156145944</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C60" s="3">
-        <f>C25-C25</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D60" s="3">
-        <f>C25-D25</f>
+        <f t="shared" si="6"/>
         <v>4.651162790662795</v>
       </c>
       <c r="E60" s="3">
-        <f>C25-E25</f>
+        <f t="shared" si="7"/>
         <v>-1.771871539313409</v>
       </c>
       <c r="F60" s="3">
-        <f>C25-F25</f>
+        <f t="shared" si="8"/>
         <v>5.3709856035437014</v>
       </c>
       <c r="G60" s="3">
-        <f>C25-G25</f>
+        <f t="shared" si="9"/>
         <v>-2.3255813953372098</v>
       </c>
       <c r="H60" s="3">
-        <f>C25-H25</f>
+        <f t="shared" si="10"/>
         <v>13.953488372062793</v>
       </c>
       <c r="I60" s="3">
-        <f>C25-I25</f>
+        <f t="shared" si="11"/>
         <v>-13.953488372137201</v>
       </c>
       <c r="J60" s="3">
-        <f>C25-J25</f>
+        <f t="shared" si="12"/>
         <v>7.7519379844960952</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C61" s="3">
-        <f>C26-C26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D61" s="3">
-        <f>C26-D26</f>
+        <f t="shared" si="6"/>
         <v>4.651162790662795</v>
       </c>
       <c r="E61" s="3">
-        <f>C26-E26</f>
+        <f t="shared" si="7"/>
         <v>0.609080841638999</v>
       </c>
       <c r="F61" s="3">
-        <f>C26-F26</f>
+        <f t="shared" si="8"/>
         <v>10.132890365448489</v>
       </c>
       <c r="G61" s="3">
-        <f>C26-G26</f>
+        <f t="shared" si="9"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="H61" s="3">
-        <f>C26-H26</f>
+        <f t="shared" si="10"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="I61" s="3">
-        <f>C26-I26</f>
+        <f t="shared" si="11"/>
         <v>-9.3023255814372021</v>
       </c>
       <c r="J61" s="3">
-        <f>C26-J26</f>
+        <f t="shared" si="12"/>
         <v>7.7519379844960952</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C62" s="3">
-        <f>C27-C27</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <f>C27-D27</f>
+        <f t="shared" si="6"/>
         <v>13.953488372062793</v>
       </c>
       <c r="E62" s="3">
-        <f>C27-E27</f>
+        <f t="shared" si="7"/>
         <v>7.7519379844960952</v>
       </c>
       <c r="F62" s="3">
-        <f>C27-F27</f>
+        <f t="shared" si="8"/>
         <v>2.9900332225913928</v>
       </c>
       <c r="G62" s="3">
-        <f>C27-G27</f>
+        <f t="shared" si="9"/>
         <v>6.9767441860627883</v>
       </c>
       <c r="H62" s="3">
-        <f>C27-H27</f>
+        <f t="shared" si="10"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="I62" s="3">
-        <f>C27-I27</f>
+        <f t="shared" si="11"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="J62" s="3">
-        <f>C27-J27</f>
+        <f t="shared" si="12"/>
         <v>-4.1528239202658028</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C63" s="3">
-        <f>C28-C28</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <f>C28-D28</f>
+        <f t="shared" si="6"/>
         <v>13.953488372109291</v>
       </c>
       <c r="E63" s="3">
-        <f>C28-E28</f>
+        <f t="shared" si="7"/>
         <v>7.5858250276855017</v>
       </c>
       <c r="F63" s="3">
-        <f>C28-F28</f>
+        <f t="shared" si="8"/>
         <v>12.347729789590204</v>
       </c>
       <c r="G63" s="3">
-        <f>C28-G28</f>
+        <f t="shared" si="9"/>
         <v>9.302325581409292</v>
       </c>
       <c r="H63" s="3">
-        <f>C28-H28</f>
+        <f t="shared" si="10"/>
         <v>11.627906976709298</v>
       </c>
       <c r="I63" s="3">
-        <f>C28-I28</f>
+        <f t="shared" si="11"/>
         <v>16.279069767409297</v>
       </c>
       <c r="J63" s="3">
-        <f>C28-J28</f>
+        <f t="shared" si="12"/>
         <v>12.347729789590204</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4.6511627906976969</v>
       </c>
       <c r="C64" s="3">
-        <f>C29-C29</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f>C29-D29</f>
+        <f t="shared" si="6"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="E64" s="3">
-        <f>C29-E29</f>
+        <f t="shared" si="7"/>
         <v>-6.5337763012182108</v>
       </c>
       <c r="F64" s="3">
-        <f>C29-F29</f>
+        <f t="shared" si="8"/>
         <v>2.9900332225913928</v>
       </c>
       <c r="G64" s="3">
-        <f>C29-G29</f>
+        <f t="shared" si="9"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="H64" s="3">
-        <f>C29-H29</f>
+        <f t="shared" si="10"/>
         <v>-2.3255813953372098</v>
       </c>
       <c r="I64" s="3">
-        <f>C29-I29</f>
+        <f t="shared" si="11"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="J64" s="3">
-        <f>C29-J29</f>
+        <f t="shared" si="12"/>
         <v>5.3709856035437014</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="C65" s="3">
-        <f>C30-C30</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f>C30-D30</f>
+        <f t="shared" si="6"/>
         <v>16.279069767462794</v>
       </c>
       <c r="E65" s="3">
-        <f>C30-E30</f>
+        <f t="shared" si="7"/>
         <v>12.513842746400897</v>
       </c>
       <c r="F65" s="3">
-        <f>C30-F30</f>
+        <f t="shared" si="8"/>
         <v>14.894795127353298</v>
       </c>
       <c r="G65" s="3">
-        <f>C30-G30</f>
+        <f t="shared" si="9"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="H65" s="3">
-        <f>C30-H30</f>
+        <f t="shared" si="10"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="I65" s="3">
-        <f>C30-I30</f>
+        <f t="shared" si="11"/>
         <v>6.9767441860627883</v>
       </c>
       <c r="J65" s="3">
-        <f>C30-J30</f>
+        <f t="shared" si="12"/>
         <v>-1.771871539313409</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2.3255813953489053</v>
       </c>
       <c r="C66" s="3">
-        <f>C31-C31</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="D66" s="3">
-        <f>C31-D31</f>
+        <f t="shared" si="6"/>
         <v>23.255813953458201</v>
       </c>
       <c r="E66" s="3">
-        <f>C31-E31</f>
+        <f t="shared" si="7"/>
         <v>12.292358803986801</v>
       </c>
       <c r="F66" s="3">
-        <f>C31-F31</f>
+        <f t="shared" si="8"/>
         <v>5.1495016611296052</v>
       </c>
       <c r="G66" s="3">
-        <f>C31-G31</f>
+        <f t="shared" si="9"/>
         <v>4.6511627906582049</v>
       </c>
       <c r="H66" s="3">
-        <f>C31-H31</f>
+        <f t="shared" si="10"/>
         <v>6.9767441860581982</v>
       </c>
       <c r="I66" s="3">
-        <f>C31-I31</f>
+        <f t="shared" si="11"/>
         <v>11.627906976758197</v>
       </c>
       <c r="J66" s="3">
-        <f>C31-J31</f>
+        <f t="shared" si="12"/>
         <v>7.530454042081999</v>
       </c>
     </row>
@@ -7489,13 +7493,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>33</v>
@@ -7507,10 +7511,10 @@
         <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>4</v>
@@ -8485,35 +8489,35 @@
         <v>97.333333333333329</v>
       </c>
       <c r="C33" s="3">
-        <f>AVERAGE(C2:C31)</f>
+        <f t="shared" ref="C33:I33" si="1">AVERAGE(C2:C31)</f>
         <v>98</v>
       </c>
       <c r="D33" s="3">
-        <f>AVERAGE(D2:D31)</f>
+        <f t="shared" si="1"/>
         <v>89.666666666666686</v>
       </c>
       <c r="E33" s="3">
-        <f>AVERAGE(E2:E31)</f>
+        <f t="shared" si="1"/>
         <v>96.666666666666686</v>
       </c>
       <c r="F33" s="3">
-        <f>AVERAGE(F2:F31)</f>
+        <f t="shared" si="1"/>
         <v>94.888888888886655</v>
       </c>
       <c r="G33" s="3">
-        <f>AVERAGE(G2:G31)</f>
+        <f t="shared" si="1"/>
         <v>96.111111111116685</v>
       </c>
       <c r="H33" s="3">
-        <f>AVERAGE(H2:H31)</f>
+        <f t="shared" si="1"/>
         <v>96.000000000003354</v>
       </c>
       <c r="I33" s="3">
-        <f>AVERAGE(I2:I31)</f>
+        <f t="shared" si="1"/>
         <v>95.444444444456678</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" ref="J33" si="1">AVERAGE(J2:J31)</f>
+        <f t="shared" ref="J33" si="2">AVERAGE(J2:J31)</f>
         <v>95.555555555555571</v>
       </c>
     </row>
@@ -8522,39 +8526,39 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" ref="B34" si="2">STDEV(B2:B31)</f>
+        <f t="shared" ref="B34" si="3">STDEV(B2:B31)</f>
         <v>2.5370813170246258</v>
       </c>
       <c r="C34" s="3">
-        <f>STDEV(C2:C31)</f>
+        <f t="shared" ref="C34:I34" si="4">STDEV(C2:C31)</f>
         <v>2.2488822255440168</v>
       </c>
       <c r="D34" s="3">
-        <f>STDEV(D2:D31)</f>
+        <f t="shared" si="4"/>
         <v>5.6966751074364268</v>
       </c>
       <c r="E34" s="3">
-        <f>STDEV(E2:E31)</f>
+        <f t="shared" si="4"/>
         <v>2.6261286571944638</v>
       </c>
       <c r="F34" s="3">
-        <f>STDEV(F2:F31)</f>
+        <f t="shared" si="4"/>
         <v>3.686293690832954</v>
       </c>
       <c r="G34" s="3">
-        <f>STDEV(G2:G31)</f>
+        <f t="shared" si="4"/>
         <v>4.1136473485600904</v>
       </c>
       <c r="H34" s="3">
-        <f>STDEV(H2:H31)</f>
+        <f t="shared" si="4"/>
         <v>3.6514837167048846</v>
       </c>
       <c r="I34" s="3">
-        <f>STDEV(I2:I31)</f>
+        <f t="shared" si="4"/>
         <v>3.66021724680115</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34" si="3">STDEV(J2:J31)</f>
+        <f t="shared" ref="J34" si="5">STDEV(J2:J31)</f>
         <v>3.0742202491827708</v>
       </c>
     </row>
@@ -8571,31 +8575,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="6">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>8.7084338479255177</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.7268841992093162</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.136936356872595</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.8005306841748414</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5594807082670239</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.9962766347303611</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.2898446234602146</v>
       </c>
     </row>
@@ -8639,1103 +8643,1103 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <f t="shared" ref="B38:B66" si="5">C3-B3</f>
+        <f t="shared" ref="B38:B66" si="7">C3-B3</f>
         <v>-3.3333333333333997</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:C66" si="6">C3-C3</f>
+        <f t="shared" ref="C38:C66" si="8">C3-C3</f>
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:D66" si="7">C3-D3</f>
+        <f t="shared" ref="D38:D66" si="9">C3-D3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ref="E38:E66" si="8">C3-E3</f>
+        <f t="shared" ref="E38:E66" si="10">C3-E3</f>
         <v>-3.3333333333333997</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F66" si="9">C3-F3</f>
+        <f t="shared" ref="F38:F66" si="11">C3-F3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G66" si="10">C3-G3</f>
+        <f t="shared" ref="G38:G66" si="12">C3-G3</f>
         <v>3.3333333333333002</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:H66" si="11">C3-H3</f>
+        <f t="shared" ref="H38:H66" si="13">C3-H3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:I66" si="12">C3-I3</f>
+        <f t="shared" ref="I38:I66" si="14">C3-I3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J66" si="13">C3-J3</f>
+        <f t="shared" ref="J38:J66" si="15">C3-J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-3.3296032597718295E-11</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-3.3296032597718295E-11</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.3333333333333002</v>
       </c>
       <c r="H39" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="F40" s="3">
         <f t="shared" si="11"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="13"/>
         <v>3.3333333333666957</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I40" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="11"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="11"/>
+        <v>16.666666666699996</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="12"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="14"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="9"/>
+        <v>13.333333333366696</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="11"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="13"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="15"/>
+        <v>-3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="9"/>
+        <v>16.666666666699996</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="12"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="9"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G50" s="3">
         <f t="shared" si="12"/>
         <v>3.3333333333667099</v>
       </c>
-      <c r="J39" s="3">
+      <c r="H50" s="3">
         <f t="shared" si="13"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="10"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3310243452433497E-11</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="12"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="13"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="10"/>
         <v>3.3333333333333997</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="3">
-        <f t="shared" si="7"/>
+      <c r="F52" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="12"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="13"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="15"/>
         <v>6.6666666666666998</v>
       </c>
-      <c r="E40" s="3">
-        <f t="shared" si="8"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="9"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="12"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="12"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="13"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="14"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="15"/>
+        <v>6.6666666666666998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <f t="shared" si="7"/>
         <v>-3.3333333333333002</v>
       </c>
-      <c r="F40" s="3">
+      <c r="C55" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
         <f t="shared" si="9"/>
         <v>-3.3333333333333002</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="10"/>
+      <c r="E55" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="12"/>
         <v>-3.3333333333333002</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H55" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="15"/>
+        <v>-3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
         <f t="shared" si="11"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="13"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="9"/>
         <v>3.3333333333666957</v>
       </c>
-      <c r="I40" s="3">
+      <c r="E57" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="12"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="13"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="13"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="11"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="13"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="14"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="9"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G60" s="3">
         <f t="shared" si="12"/>
         <v>-3.3296032597718295E-11</v>
       </c>
-      <c r="J40" s="3">
+      <c r="H60" s="3">
         <f t="shared" si="13"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
-        <f t="shared" si="5"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="15"/>
+        <v>-3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="10"/>
         <v>3.3333333333333002</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="7"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="8"/>
+      <c r="F61" s="3">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="12"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="13"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="9"/>
         <v>6.6666666666666998</v>
       </c>
-      <c r="F41" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="E62" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G62" s="3">
         <f t="shared" si="12"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="13"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="14"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
-      <c r="J41" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E42" s="3">
-        <f t="shared" si="8"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="F42" s="3">
-        <f t="shared" si="9"/>
-        <v>16.666666666699996</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="12"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="8"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="F44" s="3">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="H44" s="3">
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="9"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
         <f t="shared" si="11"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="7"/>
-        <v>13.333333333366696</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="9"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
+      <c r="G63" s="3">
         <f t="shared" si="12"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="J46" s="3">
+      <c r="H63" s="3">
         <f t="shared" si="13"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="14"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="15"/>
+        <v>6.6666666666666998</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3296032597718295E-11</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="10"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3310243452433497E-11</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="12"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="13"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="14"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="15"/>
+        <v>-3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
+        <f t="shared" si="7"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="9"/>
+      <c r="C65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="9"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="13"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="I65" s="3">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="15"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="I47" s="3">
+      <c r="G66" s="3">
         <f t="shared" si="12"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="J47" s="3">
+      <c r="H66" s="3">
         <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="11"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J48" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="7"/>
-        <v>16.666666666699996</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="14"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="G49" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="7"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="3">
-        <f t="shared" si="5"/>
-        <v>-3.3333333333333997</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="8"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3310243452433497E-11</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="10"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="J51" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="3">
-        <f t="shared" si="5"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="7"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666666998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="7"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="10"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="J53" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="7"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="12"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="J54" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666666998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="3">
-        <f t="shared" si="5"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="7"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="9"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="J55" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="G56" s="3">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="J56" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J57" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="7"/>
-        <v>20</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="8"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="10"/>
-        <v>10</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="7"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F59" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="11"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="12"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="7"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="8"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="J61" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="3">
-        <f t="shared" si="5"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="7"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="J62" s="3">
-        <f t="shared" si="13"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="3">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="7"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666666998</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="3">
-        <f t="shared" si="5"/>
-        <v>-3.3333333333333997</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D64" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3296032597718295E-11</v>
-      </c>
-      <c r="E64" s="3">
-        <f t="shared" si="8"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="F64" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3310243452433497E-11</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="10"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="12"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B65" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D65" s="3">
-        <f t="shared" si="7"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="E65" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F65" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B66" s="3">
-        <f t="shared" si="5"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="D66" s="3">
-        <f t="shared" si="7"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="E66" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F66" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
       <c r="J66" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>6.6666666666666998</v>
       </c>
     </row>
@@ -9761,31 +9765,31 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="H1" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -10753,39 +10757,39 @@
         <v>0</v>
       </c>
       <c r="B33" s="5">
-        <f>AVERAGE(B2:B31)</f>
+        <f t="shared" ref="B33:I33" si="0">AVERAGE(B2:B31)</f>
         <v>85.170940170940199</v>
       </c>
       <c r="C33" s="5">
-        <f>AVERAGE(C2:C31)</f>
+        <f t="shared" si="0"/>
         <v>82.692307692307693</v>
       </c>
       <c r="D33" s="5">
-        <f>AVERAGE(D2:D31)</f>
+        <f t="shared" si="0"/>
         <v>81.09704641350001</v>
       </c>
       <c r="E33" s="5">
-        <f>AVERAGE(E2:E31)</f>
+        <f t="shared" si="0"/>
         <v>84.786324786324798</v>
       </c>
       <c r="F33" s="5">
-        <f>AVERAGE(F2:F31)</f>
+        <f t="shared" si="0"/>
         <v>84.273504273504301</v>
       </c>
       <c r="G33" s="5">
-        <f>AVERAGE(G2:G31)</f>
+        <f t="shared" si="0"/>
         <v>81.772151898736681</v>
       </c>
       <c r="H33" s="5">
-        <f>AVERAGE(H2:H31)</f>
+        <f t="shared" si="0"/>
         <v>83.164556962030005</v>
       </c>
       <c r="I33" s="5">
-        <f>AVERAGE(I2:I31)</f>
+        <f t="shared" si="0"/>
         <v>83.839662447256671</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33:K33" si="0">AVERAGE(J2:J31)</f>
+        <f t="shared" ref="J33" si="1">AVERAGE(J2:J31)</f>
         <v>82.905982905982896</v>
       </c>
     </row>
@@ -10794,39 +10798,39 @@
         <v>2</v>
       </c>
       <c r="B34" s="5">
-        <f>STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:I34" si="2">STDEV(B2:B31)</f>
         <v>3.8341003779613381</v>
       </c>
       <c r="C34" s="5">
-        <f>STDEV(C2:C31)</f>
+        <f t="shared" si="2"/>
         <v>5.6513650121241241</v>
       </c>
       <c r="D34" s="5">
-        <f>STDEV(D2:D31)</f>
+        <f t="shared" si="2"/>
         <v>4.1510540566655587</v>
       </c>
       <c r="E34" s="5">
-        <f>STDEV(E2:E31)</f>
+        <f t="shared" si="2"/>
         <v>3.4455920696305697</v>
       </c>
       <c r="F34" s="5">
-        <f>STDEV(F2:F31)</f>
+        <f t="shared" si="2"/>
         <v>3.0289012192531666</v>
       </c>
       <c r="G34" s="5">
-        <f>STDEV(G2:G31)</f>
+        <f t="shared" si="2"/>
         <v>3.4482206096623349</v>
       </c>
       <c r="H34" s="5">
-        <f>STDEV(H2:H31)</f>
+        <f t="shared" si="2"/>
         <v>3.6285735535108259</v>
       </c>
       <c r="I34" s="5">
-        <f>STDEV(I2:I31)</f>
+        <f t="shared" si="2"/>
         <v>4.2138039298725039</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ref="J34:K34" si="1">STDEV(J2:J31)</f>
+        <f t="shared" ref="J34" si="3">STDEV(J2:J31)</f>
         <v>3.0918686048190698</v>
       </c>
     </row>
@@ -10839,31 +10843,31 @@
         <v>2.5524889981121932</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>4.8892042838471879</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.54816378640490626</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.4241704568454197</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.5859669002375014</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1004240898261077</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.5980766548994085</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>4.2431147115089516</v>
       </c>
     </row>
@@ -10903,35 +10907,35 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
-        <f t="shared" ref="C38:C66" si="3">B3-C3</f>
+        <f t="shared" ref="C38:C66" si="5">B3-C3</f>
         <v>3.846153846153797</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ref="D38:D66" si="4">B3-D3</f>
+        <f t="shared" ref="D38:D66" si="6">B3-D3</f>
         <v>4.8360921778819943</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" ref="E38:E66" si="5">B3-E3</f>
+        <f t="shared" ref="E38:E66" si="7">B3-E3</f>
         <v>2.5641025641024981</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:F66" si="6">B3-F3</f>
+        <f t="shared" ref="F38:F66" si="8">B3-F3</f>
         <v>3.846153846153797</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:G66" si="7">B3-G3</f>
+        <f t="shared" ref="G38:G66" si="9">B3-G3</f>
         <v>-2.7588445310179992</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ref="H38:H66" si="8">B3-H3</f>
+        <f t="shared" ref="H38:H66" si="10">B3-H3</f>
         <v>-1.4930217462180053</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" ref="I38:I66" si="9">B3-I3</f>
+        <f t="shared" ref="I38:I66" si="11">B3-I3</f>
         <v>2.3044466082820065</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ref="J38:J66" si="10">B3-J3</f>
+        <f t="shared" ref="J38:J66" si="12">B3-J3</f>
         <v>-5.1282051282051953</v>
       </c>
     </row>
@@ -10941,71 +10945,71 @@
         <v>15.384615384615401</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0873093151358972</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5641025641025976</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0873093151358972</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.3531320999358911</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.4443362544641047</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-1.2820512820512988</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-7.6923076923077076</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-6.5238558909153994</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.1282051282050958</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.846153846153797</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0710808178845923</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0710808178845923</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.4605647517154097</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.4102564102563946</v>
       </c>
       <c r="D41" s="5">
@@ -11013,877 +11017,877 @@
         <v>4.9496916585409991</v>
       </c>
       <c r="E41" s="5">
+        <f t="shared" si="7"/>
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="F41" s="5">
+        <f t="shared" si="8"/>
+        <v>5.1282051282050958</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.11359948065900483</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="10"/>
+        <v>7.4813372281409869</v>
+      </c>
+      <c r="I41" s="5">
+        <f t="shared" si="11"/>
+        <v>10.012982797840991</v>
+      </c>
+      <c r="J41" s="5">
+        <f t="shared" si="12"/>
+        <v>6.4102564102563946</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C42" s="5">
+        <f t="shared" si="5"/>
+        <v>11.53846153846159</v>
+      </c>
+      <c r="D42" s="5">
+        <f t="shared" si="6"/>
+        <v>3.6514118792384949</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="7"/>
+        <v>3.8461538461538964</v>
+      </c>
+      <c r="F42" s="5">
+        <f t="shared" si="8"/>
+        <v>3.8461538461538964</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="9"/>
+        <v>7.4488802337384925</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.146056475161501</v>
+      </c>
+      <c r="I42" s="5">
+        <f t="shared" si="11"/>
+        <v>9.9805258033384945</v>
+      </c>
+      <c r="J42" s="5">
+        <f t="shared" si="12"/>
+        <v>5.1282051282051953</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C43" s="5">
         <f t="shared" si="5"/>
         <v>7.6923076923076934</v>
       </c>
-      <c r="F41" s="5">
+      <c r="D43" s="5">
         <f t="shared" si="6"/>
+        <v>8.7147030185385006</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="7"/>
+        <v>3.8461538461538964</v>
+      </c>
+      <c r="F43" s="5">
+        <f t="shared" si="8"/>
+        <v>7.6923076923076934</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="9"/>
+        <v>6.1830574488384968</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="10"/>
+        <v>3.6514118792384949</v>
+      </c>
+      <c r="I43" s="5">
+        <f t="shared" si="11"/>
+        <v>3.6514118792384949</v>
+      </c>
+      <c r="J43" s="5">
+        <f t="shared" si="12"/>
+        <v>6.4102564102564941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C44" s="5">
+        <f t="shared" si="5"/>
+        <v>11.538461538461505</v>
+      </c>
+      <c r="D44" s="5">
+        <f t="shared" si="6"/>
+        <v>3.6027263875845961</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.5641025641025976</v>
+      </c>
+      <c r="F44" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.2820512820512988</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="9"/>
+        <v>4.8685491723846042</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="10"/>
+        <v>6.134371957184598</v>
+      </c>
+      <c r="I44" s="5">
+        <f t="shared" si="11"/>
+        <v>-2.7263875365154036</v>
+      </c>
+      <c r="J44" s="5">
+        <f t="shared" si="12"/>
+        <v>-2.5641025641025976</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C45" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.5641025641024981</v>
+      </c>
+      <c r="D45" s="5">
+        <f t="shared" si="6"/>
+        <v>-2.7750730282692047</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.4102564102563946</v>
+      </c>
+      <c r="F45" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.1282051282050958</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="9"/>
+        <v>-1.5092502434691966</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.24342745856920089</v>
+      </c>
+      <c r="I45" s="5">
+        <f t="shared" si="11"/>
+        <v>3.554040895830795</v>
+      </c>
+      <c r="J45" s="5">
+        <f t="shared" si="12"/>
+        <v>2.5641025641025976</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C46" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="D46" s="5">
+        <f t="shared" si="6"/>
+        <v>4.8685491723846042</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025976</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" si="8"/>
         <v>5.1282051282050958</v>
       </c>
-      <c r="G41" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.11359948065900483</v>
-      </c>
-      <c r="H41" s="5">
-        <f t="shared" si="8"/>
-        <v>7.4813372281409869</v>
-      </c>
-      <c r="I41" s="5">
-        <f t="shared" si="9"/>
-        <v>10.012982797840991</v>
-      </c>
-      <c r="J41" s="5">
-        <f t="shared" si="10"/>
-        <v>6.4102564102563946</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C42" s="5">
-        <f t="shared" si="3"/>
-        <v>11.53846153846159</v>
-      </c>
-      <c r="D42" s="5">
-        <f t="shared" si="4"/>
-        <v>3.6514118792384949</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="G46" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.19474196691540158</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="10"/>
+        <v>7.4001947419845919</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" si="11"/>
+        <v>1.0710808178846065</v>
+      </c>
+      <c r="J46" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2820512820512988</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C47" s="5">
+        <f t="shared" si="5"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="D47" s="5">
+        <f t="shared" si="6"/>
+        <v>11.197663096384602</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.4102564102563946</v>
+      </c>
+      <c r="F47" s="5">
+        <f t="shared" si="8"/>
+        <v>-2.5641025641025976</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="9"/>
+        <v>1.0710808178845923</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="10"/>
+        <v>-2.7263875365154036</v>
+      </c>
+      <c r="I47" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.19474196691540158</v>
+      </c>
+      <c r="J47" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2820512820512988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C48" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.2820512820512988</v>
+      </c>
+      <c r="D48" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.5254787406204997</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="7"/>
+        <v>-6.4102564102563946</v>
+      </c>
+      <c r="F48" s="5">
+        <f t="shared" si="8"/>
+        <v>-3.846153846153797</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5378123985795042</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.25965595582049161</v>
+      </c>
+      <c r="I48" s="5">
+        <f t="shared" si="11"/>
+        <v>-5.3229470951204974</v>
+      </c>
+      <c r="J48" s="5">
+        <f t="shared" si="12"/>
+        <v>2.5641025641025976</v>
+      </c>
+    </row>
+    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C49" s="5">
+        <f t="shared" si="5"/>
+        <v>5.12820512820511</v>
+      </c>
+      <c r="D49" s="5">
+        <f t="shared" si="6"/>
+        <v>15.0925024342923</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="7"/>
+        <v>6.4102564102564088</v>
+      </c>
+      <c r="F49" s="5">
+        <f t="shared" si="8"/>
+        <v>7.6923076923077076</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="9"/>
+        <v>18.88997078869231</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="10"/>
+        <v>7.497565725392306</v>
+      </c>
+      <c r="I49" s="5">
+        <f t="shared" si="11"/>
+        <v>12.560856864692312</v>
+      </c>
+      <c r="J49" s="5">
+        <f t="shared" si="12"/>
+        <v>3.8461538461538112</v>
+      </c>
+    </row>
+    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C50" s="5">
+        <f t="shared" si="5"/>
+        <v>-1.2820512820512988</v>
+      </c>
+      <c r="D50" s="5">
+        <f t="shared" si="6"/>
+        <v>4.8360921778819943</v>
+      </c>
+      <c r="E50" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="5">
+        <f t="shared" si="8"/>
+        <v>-1.2820512820512988</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.22719896141799722</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.22719896141799722</v>
+      </c>
+      <c r="I50" s="5">
+        <f t="shared" si="11"/>
+        <v>4.8360921778819943</v>
+      </c>
+      <c r="J50" s="5">
+        <f t="shared" si="12"/>
+        <v>1.2820512820511993</v>
+      </c>
+    </row>
+    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C51" s="5">
+        <f t="shared" si="5"/>
+        <v>8.9743589743589069</v>
+      </c>
+      <c r="D51" s="5">
+        <f t="shared" si="6"/>
+        <v>3.5864978903333053</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.8461538461538964</v>
+      </c>
+      <c r="F51" s="5">
+        <f t="shared" si="8"/>
+        <v>-5.1282051282051953</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="9"/>
+        <v>3.5864978903333053</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="10"/>
+        <v>6.1181434599332931</v>
+      </c>
+      <c r="I51" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.4767932489667004</v>
+      </c>
+      <c r="J51" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C52" s="5">
+        <f t="shared" si="5"/>
+        <v>-7.6923076923076934</v>
+      </c>
+      <c r="D52" s="5">
+        <f t="shared" si="6"/>
+        <v>3.554040895830795</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="7"/>
+        <v>-7.6923076923076934</v>
+      </c>
+      <c r="F52" s="5">
+        <f t="shared" si="8"/>
+        <v>-3.846153846153797</v>
+      </c>
+      <c r="G52" s="5">
+        <f t="shared" si="9"/>
+        <v>-4.0408958130691985</v>
+      </c>
+      <c r="H52" s="5">
+        <f t="shared" si="10"/>
+        <v>-7.8383641674691944</v>
+      </c>
+      <c r="I52" s="5">
+        <f t="shared" si="11"/>
+        <v>-6.5725413826692005</v>
+      </c>
+      <c r="J52" s="5">
+        <f t="shared" si="12"/>
+        <v>-1.2820512820511993</v>
+      </c>
+    </row>
+    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C53" s="5">
         <f t="shared" si="5"/>
         <v>3.8461538461538964</v>
       </c>
-      <c r="F42" s="5">
+      <c r="D53" s="5">
         <f t="shared" si="6"/>
-        <v>3.8461538461538964</v>
-      </c>
-      <c r="G42" s="5">
-        <f t="shared" si="7"/>
-        <v>7.4488802337384925</v>
-      </c>
-      <c r="H42" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.146056475161501</v>
-      </c>
-      <c r="I42" s="5">
-        <f t="shared" si="9"/>
-        <v>9.9805258033384945</v>
-      </c>
-      <c r="J42" s="5">
-        <f t="shared" si="10"/>
-        <v>5.1282051282051953</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="5">
-        <f t="shared" si="3"/>
-        <v>7.6923076923076934</v>
-      </c>
-      <c r="D43" s="5">
-        <f t="shared" si="4"/>
-        <v>8.7147030185385006</v>
-      </c>
-      <c r="E43" s="5">
+        <v>8.6984745212871957</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="7"/>
+        <v>-2.5641025641025976</v>
+      </c>
+      <c r="F53" s="5">
+        <f t="shared" si="8"/>
+        <v>-2.5641025641025976</v>
+      </c>
+      <c r="G53" s="5">
+        <f t="shared" si="9"/>
+        <v>8.6984745212871957</v>
+      </c>
+      <c r="H53" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1035378123872022</v>
+      </c>
+      <c r="I53" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.16228497241280593</v>
+      </c>
+      <c r="J53" s="5">
+        <f t="shared" si="12"/>
+        <v>2.5641025641025976</v>
+      </c>
+    </row>
+    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C54" s="5">
         <f t="shared" si="5"/>
         <v>3.8461538461538964</v>
       </c>
-      <c r="F43" s="5">
+      <c r="D54" s="5">
         <f t="shared" si="6"/>
+        <v>4.901006166787198</v>
+      </c>
+      <c r="E54" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="F54" s="5">
+        <f t="shared" si="8"/>
+        <v>6.4102564102563946</v>
+      </c>
+      <c r="G54" s="5">
+        <f t="shared" si="9"/>
+        <v>3.6351833819871899</v>
+      </c>
+      <c r="H54" s="5">
+        <f t="shared" si="10"/>
+        <v>1.1035378123872022</v>
+      </c>
+      <c r="I54" s="5">
+        <f t="shared" si="11"/>
+        <v>1.103537812387188</v>
+      </c>
+      <c r="J54" s="5">
+        <f t="shared" si="12"/>
+        <v>5.1282051282051953</v>
+      </c>
+    </row>
+    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C55" s="5">
+        <f t="shared" si="5"/>
+        <v>-2.5641025641026118</v>
+      </c>
+      <c r="D55" s="5">
+        <f t="shared" si="6"/>
+        <v>8.747160012940995</v>
+      </c>
+      <c r="E55" s="5">
+        <f t="shared" si="7"/>
+        <v>10.256410256410192</v>
+      </c>
+      <c r="F55" s="5">
+        <f t="shared" si="8"/>
         <v>7.6923076923076934</v>
       </c>
-      <c r="G43" s="5">
-        <f t="shared" si="7"/>
-        <v>6.1830574488384968</v>
-      </c>
-      <c r="H43" s="5">
-        <f t="shared" si="8"/>
-        <v>3.6514118792384949</v>
-      </c>
-      <c r="I43" s="5">
-        <f t="shared" si="9"/>
-        <v>3.6514118792384949</v>
-      </c>
-      <c r="J43" s="5">
-        <f t="shared" si="10"/>
-        <v>6.4102564102564941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C44" s="5">
-        <f t="shared" si="3"/>
-        <v>11.538461538461505</v>
-      </c>
-      <c r="D44" s="5">
-        <f t="shared" si="4"/>
-        <v>3.6027263875845961</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="G55" s="5">
+        <f t="shared" si="9"/>
+        <v>8.747160012940995</v>
+      </c>
+      <c r="H55" s="5">
+        <f t="shared" si="10"/>
+        <v>7.4813372281409869</v>
+      </c>
+      <c r="I55" s="5">
+        <f t="shared" si="11"/>
+        <v>4.9496916585409849</v>
+      </c>
+      <c r="J55" s="5">
+        <f t="shared" si="12"/>
+        <v>10.256410256410192</v>
+      </c>
+    </row>
+    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C56" s="5">
         <f t="shared" si="5"/>
+        <v>-1.2820512820512988</v>
+      </c>
+      <c r="D56" s="5">
+        <f t="shared" si="6"/>
+        <v>-1.4605647517153955</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="7"/>
+        <v>-1.2820512820512988</v>
+      </c>
+      <c r="F56" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="G56" s="5">
+        <f t="shared" si="9"/>
+        <v>4.8685491723846042</v>
+      </c>
+      <c r="H56" s="5">
+        <f t="shared" si="10"/>
+        <v>4.8685491723846042</v>
+      </c>
+      <c r="I56" s="5">
+        <f t="shared" si="11"/>
+        <v>6.134371957184598</v>
+      </c>
+      <c r="J56" s="5">
+        <f t="shared" si="12"/>
+        <v>6.4102564102563946</v>
+      </c>
+    </row>
+    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C57" s="5">
+        <f t="shared" si="5"/>
+        <v>-6.4102564102564941</v>
+      </c>
+      <c r="D57" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0548523206333016</v>
+      </c>
+      <c r="E57" s="5">
+        <f t="shared" si="7"/>
         <v>-2.5641025641025976</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F57" s="5">
+        <f t="shared" si="8"/>
+        <v>-3.8461538461538964</v>
+      </c>
+      <c r="G57" s="5">
+        <f t="shared" si="9"/>
+        <v>-0.21097046416670651</v>
+      </c>
+      <c r="H57" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.21097046416670651</v>
+      </c>
+      <c r="I57" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.2109704641666923</v>
+      </c>
+      <c r="J57" s="5">
+        <f t="shared" si="12"/>
+        <v>5.1282051282050958</v>
+      </c>
+    </row>
+    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C58" s="5">
+        <f t="shared" si="5"/>
+        <v>6.4102564102563946</v>
+      </c>
+      <c r="D58" s="5">
         <f t="shared" si="6"/>
-        <v>-1.2820512820512988</v>
-      </c>
-      <c r="G44" s="5">
-        <f t="shared" si="7"/>
-        <v>4.8685491723846042</v>
-      </c>
-      <c r="H44" s="5">
-        <f t="shared" si="8"/>
-        <v>6.134371957184598</v>
-      </c>
-      <c r="I44" s="5">
-        <f t="shared" si="9"/>
-        <v>-2.7263875365154036</v>
-      </c>
-      <c r="J44" s="5">
-        <f t="shared" si="10"/>
-        <v>-2.5641025641025976</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C45" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.5641025641024981</v>
-      </c>
-      <c r="D45" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.7750730282692047</v>
-      </c>
-      <c r="E45" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.4102564102563946</v>
-      </c>
-      <c r="F45" s="5">
-        <f t="shared" si="6"/>
-        <v>-5.1282051282050958</v>
-      </c>
-      <c r="G45" s="5">
-        <f t="shared" si="7"/>
-        <v>-1.5092502434691966</v>
-      </c>
-      <c r="H45" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.24342745856920089</v>
-      </c>
-      <c r="I45" s="5">
-        <f t="shared" si="9"/>
-        <v>3.554040895830795</v>
-      </c>
-      <c r="J45" s="5">
-        <f t="shared" si="10"/>
+        <v>2.369360597187196</v>
+      </c>
+      <c r="E58" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1282051282051953</v>
+      </c>
+      <c r="F58" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="G58" s="5">
+        <f t="shared" si="9"/>
+        <v>1.1035378123872022</v>
+      </c>
+      <c r="H58" s="5">
+        <f t="shared" si="10"/>
+        <v>11.230120090887198</v>
+      </c>
+      <c r="I58" s="5">
+        <f t="shared" si="11"/>
+        <v>4.901006166787198</v>
+      </c>
+      <c r="J58" s="5">
+        <f t="shared" si="12"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C46" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8685491723846042</v>
-      </c>
-      <c r="E46" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5641025641025976</v>
-      </c>
-      <c r="F46" s="5">
-        <f t="shared" si="6"/>
-        <v>5.1282051282050958</v>
-      </c>
-      <c r="G46" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.19474196691540158</v>
-      </c>
-      <c r="H46" s="5">
-        <f t="shared" si="8"/>
-        <v>7.4001947419845919</v>
-      </c>
-      <c r="I46" s="5">
-        <f t="shared" si="9"/>
-        <v>1.0710808178846065</v>
-      </c>
-      <c r="J46" s="5">
-        <f t="shared" si="10"/>
-        <v>1.2820512820512988</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="D47" s="5">
-        <f t="shared" si="4"/>
-        <v>11.197663096384602</v>
-      </c>
-      <c r="E47" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.4102564102563946</v>
-      </c>
-      <c r="F47" s="5">
-        <f t="shared" si="6"/>
-        <v>-2.5641025641025976</v>
-      </c>
-      <c r="G47" s="5">
-        <f t="shared" si="7"/>
-        <v>1.0710808178845923</v>
-      </c>
-      <c r="H47" s="5">
-        <f t="shared" si="8"/>
-        <v>-2.7263875365154036</v>
-      </c>
-      <c r="I47" s="5">
-        <f t="shared" si="9"/>
-        <v>-0.19474196691540158</v>
-      </c>
-      <c r="J47" s="5">
-        <f t="shared" si="10"/>
-        <v>1.2820512820512988</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C48" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.2820512820512988</v>
-      </c>
-      <c r="D48" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.5254787406204997</v>
-      </c>
-      <c r="E48" s="5">
-        <f t="shared" si="5"/>
-        <v>-6.4102564102563946</v>
-      </c>
-      <c r="F48" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.846153846153797</v>
-      </c>
-      <c r="G48" s="5">
-        <f t="shared" si="7"/>
-        <v>3.5378123985795042</v>
-      </c>
-      <c r="H48" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.25965595582049161</v>
-      </c>
-      <c r="I48" s="5">
-        <f t="shared" si="9"/>
-        <v>-5.3229470951204974</v>
-      </c>
-      <c r="J48" s="5">
-        <f t="shared" si="10"/>
-        <v>2.5641025641025976</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C49" s="5">
-        <f t="shared" si="3"/>
-        <v>5.12820512820511</v>
-      </c>
-      <c r="D49" s="5">
-        <f t="shared" si="4"/>
-        <v>15.0925024342923</v>
-      </c>
-      <c r="E49" s="5">
-        <f t="shared" si="5"/>
-        <v>6.4102564102564088</v>
-      </c>
-      <c r="F49" s="5">
-        <f t="shared" si="6"/>
-        <v>7.6923076923077076</v>
-      </c>
-      <c r="G49" s="5">
-        <f t="shared" si="7"/>
-        <v>18.88997078869231</v>
-      </c>
-      <c r="H49" s="5">
-        <f t="shared" si="8"/>
-        <v>7.497565725392306</v>
-      </c>
-      <c r="I49" s="5">
-        <f t="shared" si="9"/>
-        <v>12.560856864692312</v>
-      </c>
-      <c r="J49" s="5">
-        <f t="shared" si="10"/>
-        <v>3.8461538461538112</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C50" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.2820512820512988</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="4"/>
-        <v>4.8360921778819943</v>
-      </c>
-      <c r="E50" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="F50" s="5">
-        <f t="shared" si="6"/>
-        <v>-1.2820512820512988</v>
-      </c>
-      <c r="G50" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.22719896141799722</v>
-      </c>
-      <c r="H50" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.22719896141799722</v>
-      </c>
-      <c r="I50" s="5">
-        <f t="shared" si="9"/>
-        <v>4.8360921778819943</v>
-      </c>
-      <c r="J50" s="5">
-        <f t="shared" si="10"/>
-        <v>1.2820512820511993</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C51" s="5">
-        <f t="shared" si="3"/>
-        <v>8.9743589743589069</v>
-      </c>
-      <c r="D51" s="5">
-        <f t="shared" si="4"/>
-        <v>3.5864978903333053</v>
-      </c>
-      <c r="E51" s="5">
+    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C59" s="5">
         <f t="shared" si="5"/>
         <v>-3.8461538461538964</v>
       </c>
-      <c r="F51" s="5">
+      <c r="D59" s="5">
         <f t="shared" si="6"/>
+        <v>-2.7588445310179992</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="7"/>
+        <v>3.846153846153797</v>
+      </c>
+      <c r="F59" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="5">
+        <f t="shared" si="9"/>
+        <v>1.0386238234819984</v>
+      </c>
+      <c r="H59" s="5">
+        <f t="shared" si="10"/>
+        <v>-5.2904901006180012</v>
+      </c>
+      <c r="I59" s="5">
+        <f t="shared" si="11"/>
+        <v>2.3044466082820065</v>
+      </c>
+      <c r="J59" s="5">
+        <f t="shared" si="12"/>
         <v>-5.1282051282051953</v>
       </c>
-      <c r="G51" s="5">
-        <f t="shared" si="7"/>
-        <v>3.5864978903333053</v>
-      </c>
-      <c r="H51" s="5">
-        <f t="shared" si="8"/>
-        <v>6.1181434599332931</v>
-      </c>
-      <c r="I51" s="5">
-        <f t="shared" si="9"/>
-        <v>-1.4767932489667004</v>
-      </c>
-      <c r="J51" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C52" s="5">
-        <f t="shared" si="3"/>
-        <v>-7.6923076923076934</v>
-      </c>
-      <c r="D52" s="5">
-        <f t="shared" si="4"/>
-        <v>3.554040895830795</v>
-      </c>
-      <c r="E52" s="5">
+    </row>
+    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C60" s="5">
         <f t="shared" si="5"/>
-        <v>-7.6923076923076934</v>
-      </c>
-      <c r="F52" s="5">
+        <v>6.4102564102563946</v>
+      </c>
+      <c r="D60" s="5">
         <f t="shared" si="6"/>
-        <v>-3.846153846153797</v>
-      </c>
-      <c r="G52" s="5">
-        <f t="shared" si="7"/>
+        <v>10.012982797840991</v>
+      </c>
+      <c r="E60" s="5">
+        <f t="shared" si="7"/>
+        <v>5.1282051282050958</v>
+      </c>
+      <c r="F60" s="5">
+        <f t="shared" si="8"/>
+        <v>2.5641025641024981</v>
+      </c>
+      <c r="G60" s="5">
+        <f t="shared" si="9"/>
+        <v>11.278805582640999</v>
+      </c>
+      <c r="H60" s="5">
+        <f t="shared" si="10"/>
+        <v>-0.11359948065900483</v>
+      </c>
+      <c r="I60" s="5">
+        <f t="shared" si="11"/>
+        <v>6.215514443340993</v>
+      </c>
+      <c r="J60" s="5">
+        <f t="shared" si="12"/>
+        <v>6.4102564102563946</v>
+      </c>
+    </row>
+    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C61" s="5">
+        <f t="shared" si="5"/>
+        <v>-10.256410256410192</v>
+      </c>
+      <c r="D61" s="5">
+        <f t="shared" si="6"/>
         <v>-4.0408958130691985</v>
       </c>
-      <c r="H52" s="5">
-        <f t="shared" si="8"/>
-        <v>-7.8383641674691944</v>
-      </c>
-      <c r="I52" s="5">
-        <f t="shared" si="9"/>
-        <v>-6.5725413826692005</v>
-      </c>
-      <c r="J52" s="5">
-        <f t="shared" si="10"/>
-        <v>-1.2820512820511993</v>
-      </c>
-    </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C53" s="5">
-        <f t="shared" si="3"/>
+      <c r="E61" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025976</v>
+      </c>
+      <c r="F61" s="5">
+        <f t="shared" si="8"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="9"/>
+        <v>-2.7750730282692047</v>
+      </c>
+      <c r="H61" s="5">
+        <f t="shared" si="10"/>
+        <v>-5.3067185978691924</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.5092502434691966</v>
+      </c>
+      <c r="J61" s="5">
+        <f t="shared" si="12"/>
         <v>3.8461538461538964</v>
       </c>
-      <c r="D53" s="5">
-        <f t="shared" si="4"/>
-        <v>8.6984745212871957</v>
-      </c>
-      <c r="E53" s="5">
+    </row>
+    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C62" s="5">
         <f t="shared" si="5"/>
-        <v>-2.5641025641025976</v>
-      </c>
-      <c r="F53" s="5">
+        <v>15.384615384615401</v>
+      </c>
+      <c r="D62" s="5">
         <f t="shared" si="6"/>
-        <v>-2.5641025641025976</v>
-      </c>
-      <c r="G53" s="5">
-        <f t="shared" si="7"/>
-        <v>8.6984745212871957</v>
-      </c>
-      <c r="H53" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1035378123872022</v>
-      </c>
-      <c r="I53" s="5">
-        <f t="shared" si="9"/>
+        <v>4.901006166787198</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="7"/>
+        <v>1.2820512820512988</v>
+      </c>
+      <c r="F62" s="5">
+        <f t="shared" si="8"/>
+        <v>2.5641025641025976</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="9"/>
+        <v>3.6351833819871899</v>
+      </c>
+      <c r="H62" s="5">
+        <f t="shared" si="10"/>
+        <v>4.901006166787198</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="11"/>
         <v>-0.16228497241280593</v>
       </c>
-      <c r="J53" s="5">
-        <f t="shared" si="10"/>
-        <v>2.5641025641025976</v>
-      </c>
-    </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C54" s="5">
-        <f t="shared" si="3"/>
-        <v>3.8461538461538964</v>
-      </c>
-      <c r="D54" s="5">
-        <f t="shared" si="4"/>
-        <v>4.901006166787198</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="J62" s="5">
+        <f t="shared" si="12"/>
+        <v>5.1282051282051953</v>
+      </c>
+    </row>
+    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C63" s="5">
         <f t="shared" si="5"/>
         <v>1.2820512820512988</v>
       </c>
-      <c r="F54" s="5">
+      <c r="D63" s="5">
         <f t="shared" si="6"/>
-        <v>6.4102564102563946</v>
-      </c>
-      <c r="G54" s="5">
-        <f t="shared" si="7"/>
-        <v>3.6351833819871899</v>
-      </c>
-      <c r="H54" s="5">
-        <f t="shared" si="8"/>
-        <v>1.1035378123872022</v>
-      </c>
-      <c r="I54" s="5">
-        <f t="shared" si="9"/>
-        <v>1.103537812387188</v>
-      </c>
-      <c r="J54" s="5">
-        <f t="shared" si="10"/>
-        <v>5.1282051282051953</v>
-      </c>
-    </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C55" s="5">
-        <f t="shared" si="3"/>
-        <v>-2.5641025641026118</v>
-      </c>
-      <c r="D55" s="5">
-        <f t="shared" si="4"/>
-        <v>8.747160012940995</v>
-      </c>
-      <c r="E55" s="5">
-        <f t="shared" si="5"/>
-        <v>10.256410256410192</v>
-      </c>
-      <c r="F55" s="5">
-        <f t="shared" si="6"/>
-        <v>7.6923076923076934</v>
-      </c>
-      <c r="G55" s="5">
-        <f t="shared" si="7"/>
-        <v>8.747160012940995</v>
-      </c>
-      <c r="H55" s="5">
-        <f t="shared" si="8"/>
-        <v>7.4813372281409869</v>
-      </c>
-      <c r="I55" s="5">
-        <f t="shared" si="9"/>
-        <v>4.9496916585409849</v>
-      </c>
-      <c r="J55" s="5">
-        <f t="shared" si="10"/>
-        <v>10.256410256410192</v>
-      </c>
-    </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C56" s="5">
-        <f t="shared" si="3"/>
-        <v>-1.2820512820512988</v>
-      </c>
-      <c r="D56" s="5">
-        <f t="shared" si="4"/>
-        <v>-1.4605647517153955</v>
-      </c>
-      <c r="E56" s="5">
-        <f t="shared" si="5"/>
-        <v>-1.2820512820512988</v>
-      </c>
-      <c r="F56" s="5">
-        <f t="shared" si="6"/>
+        <v>8.6822460240358907</v>
+      </c>
+      <c r="E63" s="5">
+        <f t="shared" si="7"/>
+        <v>2.5641025641025976</v>
+      </c>
+      <c r="F63" s="5">
+        <f t="shared" si="8"/>
         <v>1.2820512820512988</v>
       </c>
-      <c r="G56" s="5">
-        <f t="shared" si="7"/>
-        <v>4.8685491723846042</v>
-      </c>
-      <c r="H56" s="5">
-        <f t="shared" si="8"/>
-        <v>4.8685491723846042</v>
-      </c>
-      <c r="I56" s="5">
-        <f t="shared" si="9"/>
-        <v>6.134371957184598</v>
-      </c>
-      <c r="J56" s="5">
-        <f t="shared" si="10"/>
-        <v>6.4102564102563946</v>
-      </c>
-    </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C57" s="5">
-        <f t="shared" si="3"/>
-        <v>-6.4102564102564941</v>
-      </c>
-      <c r="D57" s="5">
-        <f t="shared" si="4"/>
-        <v>1.0548523206333016</v>
-      </c>
-      <c r="E57" s="5">
-        <f t="shared" si="5"/>
-        <v>-2.5641025641025976</v>
-      </c>
-      <c r="F57" s="5">
-        <f t="shared" si="6"/>
-        <v>-3.8461538461538964</v>
-      </c>
-      <c r="G57" s="5">
-        <f t="shared" si="7"/>
-        <v>-0.21097046416670651</v>
-      </c>
-      <c r="H57" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.21097046416670651</v>
-      </c>
-      <c r="I57" s="5">
-        <f t="shared" si="9"/>
-        <v>-0.2109704641666923</v>
-      </c>
-      <c r="J57" s="5">
-        <f t="shared" si="10"/>
-        <v>5.1282051282050958</v>
-      </c>
-    </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C58" s="5">
-        <f t="shared" si="3"/>
-        <v>6.4102564102563946</v>
-      </c>
-      <c r="D58" s="5">
-        <f t="shared" si="4"/>
-        <v>2.369360597187196</v>
-      </c>
-      <c r="E58" s="5">
-        <f t="shared" si="5"/>
-        <v>5.1282051282051953</v>
-      </c>
-      <c r="F58" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="G58" s="5">
-        <f t="shared" si="7"/>
-        <v>1.1035378123872022</v>
-      </c>
-      <c r="H58" s="5">
-        <f t="shared" si="8"/>
-        <v>11.230120090887198</v>
-      </c>
-      <c r="I58" s="5">
-        <f t="shared" si="9"/>
-        <v>4.901006166787198</v>
-      </c>
-      <c r="J58" s="5">
-        <f t="shared" si="10"/>
-        <v>2.5641025641025976</v>
-      </c>
-    </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C59" s="5">
-        <f t="shared" si="3"/>
-        <v>-3.8461538461538964</v>
-      </c>
-      <c r="D59" s="5">
-        <f t="shared" si="4"/>
-        <v>-2.7588445310179992</v>
-      </c>
-      <c r="E59" s="5">
-        <f t="shared" si="5"/>
-        <v>3.846153846153797</v>
-      </c>
-      <c r="F59" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="5">
-        <f t="shared" si="7"/>
-        <v>1.0386238234819984</v>
-      </c>
-      <c r="H59" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.2904901006180012</v>
-      </c>
-      <c r="I59" s="5">
-        <f t="shared" si="9"/>
-        <v>2.3044466082820065</v>
-      </c>
-      <c r="J59" s="5">
-        <f t="shared" si="10"/>
-        <v>-5.1282051282051953</v>
-      </c>
-    </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C60" s="5">
-        <f t="shared" si="3"/>
-        <v>6.4102564102563946</v>
-      </c>
-      <c r="D60" s="5">
-        <f t="shared" si="4"/>
-        <v>10.012982797840991</v>
-      </c>
-      <c r="E60" s="5">
-        <f t="shared" si="5"/>
-        <v>5.1282051282050958</v>
-      </c>
-      <c r="F60" s="5">
-        <f t="shared" si="6"/>
-        <v>2.5641025641024981</v>
-      </c>
-      <c r="G60" s="5">
-        <f t="shared" si="7"/>
-        <v>11.278805582640999</v>
-      </c>
-      <c r="H60" s="5">
-        <f t="shared" si="8"/>
-        <v>-0.11359948065900483</v>
-      </c>
-      <c r="I60" s="5">
-        <f t="shared" si="9"/>
-        <v>6.215514443340993</v>
-      </c>
-      <c r="J60" s="5">
-        <f t="shared" si="10"/>
-        <v>6.4102564102563946</v>
-      </c>
-    </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C61" s="5">
-        <f t="shared" si="3"/>
-        <v>-10.256410256410192</v>
-      </c>
-      <c r="D61" s="5">
-        <f t="shared" si="4"/>
-        <v>-4.0408958130691985</v>
-      </c>
-      <c r="E61" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5641025641025976</v>
-      </c>
-      <c r="F61" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="G61" s="5">
-        <f t="shared" si="7"/>
-        <v>-2.7750730282692047</v>
-      </c>
-      <c r="H61" s="5">
-        <f t="shared" si="8"/>
-        <v>-5.3067185978691924</v>
-      </c>
-      <c r="I61" s="5">
-        <f t="shared" si="9"/>
-        <v>-1.5092502434691966</v>
-      </c>
-      <c r="J61" s="5">
-        <f t="shared" si="10"/>
-        <v>3.8461538461538964</v>
-      </c>
-    </row>
-    <row r="62" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C62" s="5">
-        <f t="shared" si="3"/>
-        <v>15.384615384615401</v>
-      </c>
-      <c r="D62" s="5">
-        <f t="shared" si="4"/>
-        <v>4.901006166787198</v>
-      </c>
-      <c r="E62" s="5">
-        <f t="shared" si="5"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="F62" s="5">
-        <f t="shared" si="6"/>
-        <v>2.5641025641025976</v>
-      </c>
-      <c r="G62" s="5">
-        <f t="shared" si="7"/>
-        <v>3.6351833819871899</v>
-      </c>
-      <c r="H62" s="5">
-        <f t="shared" si="8"/>
-        <v>4.901006166787198</v>
-      </c>
-      <c r="I62" s="5">
-        <f t="shared" si="9"/>
-        <v>-0.16228497241280593</v>
-      </c>
-      <c r="J62" s="5">
-        <f t="shared" si="10"/>
-        <v>5.1282051282051953</v>
-      </c>
-    </row>
-    <row r="63" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C63" s="5">
-        <f t="shared" si="3"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="D63" s="5">
-        <f t="shared" si="4"/>
+      <c r="G63" s="5">
+        <f t="shared" si="9"/>
         <v>8.6822460240358907</v>
       </c>
-      <c r="E63" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5641025641025976</v>
-      </c>
-      <c r="F63" s="5">
-        <f t="shared" si="6"/>
-        <v>1.2820512820512988</v>
-      </c>
-      <c r="G63" s="5">
-        <f t="shared" si="7"/>
-        <v>8.6822460240358907</v>
-      </c>
       <c r="H63" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.6189548847358992</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-5.2418046088641006</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-1.5417072378717904</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-5.1282051282050958</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.27588445307179654</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-4.0733528075717942</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-15.465757870771796</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-2.5641025641025976</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10.256410256410291</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17.591691009389791</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11.262577085389793</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.1992859460897876</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.4018175916897917</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>5.1282051282051953</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-5.3229470951204974</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-10.256410256410291</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>-10.256410256410291</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-4.0571243103205035</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-0.25965595582049161</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-5.3229470951204974</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-3.846153846153797</v>
       </c>
     </row>
@@ -12802,8 +12806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12813,19 +12817,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>55</v>
+        <v>96</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -12834,10 +12838,10 @@
         <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -12851,13 +12855,13 @@
         <v>91.770011273957195</v>
       </c>
       <c r="D2" s="3">
-        <v>87.147688838799994</v>
+        <v>83.878241262700001</v>
       </c>
       <c r="E2" s="3">
-        <v>91.544532130777895</v>
+        <v>91.657271702367495</v>
       </c>
       <c r="F2" s="3">
-        <v>87.147688838799994</v>
+        <v>91.431792559188295</v>
       </c>
       <c r="G2" s="3">
         <v>88.838782412599997</v>
@@ -12883,13 +12887,13 @@
         <v>91.770011273957195</v>
       </c>
       <c r="D3" s="3">
-        <v>85.907553551299998</v>
+        <v>86.471251409199994</v>
       </c>
       <c r="E3" s="3">
-        <v>91.544532130777895</v>
+        <v>92.897406989853394</v>
       </c>
       <c r="F3" s="3">
-        <v>88.162344983099999</v>
+        <v>91.995490417136395</v>
       </c>
       <c r="G3" s="3">
         <v>89.064261555800002</v>
@@ -12915,13 +12919,13 @@
         <v>91.431792559188295</v>
       </c>
       <c r="D4" s="3">
-        <v>86.0202931229</v>
+        <v>85.456595264900002</v>
       </c>
       <c r="E4" s="3">
-        <v>90.529875986471296</v>
+        <v>92.220969560315694</v>
       </c>
       <c r="F4" s="3">
-        <v>87.034949267200005</v>
+        <v>92.108229988725995</v>
       </c>
       <c r="G4" s="3">
         <v>91.544532130800008</v>
@@ -12947,13 +12951,13 @@
         <v>90.980834272829796</v>
       </c>
       <c r="D5" s="3">
-        <v>86.809470124000001</v>
+        <v>85.3438556933</v>
       </c>
       <c r="E5" s="3">
-        <v>88.951521984216498</v>
+        <v>90.642615558060896</v>
       </c>
       <c r="F5" s="3">
-        <v>87.147688838799994</v>
+        <v>90.755355129650496</v>
       </c>
       <c r="G5" s="3">
         <v>90.304396843300012</v>
@@ -12979,13 +12983,13 @@
         <v>91.206313416008996</v>
       </c>
       <c r="D6" s="3">
-        <v>83.765501691099999</v>
+        <v>84.216459977499994</v>
       </c>
       <c r="E6" s="3">
-        <v>89.289740698985298</v>
+        <v>90.529875986471296</v>
       </c>
       <c r="F6" s="3">
-        <v>88.838782412599997</v>
+        <v>90.304396843291997</v>
       </c>
       <c r="G6" s="3">
         <v>90.529875986500002</v>
@@ -13011,13 +13015,13 @@
         <v>93.010146561443094</v>
       </c>
       <c r="D7" s="3">
-        <v>84.667418263800002</v>
+        <v>84.5546786922</v>
       </c>
       <c r="E7" s="3">
-        <v>90.078917700112697</v>
+        <v>93.799323562570507</v>
       </c>
       <c r="F7" s="3">
-        <v>88.838782412599997</v>
+        <v>93.348365276211993</v>
       </c>
       <c r="G7" s="3">
         <v>89.853438556900002</v>
@@ -13043,13 +13047,13 @@
         <v>89.289740698985298</v>
       </c>
       <c r="D8" s="3">
-        <v>83.765501691099999</v>
+        <v>86.696730552399998</v>
       </c>
       <c r="E8" s="3">
-        <v>89.740698985343897</v>
+        <v>91.206313416008996</v>
       </c>
       <c r="F8" s="3">
-        <v>85.456595264900002</v>
+        <v>91.319052987598695</v>
       </c>
       <c r="G8" s="3">
         <v>89.853438556900002</v>
@@ -13075,13 +13079,13 @@
         <v>88.838782412626799</v>
       </c>
       <c r="D9" s="3">
-        <v>83.314543404700004</v>
+        <v>86.133032694500002</v>
       </c>
       <c r="E9" s="3">
-        <v>91.995490417136395</v>
+        <v>92.897406989853394</v>
       </c>
       <c r="F9" s="3">
-        <v>88.049605411499996</v>
+        <v>93.686583990980793</v>
       </c>
       <c r="G9" s="3">
         <v>90.078917700100007</v>
@@ -13107,13 +13111,13 @@
         <v>91.770011273957195</v>
       </c>
       <c r="D10" s="3">
-        <v>84.5546786922</v>
+        <v>84.329199548999995</v>
       </c>
       <c r="E10" s="3">
-        <v>89.289740698985298</v>
+        <v>91.319052987598695</v>
       </c>
       <c r="F10" s="3">
-        <v>87.034949267200005</v>
+        <v>91.995490417136395</v>
       </c>
       <c r="G10" s="3">
         <v>90.98083427280001</v>
@@ -13139,13 +13143,13 @@
         <v>90.078917700112697</v>
       </c>
       <c r="D11" s="3">
-        <v>84.441939120599997</v>
+        <v>86.133032694500002</v>
       </c>
       <c r="E11" s="3">
-        <v>89.627959413754198</v>
+        <v>91.657271702367495</v>
       </c>
       <c r="F11" s="3">
-        <v>87.598647125100001</v>
+        <v>92.220969560315694</v>
       </c>
       <c r="G11" s="3">
         <v>89.96617812849999</v>
@@ -13171,13 +13175,13 @@
         <v>89.402480270574998</v>
       </c>
       <c r="D12" s="3">
-        <v>84.216459977499994</v>
+        <v>83.990980834300004</v>
       </c>
       <c r="E12" s="3">
-        <v>90.868094701240096</v>
+        <v>91.544532130777895</v>
       </c>
       <c r="F12" s="3">
-        <v>88.162344983099999</v>
+        <v>91.206313416008996</v>
       </c>
       <c r="G12" s="3">
         <v>90.304396843300012</v>
@@ -13203,13 +13207,13 @@
         <v>88.275084554678699</v>
       </c>
       <c r="D13" s="3">
-        <v>85.456595264900002</v>
+        <v>84.216459977499994</v>
       </c>
       <c r="E13" s="3">
-        <v>90.078917700112697</v>
+        <v>92.446448703494895</v>
       </c>
       <c r="F13" s="3">
-        <v>86.245772266099991</v>
+        <v>92.671927846674194</v>
       </c>
       <c r="G13" s="3">
         <v>89.853438556900002</v>
@@ -13235,13 +13239,13 @@
         <v>91.882750845546795</v>
       </c>
       <c r="D14" s="3">
-        <v>83.652762119499997</v>
+        <v>84.892897407000007</v>
       </c>
       <c r="E14" s="3">
-        <v>90.642615558060896</v>
+        <v>90.755355129650496</v>
       </c>
       <c r="F14" s="3">
-        <v>85.907553551299998</v>
+        <v>91.319052987598695</v>
       </c>
       <c r="G14" s="3">
         <v>89.96617812849999</v>
@@ -13267,13 +13271,13 @@
         <v>91.093573844419396</v>
       </c>
       <c r="D15" s="3">
-        <v>84.780157835400004</v>
+        <v>87.598647125100001</v>
       </c>
       <c r="E15" s="3">
-        <v>89.966178128523097</v>
+        <v>91.093573844419396</v>
       </c>
       <c r="F15" s="3">
-        <v>85.2311161218</v>
+        <v>91.093573844419396</v>
       </c>
       <c r="G15" s="3">
         <v>89.853438556900002</v>
@@ -13299,13 +13303,13 @@
         <v>90.980834272829796</v>
       </c>
       <c r="D16" s="3">
-        <v>85.456595264900002</v>
+        <v>85.005636978599995</v>
       </c>
       <c r="E16" s="3">
-        <v>91.319052987598695</v>
+        <v>90.868094701240096</v>
       </c>
       <c r="F16" s="3">
-        <v>87.598647125100001</v>
+        <v>91.431792559188295</v>
       </c>
       <c r="G16" s="3">
         <v>90.642615558100005</v>
@@ -13331,13 +13335,13 @@
         <v>90.642615558060896</v>
       </c>
       <c r="D17" s="3">
-        <v>84.5546786922</v>
+        <v>85.2311161218</v>
       </c>
       <c r="E17" s="3">
-        <v>90.980834272829796</v>
+        <v>92.784667418263794</v>
       </c>
       <c r="F17" s="3">
-        <v>89.064261555800002</v>
+        <v>92.559188275084594</v>
       </c>
       <c r="G17" s="3">
         <v>91.206313416</v>
@@ -13363,13 +13367,13 @@
         <v>90.304396843291997</v>
       </c>
       <c r="D18" s="3">
-        <v>86.809470124000001</v>
+        <v>83.878241262700001</v>
       </c>
       <c r="E18" s="3">
-        <v>92.446448703494895</v>
+        <v>92.784667418263794</v>
       </c>
       <c r="F18" s="3">
-        <v>87.034949267200005</v>
+        <v>93.010146561443094</v>
       </c>
       <c r="G18" s="3">
         <v>91.093573844399998</v>
@@ -13395,13 +13399,13 @@
         <v>91.995490417136395</v>
       </c>
       <c r="D19" s="3">
-        <v>83.878241262700001</v>
+        <v>85.682074408099993</v>
       </c>
       <c r="E19" s="3">
-        <v>90.417136414881597</v>
+        <v>91.093573844419396</v>
       </c>
       <c r="F19" s="3">
-        <v>87.373167981999998</v>
+        <v>91.544532130777895</v>
       </c>
       <c r="G19" s="3">
         <v>88.049605411499996</v>
@@ -13427,13 +13431,13 @@
         <v>90.980834272829796</v>
       </c>
       <c r="D20" s="3">
-        <v>86.471251409199994</v>
+        <v>85.456595264900002</v>
       </c>
       <c r="E20" s="3">
-        <v>89.627959413754198</v>
+        <v>90.642615558060896</v>
       </c>
       <c r="F20" s="3">
-        <v>86.133032694500002</v>
+        <v>90.304396843291997</v>
       </c>
       <c r="G20" s="3">
         <v>89.627959413799999</v>
@@ -13459,13 +13463,13 @@
         <v>91.770011273957195</v>
       </c>
       <c r="D21" s="3">
-        <v>84.441939120599997</v>
+        <v>85.682074408099993</v>
       </c>
       <c r="E21" s="3">
-        <v>90.868094701240096</v>
+        <v>92.559188275084594</v>
       </c>
       <c r="F21" s="3">
-        <v>87.034949267200005</v>
+        <v>92.784667418263794</v>
       </c>
       <c r="G21" s="3">
         <v>89.064261555800002</v>
@@ -13491,13 +13495,13 @@
         <v>90.868094701240096</v>
       </c>
       <c r="D22" s="3">
-        <v>86.245772266100005</v>
+        <v>85.794813979699995</v>
       </c>
       <c r="E22" s="3">
-        <v>90.417136414881597</v>
+        <v>91.093573844419396</v>
       </c>
       <c r="F22" s="3">
-        <v>86.583990980799996</v>
+        <v>91.319052987598695</v>
       </c>
       <c r="G22" s="3">
         <v>89.402480270600009</v>
@@ -13523,13 +13527,13 @@
         <v>92.220969560315694</v>
       </c>
       <c r="D23" s="3">
-        <v>84.780157835400004</v>
+        <v>86.133032694500002</v>
       </c>
       <c r="E23" s="3">
-        <v>90.642615558060896</v>
+        <v>90.868094701240096</v>
       </c>
       <c r="F23" s="3">
-        <v>85.682074408099993</v>
+        <v>91.544532130777895</v>
       </c>
       <c r="G23" s="3">
         <v>89.289740698999992</v>
@@ -13558,10 +13562,10 @@
         <v>84.441939120599997</v>
       </c>
       <c r="E24" s="3">
-        <v>89.740698985343897</v>
+        <v>91.206313416008996</v>
       </c>
       <c r="F24" s="3">
-        <v>85.682074408099993</v>
+        <v>91.319052987598695</v>
       </c>
       <c r="G24" s="3">
         <v>89.289740698999992</v>
@@ -13587,13 +13591,13 @@
         <v>90.755355129650496</v>
       </c>
       <c r="D25" s="3">
-        <v>85.2311161218</v>
+        <v>84.5546786922</v>
       </c>
       <c r="E25" s="3">
         <v>91.770011273957195</v>
       </c>
       <c r="F25" s="3">
-        <v>83.652762119499997</v>
+        <v>92.333709131905294</v>
       </c>
       <c r="G25" s="3">
         <v>89.064261555800002</v>
@@ -13619,13 +13623,13 @@
         <v>89.853438556933497</v>
       </c>
       <c r="D26" s="3">
-        <v>85.569334836500005</v>
+        <v>86.583990980799996</v>
       </c>
       <c r="E26" s="3">
-        <v>91.319052987598695</v>
+        <v>92.897406989853394</v>
       </c>
       <c r="F26" s="3">
-        <v>85.907553551299998</v>
+        <v>92.784667418263794</v>
       </c>
       <c r="G26" s="3">
         <v>89.7406989853</v>
@@ -13651,13 +13655,13 @@
         <v>89.402480270574998</v>
       </c>
       <c r="D27" s="3">
-        <v>85.2311161218</v>
+        <v>87.260428410399996</v>
       </c>
       <c r="E27" s="3">
-        <v>91.657271702367495</v>
+        <v>92.559188275084594</v>
       </c>
       <c r="F27" s="3">
-        <v>86.245772266099991</v>
+        <v>92.333709131905294</v>
       </c>
       <c r="G27" s="3">
         <v>91.093573844399998</v>
@@ -13683,13 +13687,13 @@
         <v>90.980834272829796</v>
       </c>
       <c r="D28" s="3">
-        <v>85.118376550199997</v>
+        <v>87.260428410399996</v>
       </c>
       <c r="E28" s="3">
-        <v>91.657271702367495</v>
+        <v>92.559188275084594</v>
       </c>
       <c r="F28" s="3">
-        <v>86.583990980799996</v>
+        <v>92.671927846674194</v>
       </c>
       <c r="G28" s="3">
         <v>89.7406989853</v>
@@ -13715,13 +13719,13 @@
         <v>91.319052987598695</v>
       </c>
       <c r="D29" s="3">
-        <v>83.878241262700001</v>
+        <v>86.696730552399998</v>
       </c>
       <c r="E29" s="3">
-        <v>91.206313416008996</v>
+        <v>92.108229988725995</v>
       </c>
       <c r="F29" s="3">
-        <v>85.569334836500005</v>
+        <v>92.220969560315694</v>
       </c>
       <c r="G29" s="3">
         <v>91.093573844399998</v>
@@ -13747,13 +13751,13 @@
         <v>91.544532130777895</v>
       </c>
       <c r="D30" s="3">
-        <v>85.682074408099993</v>
+        <v>86.471251409199994</v>
       </c>
       <c r="E30" s="3">
-        <v>91.657271702367495</v>
+        <v>92.108229988725995</v>
       </c>
       <c r="F30" s="3">
-        <v>86.696730552399998</v>
+        <v>93.122886133032694</v>
       </c>
       <c r="G30" s="3">
         <v>89.627959413799999</v>
@@ -13779,13 +13783,13 @@
         <v>91.093573844419396</v>
       </c>
       <c r="D31" s="3">
-        <v>82.187147688799996</v>
+        <v>84.780157835400004</v>
       </c>
       <c r="E31" s="3">
-        <v>90.191657271702397</v>
+        <v>91.431792559188295</v>
       </c>
       <c r="F31" s="3">
-        <v>86.245772266099991</v>
+        <v>91.431792559188295</v>
       </c>
       <c r="G31" s="3">
         <v>90.191657271699995</v>
@@ -13805,35 +13809,35 @@
         <v>0</v>
       </c>
       <c r="B33" s="3">
-        <f>AVERAGE(B2:B31)</f>
+        <f t="shared" ref="B33:H33" si="0">AVERAGE(B2:B31)</f>
         <v>91.781285231116129</v>
       </c>
       <c r="C33" s="3">
-        <f>AVERAGE(C2:C31)</f>
+        <f t="shared" si="0"/>
         <v>90.860578729800835</v>
       </c>
       <c r="D33" s="3">
-        <f>AVERAGE(D2:D31)</f>
-        <v>84.949267192779971</v>
+        <f t="shared" si="0"/>
+        <v>85.494175122129988</v>
       </c>
       <c r="E33" s="3">
-        <f>AVERAGE(E2:E31)</f>
-        <v>90.668921458098424</v>
+        <f t="shared" si="0"/>
+        <v>91.80007515971441</v>
       </c>
       <c r="F33" s="3">
-        <f>AVERAGE(F2:F31)</f>
-        <v>86.79819616685333</v>
+        <f t="shared" si="0"/>
+        <v>91.939120631341609</v>
       </c>
       <c r="G33" s="3">
-        <f>AVERAGE(G2:G31)</f>
+        <f t="shared" si="0"/>
         <v>89.973694099956646</v>
       </c>
       <c r="H33" s="3">
-        <f>AVERAGE(H2:H31)</f>
+        <f t="shared" si="0"/>
         <v>92.273581360393351</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" ref="I33" si="0">AVERAGE(I2:I31)</f>
+        <f t="shared" ref="I33" si="1">AVERAGE(I2:I31)</f>
         <v>90.427927927923349</v>
       </c>
       <c r="J33" s="3">
@@ -13846,35 +13850,34 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f>STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:H34" si="2">STDEV(B2:B31)</f>
         <v>0.81531836445385952</v>
       </c>
       <c r="C34" s="3">
-        <f>STDEV(C2:C31)</f>
-        <v>1.0699238845466803</v>
+        <v>4435</v>
       </c>
       <c r="D34" s="3">
-        <f>STDEV(D2:D31)</f>
-        <v>1.148864513385107</v>
+        <f t="shared" si="2"/>
+        <v>1.086347272403049</v>
       </c>
       <c r="E34" s="3">
-        <f>STDEV(E2:E31)</f>
-        <v>0.91191217593427876</v>
+        <f t="shared" si="2"/>
+        <v>0.86820997438458736</v>
       </c>
       <c r="F34" s="3">
-        <f>STDEV(F2:F31)</f>
-        <v>1.2038566577634504</v>
+        <f t="shared" si="2"/>
+        <v>0.86305399196311428</v>
       </c>
       <c r="G34" s="3">
-        <f>STDEV(G2:G31)</f>
+        <f t="shared" si="2"/>
         <v>0.80807390619830022</v>
       </c>
       <c r="H34" s="3">
-        <f>STDEV(H2:H31)</f>
+        <f t="shared" si="2"/>
         <v>0.97914746333862723</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34" si="1">STDEV(I2:I31)</f>
+        <f t="shared" ref="I34" si="3">STDEV(I2:I31)</f>
         <v>1.2709734569407567</v>
       </c>
       <c r="J34" s="3">
@@ -13898,7 +13901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
@@ -15694,7 +15697,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
@@ -17847,7 +17850,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -19995,7 +19998,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>9</v>
@@ -20013,7 +20016,7 @@
         <v>19</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>18</v>
@@ -22256,8 +22259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView topLeftCell="C28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -22267,7 +22270,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>23</v>
@@ -24237,13 +24240,13 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>48</v>
@@ -26385,7 +26388,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
@@ -27481,19 +27484,19 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -29618,7 +29621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E35" sqref="C35:E35"/>
     </sheetView>
   </sheetViews>
@@ -29629,10 +29632,10 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>22</v>
@@ -29653,7 +29656,7 @@
         <v>18</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">

--- a/statistic/result.xlsx
+++ b/statistic/result.xlsx
@@ -12806,8 +12806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L37" sqref="K14:L37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12867,7 +12867,7 @@
         <v>88.838782412599997</v>
       </c>
       <c r="H2" s="3">
-        <v>92.446448703499996</v>
+        <v>91.431792559200005</v>
       </c>
       <c r="I2" s="3">
         <v>89.639639639600006</v>
@@ -12899,7 +12899,7 @@
         <v>89.064261555800002</v>
       </c>
       <c r="H3" s="3">
-        <v>92.671927846700001</v>
+        <v>91.995490417100001</v>
       </c>
       <c r="I3" s="3">
         <v>90.990990991000004</v>
@@ -12931,7 +12931,7 @@
         <v>91.544532130800008</v>
       </c>
       <c r="H4" s="3">
-        <v>93.235625704599997</v>
+        <v>92.446448703499996</v>
       </c>
       <c r="I4" s="3">
         <v>90.540540540500004</v>
@@ -12963,7 +12963,7 @@
         <v>90.304396843300012</v>
       </c>
       <c r="H5" s="3">
-        <v>91.770011273999998</v>
+        <v>91.882750845499999</v>
       </c>
       <c r="I5" s="3">
         <v>89.414414414399999</v>
@@ -12995,7 +12995,7 @@
         <v>90.529875986500002</v>
       </c>
       <c r="H6" s="3">
-        <v>93.686583991000006</v>
+        <v>92.446448703499996</v>
       </c>
       <c r="I6" s="3">
         <v>88.963963964000001</v>
@@ -13027,7 +13027,7 @@
         <v>89.853438556900002</v>
       </c>
       <c r="H7" s="3">
-        <v>91.544532130799993</v>
+        <v>91.882750845499999</v>
       </c>
       <c r="I7" s="3">
         <v>90.090090090100006</v>
@@ -13059,7 +13059,7 @@
         <v>89.853438556900002</v>
       </c>
       <c r="H8" s="3">
-        <v>91.093573844399998</v>
+        <v>91.882750845499999</v>
       </c>
       <c r="I8" s="3">
         <v>90.315315315299998</v>
@@ -13091,7 +13091,7 @@
         <v>90.078917700100007</v>
       </c>
       <c r="H9" s="3">
-        <v>92.559188275099999</v>
+        <v>92.333709131899994</v>
       </c>
       <c r="I9" s="3">
         <v>91.216216216199996</v>
@@ -13123,7 +13123,7 @@
         <v>90.98083427280001</v>
       </c>
       <c r="H10" s="3">
-        <v>92.108229988700003</v>
+        <v>91.544532130799993</v>
       </c>
       <c r="I10" s="3">
         <v>93.693693693699998</v>
@@ -13155,7 +13155,7 @@
         <v>89.96617812849999</v>
       </c>
       <c r="H11" s="3">
-        <v>93.686583991000006</v>
+        <v>91.544532130799993</v>
       </c>
       <c r="I11" s="3">
         <v>89.414414414399999</v>
@@ -13187,7 +13187,7 @@
         <v>90.304396843300012</v>
       </c>
       <c r="H12" s="3">
-        <v>91.319052987600003</v>
+        <v>93.122886132999994</v>
       </c>
       <c r="I12" s="3">
         <v>90.990990991000004</v>
@@ -13219,7 +13219,7 @@
         <v>89.853438556900002</v>
       </c>
       <c r="H13" s="3">
-        <v>92.897406989900006</v>
+        <v>92.220969560300006</v>
       </c>
       <c r="I13" s="3">
         <v>89.639639639600006</v>
@@ -13251,7 +13251,7 @@
         <v>89.96617812849999</v>
       </c>
       <c r="H14" s="3">
-        <v>90.868094701199993</v>
+        <v>91.431792559200005</v>
       </c>
       <c r="I14" s="3">
         <v>89.864864864899999</v>
@@ -13283,7 +13283,7 @@
         <v>89.853438556900002</v>
       </c>
       <c r="H15" s="3">
-        <v>91.206313416</v>
+        <v>91.882750845499999</v>
       </c>
       <c r="I15" s="3">
         <v>91.666666666699996</v>
@@ -13315,7 +13315,7 @@
         <v>90.642615558100005</v>
       </c>
       <c r="H16" s="3">
-        <v>92.108229988700003</v>
+        <v>90.755355129700007</v>
       </c>
       <c r="I16" s="3">
         <v>93.693693693699998</v>
@@ -13347,7 +13347,7 @@
         <v>91.206313416</v>
       </c>
       <c r="H17" s="3">
-        <v>93.348365276199999</v>
+        <v>90.755355129700007</v>
       </c>
       <c r="I17" s="3">
         <v>90.765765765799998</v>
@@ -13379,7 +13379,7 @@
         <v>91.093573844399998</v>
       </c>
       <c r="H18" s="3">
-        <v>91.995490417100001</v>
+        <v>91.544532130799993</v>
       </c>
       <c r="I18" s="3">
         <v>91.216216216199996</v>
@@ -13411,7 +13411,7 @@
         <v>88.049605411499996</v>
       </c>
       <c r="H19" s="3">
-        <v>89.064261555800002</v>
+        <v>91.882750845499999</v>
       </c>
       <c r="I19" s="3">
         <v>90.540540540500004</v>
@@ -13443,7 +13443,7 @@
         <v>89.627959413799999</v>
       </c>
       <c r="H20" s="3">
-        <v>91.544532130799993</v>
+        <v>92.897406989900006</v>
       </c>
       <c r="I20" s="3">
         <v>92.117117117099994</v>
@@ -13475,7 +13475,7 @@
         <v>89.064261555800002</v>
       </c>
       <c r="H21" s="3">
-        <v>92.784667418300003</v>
+        <v>92.220969560300006</v>
       </c>
       <c r="I21" s="3">
         <v>88.738738738699993</v>
@@ -13507,7 +13507,7 @@
         <v>89.402480270600009</v>
       </c>
       <c r="H22" s="3">
-        <v>92.671927846700001</v>
+        <v>91.431792559200005</v>
       </c>
       <c r="I22" s="3">
         <v>89.639639639600006</v>
@@ -13539,7 +13539,7 @@
         <v>89.289740698999992</v>
       </c>
       <c r="H23" s="3">
-        <v>93.010146561400006</v>
+        <v>91.657271702399996</v>
       </c>
       <c r="I23" s="3">
         <v>90.315315315299998</v>
@@ -13571,7 +13571,7 @@
         <v>89.289740698999992</v>
       </c>
       <c r="H24" s="3">
-        <v>92.108229988700003</v>
+        <v>92.784667418300003</v>
       </c>
       <c r="I24" s="3">
         <v>88.738738738699993</v>
@@ -13603,7 +13603,7 @@
         <v>89.064261555800002</v>
       </c>
       <c r="H25" s="3">
-        <v>93.010146561400006</v>
+        <v>90.868094701199993</v>
       </c>
       <c r="I25" s="3">
         <v>91.666666666699996</v>
@@ -13635,7 +13635,7 @@
         <v>89.7406989853</v>
       </c>
       <c r="H26" s="3">
-        <v>92.446448703499996</v>
+        <v>91.995490417100001</v>
       </c>
       <c r="I26" s="3">
         <v>89.189189189199993</v>
@@ -13667,7 +13667,7 @@
         <v>91.093573844399998</v>
       </c>
       <c r="H27" s="3">
-        <v>92.784667418300003</v>
+        <v>91.882750845499999</v>
       </c>
       <c r="I27" s="3">
         <v>89.414414414399999</v>
@@ -13699,7 +13699,7 @@
         <v>89.7406989853</v>
       </c>
       <c r="H28" s="3">
-        <v>91.431792559200005</v>
+        <v>90.642615558100005</v>
       </c>
       <c r="I28" s="3">
         <v>89.864864864899999</v>
@@ -13731,7 +13731,7 @@
         <v>91.093573844399998</v>
       </c>
       <c r="H29" s="3">
-        <v>92.784667418300003</v>
+        <v>91.995490417100001</v>
       </c>
       <c r="I29" s="3">
         <v>90.540540540500004</v>
@@ -13763,7 +13763,7 @@
         <v>89.627959413799999</v>
       </c>
       <c r="H30" s="3">
-        <v>92.897406989900006</v>
+        <v>91.995490417100001</v>
       </c>
       <c r="I30" s="3">
         <v>88.963963964000001</v>
@@ -13795,7 +13795,7 @@
         <v>90.191657271699995</v>
       </c>
       <c r="H31" s="3">
-        <v>93.122886132999994</v>
+        <v>92.559188275099999</v>
       </c>
       <c r="I31" s="3">
         <v>90.990990991000004</v>
@@ -13834,7 +13834,7 @@
       </c>
       <c r="H33" s="3">
         <f t="shared" si="0"/>
-        <v>92.273581360393351</v>
+        <v>91.863960916943341</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" ref="I33" si="1">AVERAGE(I2:I31)</f>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="H34" s="3">
         <f t="shared" si="2"/>
-        <v>0.97914746333862723</v>
+        <v>0.61755920950648258</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" ref="I34" si="3">STDEV(I2:I31)</f>
@@ -13892,1179 +13892,1179 @@
       </c>
       <c r="B35" s="3">
         <f>(AVERAGE(B37:B66)/STDEV(B37:B66))*SQRT(50)</f>
-        <v>2.2593405596586762</v>
+        <v>1.0577317769137531</v>
       </c>
       <c r="C35" s="3">
         <f>(AVERAGE(C37:C66)/STDEV(C37:C66))*SQRT(50)</f>
-        <v>3.1201545973854219</v>
+        <v>3.4077710054823713</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
-        <v>35.445981519806445</v>
+        <v>34.192428872385101</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="4"/>
-        <v>8.9571327287969105</v>
+        <v>7.0728558916991835</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="4"/>
-        <v>26.056766198207505</v>
+        <v>25.637036744923122</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="4"/>
-        <v>15.925705958927008</v>
-      </c>
-      <c r="H35" s="3" t="e">
+        <v>11.934600314310837</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="4"/>
+        <v>0.34063500243371553</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="4"/>
+        <v>7.1477409755261654</v>
+      </c>
+      <c r="J35" s="3" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I35" s="3">
-        <f t="shared" si="4"/>
-        <v>7.4658937079731533</v>
-      </c>
-      <c r="J35" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0517040099870703</v>
-      </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
-        <f>H2-B2</f>
-        <v>-0.1127395715845978</v>
+        <f>J2-B2</f>
+        <v>-0.45095828635859903</v>
       </c>
       <c r="C37" s="3">
-        <f>H2-C2</f>
-        <v>0.33821871477400123</v>
+        <f>J2-C2</f>
+        <v>0</v>
       </c>
       <c r="D37" s="3">
-        <f>H2-D2</f>
-        <v>5.2987598647000027</v>
+        <f>J2-D2</f>
+        <v>4.9605411499260015</v>
       </c>
       <c r="E37" s="3">
-        <f>H2-E2</f>
-        <v>0.9019165727221008</v>
+        <f>J2-E2</f>
+        <v>0.56369785794809957</v>
       </c>
       <c r="F37" s="3">
-        <f>H2-F2</f>
-        <v>5.2987598647000027</v>
+        <f>J2-F2</f>
+        <v>4.9605411499260015</v>
       </c>
       <c r="G37" s="3">
-        <f>H2-G2</f>
-        <v>3.6076662908999992</v>
+        <f>J2-G2</f>
+        <v>3.269447576125998</v>
       </c>
       <c r="H37" s="3">
-        <f>H2-H2</f>
-        <v>0</v>
+        <f>J2-H2</f>
+        <v>0.67643742952598984</v>
       </c>
       <c r="I37" s="3">
-        <f>H2-I2</f>
-        <v>2.8068090638999905</v>
+        <f>J2-I2</f>
+        <v>2.4685903491259893</v>
       </c>
       <c r="J37" s="3">
-        <f>H2-J2</f>
-        <v>0.33821871477400123</v>
+        <f>J2-J2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <f t="shared" ref="B38:B66" si="5">H3-B3</f>
-        <v>2.5806912162806839E-11</v>
+        <f t="shared" ref="B38:B66" si="5">J3-B3</f>
+        <v>-1.3528748590754986</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:C66" si="6">H3-C3</f>
-        <v>0.45095828638430646</v>
+        <f t="shared" ref="C38:C66" si="6">J3-C3</f>
+        <v>-0.9019165727169991</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:D66" si="7">H3-D3</f>
-        <v>6.7643742954000032</v>
+        <f t="shared" ref="D38:D66" si="7">J3-D3</f>
+        <v>5.4114994362986977</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ref="E38:E66" si="8">H3-E3</f>
-        <v>1.1273957159221055</v>
+        <f t="shared" ref="E38:E66" si="8">J3-E3</f>
+        <v>-0.22547914317920004</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F66" si="9">H3-F3</f>
-        <v>4.5095828636000022</v>
+        <f t="shared" ref="F38:F66" si="9">J3-F3</f>
+        <v>3.1567080044986966</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G66" si="10">H3-G3</f>
-        <v>3.6076662908999992</v>
+        <f t="shared" ref="G38:G66" si="10">J3-G3</f>
+        <v>2.2547914317986937</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:H66" si="11">H3-H3</f>
-        <v>0</v>
+        <f t="shared" ref="H38:H66" si="11">J3-H3</f>
+        <v>-0.67643742950130559</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:I66" si="12">H3-I3</f>
-        <v>1.6809368556999971</v>
+        <f t="shared" ref="I38:I66" si="12">J3-I3</f>
+        <v>0.32806199659869151</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J66" si="13">H3-J3</f>
-        <v>1.3528748591013056</v>
+        <f t="shared" ref="J38:J66" si="13">J3-J3</f>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="5"/>
-        <v>1.6910935738221013</v>
+        <v>0.78917700112739908</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="6"/>
-        <v>1.2401352874636018</v>
+        <v>0.33821871476889953</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="7"/>
-        <v>7.2153325816999967</v>
+        <v>6.3134160090052944</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="8"/>
-        <v>2.7057497181287005</v>
+        <v>1.8038331454339982</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="9"/>
-        <v>6.2006764373999914</v>
+        <v>5.2987598647052891</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="10"/>
-        <v>1.6910935737999893</v>
+        <v>0.78917700110528699</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.11273957159470172</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="12"/>
-        <v>2.6950851640999929</v>
+        <v>1.7931685914052906</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="13"/>
-        <v>0.90191657269470227</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="5"/>
-        <v>1.2401352875287017</v>
+        <v>0</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="6"/>
-        <v>1.1273957159391017</v>
+        <v>-0.11273957158960002</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="7"/>
-        <v>4.9605411499999974</v>
+        <v>3.7204058624712957</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="8"/>
-        <v>2.8184892897834999</v>
+        <v>1.5783540022547982</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="9"/>
-        <v>4.6223224352000045</v>
+        <v>3.3821871476713028</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="10"/>
-        <v>1.4656144306999863</v>
+        <v>0.22547914317128459</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.3528748590287023</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="12"/>
-        <v>2.3555968595999985</v>
+        <v>1.1154615720712968</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="13"/>
-        <v>1.2401352875287017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <f t="shared" si="5"/>
-        <v>1.3528748590947117</v>
+        <v>1.1273957158962986</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="6"/>
-        <v>1.6910935738636113</v>
+        <v>1.4656144306651981</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="7"/>
-        <v>9.9210822999000072</v>
+        <v>9.6956031567015941</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="8"/>
-        <v>4.396843292014708</v>
+        <v>4.1713641488162949</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="9"/>
-        <v>4.8478015784000092</v>
+        <v>4.6223224352015961</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="10"/>
-        <v>3.156708004500004</v>
+        <v>2.9312288613015909</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.0146561443015969</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="12"/>
-        <v>4.7226200270000049</v>
+        <v>4.4971408838015918</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="13"/>
-        <v>0.22547914319841311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <f t="shared" si="5"/>
-        <v>-2.5930101465394131</v>
+        <v>-2.1420518602030114</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="6"/>
-        <v>-1.3528748590534008</v>
+        <v>-0.9019165727169991</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="7"/>
-        <v>6.8771138669999914</v>
+        <v>7.3280721533363931</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="8"/>
-        <v>1.465614430687296</v>
+        <v>1.9165727170236977</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="9"/>
-        <v>2.7057497181999963</v>
+        <v>3.156708004536398</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="10"/>
-        <v>1.691093573899991</v>
+        <v>2.1420518602363927</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.11273957163639636</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="12"/>
-        <v>1.4544420406999876</v>
+        <v>1.9054003270363893</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="13"/>
-        <v>-0.45095828633640167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <f t="shared" si="5"/>
-        <v>-0.45095828637789737</v>
+        <v>-0.22547914317920004</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="6"/>
-        <v>-1.9397816686250735E-11</v>
+        <v>0.22547914317929951</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="7"/>
-        <v>7.3280721532999991</v>
+        <v>7.5535512964986964</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="8"/>
-        <v>1.3528748590561008</v>
+        <v>1.5783540022547982</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="9"/>
-        <v>5.6369785794999956</v>
+        <v>5.8624577226986929</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="10"/>
-        <v>1.2401352874999958</v>
+        <v>1.4656144306986931</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.56369785790130322</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="12"/>
-        <v>0.77825852910000037</v>
+        <v>1.0037376722986977</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="13"/>
-        <v>-0.22547914319869733</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <f t="shared" si="5"/>
-        <v>2.2547914318080018</v>
+        <v>0.67643742953779906</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="6"/>
-        <v>2.4802705749873013</v>
+        <v>0.90191657271709857</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="7"/>
-        <v>9.2446448703999948</v>
+        <v>7.6662908681297921</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="8"/>
-        <v>0.56369785796360361</v>
+        <v>-1.0146561443065991</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="9"/>
-        <v>4.5095828636000022</v>
+        <v>2.9312288613297994</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="10"/>
-        <v>2.4802705749999916</v>
+        <v>0.90191657272978887</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.352874859070198</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="12"/>
-        <v>1.3429720589000027</v>
+        <v>-0.23538194337020002</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="13"/>
-        <v>1.5783540022702027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <f t="shared" si="5"/>
-        <v>-0.22547914320529117</v>
+        <v>-0.33821871476889953</v>
       </c>
       <c r="C45" s="3">
         <f t="shared" si="6"/>
-        <v>-0.22547914320529117</v>
+        <v>-0.33821871476889953</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="7"/>
-        <v>7.5535512965000038</v>
+        <v>7.4408117249363954</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="8"/>
-        <v>2.8184892897147051</v>
+        <v>2.7057497181510968</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="9"/>
-        <v>5.073280721499998</v>
+        <v>4.9605411499363896</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="10"/>
-        <v>1.1273957158999934</v>
+        <v>1.0146561443363851</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.45095828633640167</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="12"/>
-        <v>-1.5854637049999951</v>
+        <v>-1.6982032765636035</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="13"/>
-        <v>0.11273957156360837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <f t="shared" si="5"/>
-        <v>2.5930101465806104</v>
+        <v>0.22547914317929951</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="6"/>
-        <v>2.7057497181702104</v>
+        <v>0.33821871476889953</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="7"/>
-        <v>9.244644870400009</v>
+        <v>6.8771138669986982</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="8"/>
-        <v>4.0586245772458085</v>
+        <v>1.6910935738444977</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="9"/>
-        <v>6.087936865900005</v>
+        <v>3.7204058624986942</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="10"/>
-        <v>3.7204058625000158</v>
+        <v>1.352874859098705</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.22547914320129792</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="12"/>
-        <v>4.2721695766000067</v>
+        <v>1.9046385731986959</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="13"/>
-        <v>2.3675310034013108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <f t="shared" si="5"/>
-        <v>0.78917700112870648</v>
+        <v>0.11273957158960002</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="6"/>
-        <v>0.56369785794950644</v>
+        <v>-0.11273957158960002</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="7"/>
-        <v>7.1025930101000085</v>
+        <v>6.4261555805609021</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="8"/>
-        <v>0.45095828635990642</v>
+        <v>-0.22547914317920004</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="9"/>
-        <v>3.156708004500004</v>
+        <v>2.4802705749608975</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="10"/>
-        <v>1.0146561442999911</v>
+        <v>0.33821871476088461</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-2.4802705749390981</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="12"/>
-        <v>0.32806199659999891</v>
+        <v>-0.34837543293910755</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="13"/>
-        <v>0.67643742953910646</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <f t="shared" si="5"/>
-        <v>2.0293122886599093</v>
+        <v>-0.11273957158960002</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="6"/>
-        <v>2.3675310034287094</v>
+        <v>0.22547914317920004</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="7"/>
-        <v>7.4408117250000032</v>
+        <v>5.2987598647504939</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="8"/>
-        <v>2.8184892897873084</v>
+        <v>0.67643742953779906</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="9"/>
-        <v>6.6516347238000151</v>
+        <v>4.5095828635505057</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="10"/>
-        <v>3.0439684330000034</v>
+        <v>0.90191657275049408</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.4656144306495094</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="12"/>
-        <v>3.2577673503</v>
+        <v>1.1157154900504906</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="13"/>
-        <v>2.1420518602495093</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <f t="shared" si="5"/>
-        <v>-1.4656144307053012</v>
+        <v>-0.22547914317929951</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="6"/>
-        <v>-1.3528748591157012</v>
+        <v>-0.11273957158969949</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="7"/>
-        <v>7.2153325816999967</v>
+        <v>8.4554678692259984</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="8"/>
-        <v>0.225479143139097</v>
+        <v>1.4656144306650987</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="9"/>
-        <v>4.9605411498999956</v>
+        <v>6.2006764374259973</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="10"/>
-        <v>0.90191657270000292</v>
+        <v>2.1420518602260046</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.67643742952598984</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="12"/>
-        <v>1.0032298362999938</v>
+        <v>2.2433651238259955</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="13"/>
-        <v>-1.2401352875260017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <f t="shared" si="5"/>
-        <v>-1.1273957159052941</v>
+        <v>0.22547914317929951</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="6"/>
-        <v>-1.2401352874948941</v>
+        <v>0.11273957158969949</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="7"/>
-        <v>6.4261555805999961</v>
+        <v>7.7790304396845897</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="8"/>
-        <v>1.2401352874769032</v>
+        <v>2.5930101465614968</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="9"/>
-        <v>5.9751972942000009</v>
+        <v>7.3280721532845945</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="10"/>
-        <v>1.3528748590999982</v>
+        <v>2.7057497181845918</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.67643742958459541</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="12"/>
-        <v>-0.46035325069999544</v>
+        <v>0.89252160838459815</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="13"/>
-        <v>-1.3528748590845936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
         <f t="shared" si="5"/>
-        <v>0.4509582863325079</v>
+        <v>0.33821871476889953</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="6"/>
-        <v>0.4509582863325079</v>
+        <v>0.33821871476889953</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="7"/>
-        <v>6.6516347238000009</v>
+        <v>6.5388951522363925</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="8"/>
-        <v>0.78917700110130795</v>
+        <v>0.67643742953769959</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="9"/>
-        <v>4.5095828636000022</v>
+        <v>4.3968432920363938</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="10"/>
-        <v>1.4656144305999987</v>
+        <v>1.3528748590363904</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.240135287436388</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="12"/>
-        <v>-1.5854637049999951</v>
+        <v>-1.6982032765636035</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="13"/>
-        <v>0.11273957156360837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <f t="shared" si="5"/>
-        <v>0.78917700111540512</v>
+        <v>-0.22547914317929951</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="6"/>
-        <v>1.0146561442947046</v>
+        <v>0</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="7"/>
-        <v>8.7936865839999996</v>
+        <v>7.779030439705295</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="8"/>
-        <v>2.3675310033702033</v>
+        <v>1.3528748590754986</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="9"/>
-        <v>4.2841037203999974</v>
+        <v>3.2694475761052928</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="10"/>
-        <v>2.1420518601999987</v>
+        <v>1.1273957159052941</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.5783540022052875</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="12"/>
-        <v>2.5825995104000015</v>
+        <v>1.5679433661052968</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="13"/>
-        <v>1.0146561442947046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <f t="shared" si="5"/>
-        <v>-0.67643742957419306</v>
+        <v>0.33821871476889953</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="6"/>
-        <v>-0.45095828639489355</v>
+        <v>0.56369785794819904</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="7"/>
-        <v>5.1860202931000003</v>
+        <v>6.2006764374430929</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="8"/>
-        <v>-0.45095828639489355</v>
+        <v>0.56369785794819904</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="9"/>
-        <v>4.9605411498999956</v>
+        <v>5.9751972942430882</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="10"/>
-        <v>0.90191657270000292</v>
+        <v>1.9165727170430955</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.4656144306431003</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="12"/>
-        <v>0.7792742009000051</v>
+        <v>1.7939303452430977</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="13"/>
-        <v>-1.0146561443430926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <f t="shared" si="5"/>
-        <v>-3.4949267192845923</v>
+        <v>-0.45095828635859903</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" si="6"/>
-        <v>-3.7204058624637923</v>
+        <v>-0.67643742953779906</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="7"/>
-        <v>5.1860202931000003</v>
+        <v>8.2299887260259936</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="8"/>
-        <v>-1.3528748590815951</v>
+        <v>1.6910935738443982</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="9"/>
-        <v>1.6910935738000035</v>
+        <v>4.7350620067259968</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="10"/>
-        <v>1.0146561443000053</v>
+        <v>4.0586245772259986</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.22547914322599638</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="12"/>
-        <v>-1.4762789847000022</v>
+        <v>1.5676894482259911</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="13"/>
-        <v>-3.0439684329259933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <f t="shared" si="5"/>
-        <v>-0.33821871474680165</v>
+        <v>0.67643742953779906</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" si="6"/>
-        <v>0.22547914320129792</v>
+        <v>1.2401352874858986</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="7"/>
-        <v>5.0732807215999998</v>
+        <v>6.0879368658846005</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="8"/>
-        <v>1.9165727170457956</v>
+        <v>2.9312288613303963</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="9"/>
-        <v>5.4114994362999909</v>
+        <v>6.4261555805845916</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="10"/>
-        <v>1.916572716999994</v>
+        <v>2.9312288612845947</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.33821871481541166</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="12"/>
-        <v>-0.57258498630000076</v>
+        <v>0.44207115798459995</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="13"/>
-        <v>-1.0146561442846007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
         <f t="shared" si="5"/>
-        <v>0.78917700116360834</v>
+        <v>0.45095828635849955</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" si="6"/>
-        <v>0.56369785798430883</v>
+        <v>0.22547914317920004</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="7"/>
-        <v>8.3427282977000061</v>
+        <v>8.0045095828948973</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="8"/>
-        <v>1.9165727170599069</v>
+        <v>1.5783540022547982</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="9"/>
-        <v>5.749718151099998</v>
+        <v>5.4114994362948892</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="10"/>
-        <v>3.7204058625000016</v>
+        <v>3.3821871476948928</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.22547914319488882</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="12"/>
-        <v>4.04592867960001</v>
+        <v>3.7077099647949012</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="13"/>
-        <v>0.33821871480510879</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
         <f t="shared" si="5"/>
-        <v>0.90191657274280601</v>
+        <v>0.9019165727169991</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" si="6"/>
-        <v>1.2401352875117055</v>
+        <v>1.2401352874858986</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="7"/>
-        <v>6.4261555805999961</v>
+        <v>6.4261555805741892</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="8"/>
-        <v>2.2547914318184041</v>
+        <v>2.2547914317925972</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="9"/>
-        <v>6.087936865900005</v>
+        <v>6.0879368658741981</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="10"/>
-        <v>3.2694475760999921</v>
+        <v>3.2694475760741852</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.2401352874741889</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="12"/>
-        <v>3.0322882070999952</v>
+        <v>3.0322882070741883</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="13"/>
-        <v>2.5806912162806839E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <f t="shared" si="5"/>
-        <v>0.67643742949471175</v>
+        <v>0.56369785794809957</v>
       </c>
       <c r="C58" s="3">
         <f t="shared" si="6"/>
-        <v>0.56369785790511173</v>
+        <v>0.45095828635849955</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="7"/>
-        <v>8.229988726000002</v>
+        <v>8.1172491544533898</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="8"/>
-        <v>2.3675310033391099</v>
+        <v>2.2547914317924977</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="9"/>
-        <v>7.3280721533000133</v>
+        <v>7.2153325817534011</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="10"/>
-        <v>3.720405862400014</v>
+        <v>3.6076662908534018</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.2401352874533984</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="12"/>
-        <v>2.6948312461000086</v>
+        <v>2.5820916745533964</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="13"/>
-        <v>0.11273957154661218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <f t="shared" si="5"/>
-        <v>0.78917700110130795</v>
+        <v>0.22547914317920004</v>
       </c>
       <c r="C59" s="3">
         <f t="shared" si="6"/>
-        <v>0.78917700110130795</v>
+        <v>0.22547914317920004</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="7"/>
-        <v>7.6662908681000062</v>
+        <v>7.1025930101778982</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="8"/>
-        <v>2.3675310033561061</v>
+        <v>1.8038331454339982</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="9"/>
-        <v>6.4261555806000104</v>
+        <v>5.8624577226779024</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="10"/>
-        <v>2.8184892897000111</v>
+        <v>2.2547914317779032</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.2401352875221079</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="12"/>
-        <v>3.36949125000001</v>
+        <v>2.8057933920779021</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="13"/>
-        <v>0.56369785792210791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <f t="shared" si="5"/>
-        <v>1.9165727169806104</v>
+        <v>0.11273957158960002</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" si="6"/>
-        <v>2.3675310033391099</v>
+        <v>0.56369785794809957</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="7"/>
-        <v>7.7790304396000067</v>
+        <v>5.9751972942089964</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="8"/>
-        <v>1.2401352874428113</v>
+        <v>-0.56369785794819904</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="9"/>
-        <v>9.3573844419000096</v>
+        <v>7.5535512965089993</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="10"/>
-        <v>3.9458850056000045</v>
+        <v>2.1420518602089942</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.33821871480900256</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="12"/>
-        <v>1.3434798947000104</v>
+        <v>-0.46035325069099997</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="13"/>
-        <v>1.8038331453910104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <f t="shared" si="5"/>
-        <v>2.0293122886183994</v>
+        <v>0.45095828635849955</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="6"/>
-        <v>2.2547914317975994</v>
+        <v>0.67643742953769959</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="7"/>
-        <v>6.8771138669999914</v>
+        <v>5.2987598647400915</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="8"/>
-        <v>1.1273957159013008</v>
+        <v>-0.45095828635859903</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="9"/>
-        <v>6.5388951521999985</v>
+        <v>4.9605411499400986</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="10"/>
-        <v>2.7057497181999963</v>
+        <v>1.1273957159400965</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.1273957158599046</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="12"/>
-        <v>3.2572595143000029</v>
+        <v>1.6789055120401031</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="13"/>
-        <v>1.5783540022598999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <f t="shared" si="5"/>
-        <v>2.3675310034184065</v>
+        <v>-0.22547914317920004</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" si="6"/>
-        <v>3.0439684329561061</v>
+        <v>0.45095828635849955</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="7"/>
-        <v>7.5535512965000038</v>
+        <v>4.9605411499023973</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="8"/>
-        <v>1.1273957159325079</v>
+        <v>-1.4656144306650987</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="9"/>
-        <v>6.5388951522000127</v>
+        <v>3.9458850056024062</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="10"/>
-        <v>1.6910935739000053</v>
+        <v>-0.90191657269760128</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-1.6910935737976018</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="12"/>
-        <v>3.3702530039000038</v>
+        <v>0.77724285730239728</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="13"/>
-        <v>2.5930101465976065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <f t="shared" si="5"/>
-        <v>-0.56369785793638982</v>
+        <v>0.33821871476889953</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" si="6"/>
-        <v>-0.11273957157789027</v>
+        <v>0.78917700112739908</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="7"/>
-        <v>6.313416009000008</v>
+        <v>7.2153325817052973</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="8"/>
-        <v>-0.22547914316749029</v>
+        <v>0.67643742953779906</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="9"/>
-        <v>4.8478015784000092</v>
+        <v>5.7497181511052986</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="10"/>
-        <v>1.6910935739000053</v>
+        <v>2.5930101466052946</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.6910935738052899</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="12"/>
-        <v>1.5669276943000057</v>
+        <v>2.468844267005295</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="13"/>
-        <v>-0.90191657270528935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <f t="shared" si="5"/>
-        <v>0.22547914321540929</v>
+        <v>0</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="6"/>
-        <v>0.45095828639470881</v>
+        <v>0.22547914317929951</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="7"/>
-        <v>8.9064261556000019</v>
+        <v>8.6809470123845927</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="8"/>
-        <v>1.5783540022910074</v>
+        <v>1.3528748590755981</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="9"/>
-        <v>7.2153325817999985</v>
+        <v>6.9898534385845892</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="10"/>
-        <v>1.6910935739000053</v>
+        <v>1.465614430684596</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.56369785798459304</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="12"/>
-        <v>2.2441268777999994</v>
+        <v>2.0186477345845901</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="13"/>
-        <v>0.22547914321540929</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
         <f t="shared" si="5"/>
-        <v>0.56369785799471117</v>
+        <v>0.56369785794809957</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" si="6"/>
-        <v>0.11273957163621162</v>
+        <v>0.11273957158960002</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="7"/>
-        <v>7.2153325818000127</v>
+        <v>7.2153325817534011</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="8"/>
-        <v>1.2401352875325102</v>
+        <v>1.2401352874858986</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="9"/>
-        <v>6.2006764375000074</v>
+        <v>6.2006764374533958</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="10"/>
-        <v>3.2694475761000064</v>
+        <v>3.2694475760533948</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.9019165727533931</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="12"/>
-        <v>3.9334430259000044</v>
+        <v>3.9334430258533928</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="13"/>
-        <v>4.6611603465862572E-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
         <f t="shared" si="5"/>
-        <v>1.2401352874531995</v>
+        <v>0.56369785794809957</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" si="6"/>
-        <v>1.2401352874531995</v>
+        <v>0.56369785794809957</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="7"/>
-        <v>10.935738444199998</v>
+        <v>10.259301014694898</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="8"/>
-        <v>2.9312288612975976</v>
+        <v>2.2547914317924977</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="9"/>
-        <v>6.8771138669000038</v>
+        <v>6.2006764373949039</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" si="10"/>
-        <v>2.9312288612999993</v>
+        <v>2.2547914317948994</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>-0.11273957160510406</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="12"/>
-        <v>2.1318951419999905</v>
+        <v>1.4554577124948906</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="13"/>
-        <v>0.67643742950509989</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/statistic/result.xlsx
+++ b/statistic/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" firstSheet="6" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="plant 940" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,11 @@
     <sheet name="svmguide2 391" sheetId="13" r:id="rId13"/>
     <sheet name="svmguide4 300" sheetId="14" state="hidden" r:id="rId14"/>
     <sheet name="satimage 4435" sheetId="15" r:id="rId15"/>
-    <sheet name="mkl C=10 100 10000 1" sheetId="17" r:id="rId16"/>
+    <sheet name="usps 7291" sheetId="18" r:id="rId16"/>
+    <sheet name="mkl C=10 100 10000 1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
   <si>
     <t>均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -423,6 +425,10 @@
     <t>SG-MKL C=256, γ=0.001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1v1 c=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -4091,7 +4097,7 @@
         <v>96.266666666666666</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" ref="I33" si="1">AVERAGE(I2:I31)</f>
+        <f>AVERAGE(I2:I31)</f>
         <v>95.058333333333337</v>
       </c>
       <c r="J33" s="3">
@@ -4104,39 +4110,39 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f>STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:J34" si="1">STDEV(B2:B31)</f>
         <v>0.78893205861052973</v>
       </c>
       <c r="C34" s="3">
-        <f>STDEV(C2:C31)</f>
+        <f t="shared" si="1"/>
         <v>0.82563977283241297</v>
       </c>
       <c r="D34" s="3">
-        <f>STDEV(D2:D31)</f>
+        <f t="shared" si="1"/>
         <v>1.5013403972802926</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" ref="E34:I34" si="2">STDEV(E2:E31)</f>
+        <f t="shared" si="1"/>
         <v>0.5635606220386975</v>
       </c>
       <c r="F34" s="3">
-        <f>STDEV(F2:F31)</f>
+        <f t="shared" si="1"/>
         <v>0.73309491944736604</v>
       </c>
       <c r="G34" s="3">
-        <f>STDEV(G2:G31)</f>
+        <f t="shared" si="1"/>
         <v>0.94367221076987839</v>
       </c>
       <c r="H34" s="3">
-        <f>STDEV(H2:H31)</f>
+        <f t="shared" si="1"/>
         <v>0.67572864035964808</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.92308360040319948</v>
       </c>
       <c r="J34" s="3">
-        <f>STDEV(J2:J31)</f>
+        <f t="shared" si="1"/>
         <v>0.60701123851059047</v>
       </c>
     </row>
@@ -4153,31 +4159,31 @@
         <v>4.3280546919219898</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:J35" si="3">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>16.563596444267688</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9031418330776741</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4.3618430420349998</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10.76288382726481</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.20204472789972047</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6.5846214791106963</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.3817048243790087</v>
       </c>
     </row>
@@ -4217,987 +4223,987 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C38" s="3">
-        <f t="shared" ref="C38:C66" si="4">B3-C3</f>
+        <f t="shared" ref="C38:C66" si="3">B3-C3</f>
         <v>-0.25</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:D66" si="5">B3-D3</f>
+        <f t="shared" ref="D38:D66" si="4">B3-D3</f>
         <v>2</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ref="E38:E66" si="6">B3-E3</f>
+        <f t="shared" ref="E38:E66" si="5">B3-E3</f>
         <v>-0.75</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F66" si="7">B3-F3</f>
+        <f t="shared" ref="F38:F66" si="6">B3-F3</f>
         <v>-0.25</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G66" si="8">B3-G3</f>
+        <f t="shared" ref="G38:G66" si="7">B3-G3</f>
         <v>1.5</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:H66" si="9">B3-H3</f>
+        <f t="shared" ref="H38:H66" si="8">B3-H3</f>
         <v>-1.5</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:I66" si="10">B3-I3</f>
+        <f t="shared" ref="I38:I66" si="9">B3-I3</f>
         <v>0</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J66" si="11">B3-J3</f>
+        <f t="shared" ref="J38:J66" si="10">B3-J3</f>
         <v>-0.25</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C39" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.75</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.25</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.25</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C42" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C43" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.75</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1.5</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.75</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.25</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C47" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.75</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.75</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.25</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C48" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.25</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.25</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C49" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.25</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.75</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.25</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C50" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.75</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.75</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C51" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.75</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.25</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-1.25</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C52" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>2.25</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.5</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.25</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C53" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.75</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.75</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.25</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C54" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1.5</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.5</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.75</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1.25</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.5</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.25</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.75</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.75</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.25</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.75</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.25</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C57" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.25</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.75</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-1</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C58" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.25</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.25</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>2.25</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C59" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>-0.25</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.25</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.75</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-1.25</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C60" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.5</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.25</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>3.5</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C61" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.75</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>1.5</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.75</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C62" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C63" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1.25</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-2.5</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-1.25</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C64" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-1</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-1.5</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.25</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C65" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>2.75</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>2.25</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.5</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C66" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.25</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>-0.75</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>-0.5</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>-0.75</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>-0.75</v>
       </c>
     </row>
@@ -6242,7 +6248,7 @@
         <v>69.069767441866659</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" ref="I33" si="1">AVERAGE(I2:I31)</f>
+        <f>AVERAGE(I2:I31)</f>
         <v>74.03100775194666</v>
       </c>
       <c r="J33" s="3">
@@ -6255,35 +6261,35 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" ref="B34:H34" si="2">STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:H34" si="1">STDEV(B2:B31)</f>
         <v>5.7986969029571904</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.0485172727361114</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6.0381782065316179</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7539446614468339</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.7511128562349745</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.1362883509017774</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8.082628430214136</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34" si="3">STDEV(I2:I31)</f>
+        <f>STDEV(I2:I31)</f>
         <v>6.4077908666911716</v>
       </c>
       <c r="J34" s="3">
@@ -6304,31 +6310,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>9.3901149544273874</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.0523792122110573</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.4500623652014557</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.1352722326347298</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.6908071324566061</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.94783389652420103</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>2.1231223243015429</v>
       </c>
     </row>
@@ -6338,1137 +6344,1137 @@
         <v>-4.6511627906976969</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" ref="C37:C66" si="5">C2-C2</f>
+        <f t="shared" ref="C37:C66" si="3">C2-C2</f>
         <v>0</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" ref="D37:D66" si="6">C2-D2</f>
+        <f t="shared" ref="D37:D66" si="4">C2-D2</f>
         <v>32.558139534909294</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" ref="E37:E66" si="7">C2-E2</f>
+        <f t="shared" ref="E37:E66" si="5">C2-E2</f>
         <v>5.2048726467330937</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" ref="F37:F66" si="8">C2-F2</f>
+        <f t="shared" ref="F37:F66" si="6">C2-F2</f>
         <v>12.347729789590204</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" ref="G37:G66" si="9">C2-G2</f>
+        <f t="shared" ref="G37:G66" si="7">C2-G2</f>
         <v>6.9767441860092987</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" ref="H37:H66" si="10">C2-H2</f>
+        <f t="shared" ref="H37:H66" si="8">C2-H2</f>
         <v>18.604651162809297</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" ref="I37:I66" si="11">C2-I2</f>
+        <f t="shared" ref="I37:I66" si="9">C2-I2</f>
         <v>6.9767441860092987</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" ref="J37:J66" si="12">C2-J2</f>
+        <f t="shared" ref="J37:J66" si="10">C2-J2</f>
         <v>5.2048726467330937</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <f t="shared" ref="B38:B66" si="13">C3-B3</f>
+        <f t="shared" ref="B38:B66" si="11">C3-B3</f>
         <v>0</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.3255813953650915</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.0420819490586979</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.1007751937983983</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13.953488372065095</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-3.4901859180536121E-11</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.3255813953650915</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-8.8039867109634997</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.71982281284600447</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-4.0420819490586979</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.6511627906650972</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="I39" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="J39" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-8.8039867109634997</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.9767441860464885</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.5337763012182108</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.9900332225913928</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.9767441860372088</v>
       </c>
       <c r="H40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-9.3023255814372021</v>
       </c>
       <c r="I40" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="J40" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.3709856035437014</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.6511627906976969</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.3255813953650915</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.4817275747507921</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.6611295681063041</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.4901859180536121E-11</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-3.4901859180536121E-11</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.3255813953349076</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-4.0420819490586979</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.1528239202658028</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.3709856035437014</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>13.953488372062793</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-9.3023255814372021</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-1.771871539313409</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13.953488372062793</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.771871539313409</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.609080841638999</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.651162790662795</v>
       </c>
       <c r="H43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>16.279069767462794</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="J43" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.9900332225913928</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>18.604651162762792</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.771871539313409</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.609080841638999</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.3255813953372098</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.651162790662795</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="J44" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-8.9147286821705052</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.3023255813952943</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>18.604651162811599</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.9346622369878048</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.3156146179401986</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.3255813953116018</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.9534883721116</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="J45" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.6965669988925072</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.3255813953489053</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.9767441860650976</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.0420819490586979</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-15.946843853820596</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.9767441860349066</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.3255813953349076</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-11.627906976734906</v>
       </c>
       <c r="J46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-4.0420819490586979</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13.953488372109291</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.9667774086378955</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>17.109634551494992</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.3255813953906994</v>
       </c>
       <c r="H47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.9767441860092987</v>
       </c>
       <c r="I47" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.6511627907092929</v>
       </c>
       <c r="J47" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>14.728682170542598</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.3255813953487916</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>11.627906976760499</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>14.7840531561462</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10.022148394241412</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.3255813953605013</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.627906976760499</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.9767441860605004</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.6411960132891039</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>11.627906976714002</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.0454042081949098</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.4263565891473036</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18.604651162814001</v>
       </c>
       <c r="H49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.6511627907139967</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-11.627906976785994</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-4.0974529346622006</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953489053</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.6511627907139967</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.7165005537097926</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.0454042081949098</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.3255813953859956</v>
       </c>
       <c r="H50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.953488372114002</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.3255813953140034</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-1.7165005537097926</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>18.604651162811599</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.5537098560353968</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.5537098560353968</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="H51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.6511627907115951</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-4.208194905869405</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953488058</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16.279069767411599</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.458471760797295</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>21.982281284606799</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.6511627907115951</v>
       </c>
       <c r="H52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1596057447604835E-11</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.6511627907115951</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0.5537098560353968</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>20.930232558109296</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>19.4905869324474</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>12.347729789590204</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.302325581409292</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>18.604651162809297</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.9767441860092987</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>26.633444075304496</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953489053</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16.279069767460506</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.6411960132891039</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.6411960132891039</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.9767441860605004</v>
       </c>
       <c r="H54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.627906976760499</v>
       </c>
       <c r="I54" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.9767441860605004</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>19.545957918051009</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.3255813953488058</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>18.604651162806988</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.236987818383199</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>16.998892580287901</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>23.255813953506994</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>25.581395348806993</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>13.953488372106989</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>16.998892580287901</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.6511627906975974</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>11.6279069767116</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-4.208194905869405</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.6965669988925072</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>25.581395348811604</v>
       </c>
       <c r="H56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.6279069767116</v>
       </c>
       <c r="I56" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.3023255814115942</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.3156146179401986</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.9767441860673998</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-11.074197120708803</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-13.455149501661197</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-9.3023255814325978</v>
       </c>
       <c r="H57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>18.604651162767404</v>
       </c>
       <c r="I57" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-3.2599700716673397E-11</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-8.6932447397563948</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2.3255813953489053</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-3.2599700716673397E-11</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.8305647840530952</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.9313399778516924</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-4.6511627907325988</v>
       </c>
       <c r="H58" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-4.6511627907325988</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-13.953488372132597</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-3.9313399778516924</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.6511627906976969</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6.9767441860140025</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.8073089700996974</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.8073089700996974</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-9.3023255813860004</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-4.6511627906860014</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-13.953488372085999</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-6.4784053156145944</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.651162790662795</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.771871539313409</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.3709856035437014</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.3255813953372098</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>13.953488372062793</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-13.953488372137201</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.7519379844960952</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.651162790662795</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.609080841638999</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>10.132890365448489</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-9.3023255814372021</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.7519379844960952</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13.953488372062793</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.7519379844960952</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.9900332225913928</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.9767441860627883</v>
       </c>
       <c r="H62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="I62" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="J62" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-4.1528239202658028</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953487916</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>13.953488372109291</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.5858250276855017</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>12.347729789590204</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>9.302325581409292</v>
       </c>
       <c r="H63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.627906976709298</v>
       </c>
       <c r="I63" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>16.279069767409297</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>12.347729789590204</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>4.6511627906976969</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.5337763012182108</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.9900332225913928</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-4.6511627907372031</v>
       </c>
       <c r="H64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.3255813953372098</v>
       </c>
       <c r="I64" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.3023255813627941</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.3709856035437014</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>16.279069767462794</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.513842746400897</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>14.894795127353298</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="H65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.3255813953627893</v>
       </c>
       <c r="I65" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.9767441860627883</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-1.771871539313409</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.3255813953489053</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>23.255813953458201</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>12.292358803986801</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.1495016611296052</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.6511627906582049</v>
       </c>
       <c r="H66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.9767441860581982</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>11.627906976758197</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>7.530454042081999</v>
       </c>
     </row>
@@ -8485,39 +8491,39 @@
         <v>0</v>
       </c>
       <c r="B33" s="3">
-        <f t="shared" ref="B33" si="0">AVERAGE(B2:B31)</f>
+        <f>AVERAGE(B2:B31)</f>
         <v>97.333333333333329</v>
       </c>
       <c r="C33" s="3">
-        <f t="shared" ref="C33:I33" si="1">AVERAGE(C2:C31)</f>
+        <f t="shared" ref="C33:I33" si="0">AVERAGE(C2:C31)</f>
         <v>98</v>
       </c>
       <c r="D33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>89.666666666666686</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96.666666666666686</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>94.888888888886655</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96.111111111116685</v>
       </c>
       <c r="H33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>96.000000000003354</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>95.444444444456678</v>
       </c>
       <c r="J33" s="3">
-        <f t="shared" ref="J33" si="2">AVERAGE(J2:J31)</f>
+        <f>AVERAGE(J2:J31)</f>
         <v>95.555555555555571</v>
       </c>
     </row>
@@ -8526,39 +8532,39 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" ref="B34" si="3">STDEV(B2:B31)</f>
+        <f>STDEV(B2:B31)</f>
         <v>2.5370813170246258</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" ref="C34:I34" si="4">STDEV(C2:C31)</f>
+        <f t="shared" ref="C34:I34" si="1">STDEV(C2:C31)</f>
         <v>2.2488822255440168</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5.6966751074364268</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>2.6261286571944638</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.686293690832954</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>4.1136473485600904</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.6514837167048846</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>3.66021724680115</v>
       </c>
       <c r="J34" s="3">
-        <f t="shared" ref="J34" si="5">STDEV(J2:J31)</f>
+        <f>STDEV(J2:J31)</f>
         <v>3.0742202491827708</v>
       </c>
     </row>
@@ -8575,31 +8581,31 @@
         <v>#DIV/0!</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:J35" si="6">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>8.7084338479255177</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.7268841992093162</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5.136936356872595</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>2.8005306841748414</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.5594807082670239</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>3.9962766347303611</v>
       </c>
       <c r="J35" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>5.2898446234602146</v>
       </c>
     </row>
@@ -8643,1103 +8649,1103 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <f t="shared" ref="B38:B66" si="7">C3-B3</f>
+        <f t="shared" ref="B38:B66" si="3">C3-B3</f>
         <v>-3.3333333333333997</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:C66" si="8">C3-C3</f>
+        <f t="shared" ref="C38:C66" si="4">C3-C3</f>
         <v>0</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:D66" si="9">C3-D3</f>
+        <f t="shared" ref="D38:D66" si="5">C3-D3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ref="E38:E66" si="10">C3-E3</f>
+        <f t="shared" ref="E38:E66" si="6">C3-E3</f>
         <v>-3.3333333333333997</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F66" si="11">C3-F3</f>
+        <f t="shared" ref="F38:F66" si="7">C3-F3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G66" si="12">C3-G3</f>
+        <f t="shared" ref="G38:G66" si="8">C3-G3</f>
         <v>3.3333333333333002</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:H66" si="13">C3-H3</f>
+        <f t="shared" ref="H38:H66" si="9">C3-H3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:I66" si="14">C3-I3</f>
+        <f t="shared" ref="I38:I66" si="10">C3-I3</f>
         <v>-3.3333333333666957</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J66" si="15">C3-J3</f>
+        <f t="shared" ref="J38:J66" si="11">C3-J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>-3.3296032597718295E-11</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="J39" s="3">
         <f t="shared" si="11"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H39" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="14"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="15"/>
         <v>3.3333333333333997</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666666998</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>-3.3333333333333002</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="5"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="7"/>
+        <v>16.666666666699996</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="5"/>
+        <v>13.333333333366696</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="9"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J48" s="3">
         <f t="shared" si="11"/>
         <v>-3.3333333333333002</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="12"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="5"/>
+        <v>16.666666666699996</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="5"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="9"/>
         <v>-3.3333333333333002</v>
       </c>
-      <c r="H40" s="3">
-        <f t="shared" si="13"/>
+      <c r="I50" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="6"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3310243452433497E-11</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="8"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="5"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="11"/>
+        <v>6.6666666666666998</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="5"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="8"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="5"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="10"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="11"/>
+        <v>6.6666666666666998</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="5"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="7"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="9"/>
         <v>3.3333333333666957</v>
       </c>
-      <c r="I40" s="3">
-        <f t="shared" si="14"/>
+      <c r="I55" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6666666667000101</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3333333333666957</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="10"/>
         <v>-3.3296032597718295E-11</v>
       </c>
-      <c r="J40" s="3">
-        <f t="shared" si="15"/>
+      <c r="J57" s="3">
+        <f t="shared" si="11"/>
         <v>3.3333333333333997</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B41" s="3">
-        <f t="shared" si="7"/>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="5"/>
+        <v>20</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-      <c r="C41" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="E41" s="3">
-        <f t="shared" si="10"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="5"/>
         <v>6.6666666666666998</v>
       </c>
-      <c r="F41" s="3">
+      <c r="E59" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="7"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="9"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="10"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="J59" s="3">
         <f t="shared" si="11"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="14"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="5"/>
+        <v>9.999999999966704</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="11"/>
+        <v>-3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="J41" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="3">
-        <f t="shared" si="9"/>
+      <c r="G61" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="E42" s="3">
-        <f t="shared" si="10"/>
+      <c r="J61" s="3">
+        <f t="shared" si="11"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="5"/>
         <v>6.6666666666666998</v>
       </c>
-      <c r="F42" s="3">
-        <f t="shared" si="11"/>
-        <v>16.666666666699996</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H42" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="14"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B43" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="3">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="E43" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F43" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D44" s="3">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="E44" s="3">
-        <f t="shared" si="10"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E62" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333667099</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.3296032597718295E-11</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="10"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="J62" s="3">
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="G44" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H44" s="3">
-        <f t="shared" si="13"/>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="5"/>
+        <v>13.333333333300004</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="7"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="I44" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B45" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D45" s="3">
-        <f t="shared" si="9"/>
-        <v>13.333333333366696</v>
-      </c>
-      <c r="E45" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H45" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D46" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F46" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="14"/>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="J46" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B47" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D47" s="3">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="E47" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <f t="shared" si="11"/>
+      <c r="H63" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="10"/>
         <v>3.3333333333000041</v>
       </c>
-      <c r="G47" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="14"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D48" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="E48" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F48" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H48" s="3">
-        <f t="shared" si="13"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J48" s="3">
-        <f t="shared" si="15"/>
-        <v>-3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B49" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D49" s="3">
-        <f t="shared" si="9"/>
-        <v>16.666666666699996</v>
-      </c>
-      <c r="E49" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H49" s="3">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D50" s="3">
-        <f t="shared" si="9"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="E50" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H50" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B51" s="3">
-        <f t="shared" si="7"/>
-        <v>-3.3333333333333997</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D51" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="E51" s="3">
-        <f t="shared" si="10"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3310243452433497E-11</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="12"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="H51" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="J51" s="3">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="3">
-        <f t="shared" si="7"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D52" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="E52" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F52" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H52" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" si="15"/>
-        <v>6.6666666666666998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B53" s="3">
-        <f t="shared" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D53" s="3">
-        <f t="shared" si="9"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="E53" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F53" s="3">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="12"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="H53" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="J53" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D54" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="E54" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H54" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="14"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="J54" s="3">
-        <f t="shared" si="15"/>
-        <v>6.6666666666666998</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B55" s="3">
-        <f t="shared" si="7"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D55" s="3">
-        <f t="shared" si="9"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="E55" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F55" s="3">
-        <f t="shared" si="11"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H55" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="14"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="J55" s="3">
-        <f t="shared" si="15"/>
-        <v>-3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D56" s="3">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="E56" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F56" s="3">
-        <f t="shared" si="11"/>
-        <v>6.6666666667000101</v>
-      </c>
-      <c r="G56" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H56" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="14"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="J56" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B57" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D57" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333666957</v>
-      </c>
-      <c r="E57" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H57" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J57" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D58" s="3">
-        <f t="shared" si="9"/>
-        <v>20</v>
-      </c>
-      <c r="E58" s="3">
-        <f t="shared" si="10"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="F58" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="H58" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B59" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D59" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="J63" s="3">
         <f t="shared" si="11"/>
         <v>6.6666666666666998</v>
       </c>
-      <c r="G59" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="H59" s="3">
-        <f t="shared" si="13"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="14"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333997</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="3">
-        <f t="shared" si="7"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D60" s="3">
-        <f t="shared" si="9"/>
-        <v>9.999999999966704</v>
-      </c>
-      <c r="E60" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333997</v>
-      </c>
-      <c r="F60" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="H60" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="15"/>
-        <v>-3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B61" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D61" s="3">
-        <f t="shared" si="9"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="E61" s="3">
-        <f t="shared" si="10"/>
-        <v>3.3333333333333002</v>
-      </c>
-      <c r="F61" s="3">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H61" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="14"/>
-        <v>10</v>
-      </c>
-      <c r="J61" s="3">
-        <f t="shared" si="15"/>
-        <v>3.3333333333333002</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="3">
-        <f t="shared" si="7"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D62" s="3">
-        <f t="shared" si="9"/>
-        <v>6.6666666666666998</v>
-      </c>
-      <c r="E62" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333667099</v>
-      </c>
-      <c r="H62" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3296032597718295E-11</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="14"/>
-        <v>-3.3333333333333002</v>
-      </c>
-      <c r="J62" s="3">
-        <f t="shared" si="15"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B63" s="3">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="D63" s="3">
-        <f t="shared" si="9"/>
-        <v>13.333333333300004</v>
-      </c>
-      <c r="E63" s="3">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="3">
-        <f t="shared" si="11"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H63" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="14"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="15"/>
-        <v>6.6666666666666998</v>
-      </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>-3.3333333333333997</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>3.3296032597718295E-11</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>-6.6666666666666998</v>
       </c>
       <c r="F64" s="3">
+        <f t="shared" si="7"/>
+        <v>3.3310243452433497E-11</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="8"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="9"/>
+        <v>-3.3333333333666957</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="10"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="J64" s="3">
         <f t="shared" si="11"/>
-        <v>3.3310243452433497E-11</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="12"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="H64" s="3">
-        <f t="shared" si="13"/>
-        <v>-3.3333333333666957</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="14"/>
-        <v>-6.6666666666666998</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" si="15"/>
         <v>-3.3333333333333997</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>13.333333333300004</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F65" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="9"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="3">
-        <f t="shared" si="13"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="3">
-        <f t="shared" si="15"/>
         <v>3.3333333333333002</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="5"/>
         <v>6.6666666666999959</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="8"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="9"/>
+        <v>6.6666666666999959</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="10"/>
+        <v>3.3333333333000041</v>
+      </c>
+      <c r="J66" s="3">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="12"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="H66" s="3">
-        <f t="shared" si="13"/>
-        <v>6.6666666666999959</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="14"/>
-        <v>3.3333333333000041</v>
-      </c>
-      <c r="J66" s="3">
-        <f t="shared" si="15"/>
         <v>6.6666666666666998</v>
       </c>
     </row>
@@ -10789,7 +10795,7 @@
         <v>83.839662447256671</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" ref="J33" si="1">AVERAGE(J2:J31)</f>
+        <f>AVERAGE(J2:J31)</f>
         <v>82.905982905982896</v>
       </c>
     </row>
@@ -10798,39 +10804,39 @@
         <v>2</v>
       </c>
       <c r="B34" s="5">
-        <f t="shared" ref="B34:I34" si="2">STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:I34" si="1">STDEV(B2:B31)</f>
         <v>3.8341003779613381</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5.6513650121241241</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.1510540566655587</v>
       </c>
       <c r="E34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4455920696305697</v>
       </c>
       <c r="F34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.0289012192531666</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.4482206096623349</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.6285735535108259</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.2138039298725039</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" ref="J34" si="3">STDEV(J2:J31)</f>
+        <f>STDEV(J2:J31)</f>
         <v>3.0918686048190698</v>
       </c>
     </row>
@@ -10843,31 +10849,31 @@
         <v>2.5524889981121932</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>4.8892042838471879</v>
       </c>
       <c r="E35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.54816378640490626</v>
       </c>
       <c r="F35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.4241704568454197</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.5859669002375014</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>3.1004240898261077</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.5980766548994085</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>4.2431147115089516</v>
       </c>
     </row>
@@ -10907,35 +10913,35 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C38" s="5">
-        <f t="shared" ref="C38:C66" si="5">B3-C3</f>
+        <f t="shared" ref="C38:C66" si="3">B3-C3</f>
         <v>3.846153846153797</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" ref="D38:D66" si="6">B3-D3</f>
+        <f t="shared" ref="D38:D66" si="4">B3-D3</f>
         <v>4.8360921778819943</v>
       </c>
       <c r="E38" s="5">
-        <f t="shared" ref="E38:E66" si="7">B3-E3</f>
+        <f t="shared" ref="E38:E66" si="5">B3-E3</f>
         <v>2.5641025641024981</v>
       </c>
       <c r="F38" s="5">
-        <f t="shared" ref="F38:F66" si="8">B3-F3</f>
+        <f t="shared" ref="F38:F66" si="6">B3-F3</f>
         <v>3.846153846153797</v>
       </c>
       <c r="G38" s="5">
-        <f t="shared" ref="G38:G66" si="9">B3-G3</f>
+        <f t="shared" ref="G38:G66" si="7">B3-G3</f>
         <v>-2.7588445310179992</v>
       </c>
       <c r="H38" s="5">
-        <f t="shared" ref="H38:H66" si="10">B3-H3</f>
+        <f t="shared" ref="H38:H66" si="8">B3-H3</f>
         <v>-1.4930217462180053</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" ref="I38:I66" si="11">B3-I3</f>
+        <f t="shared" ref="I38:I66" si="9">B3-I3</f>
         <v>2.3044466082820065</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" ref="J38:J66" si="12">B3-J3</f>
+        <f t="shared" ref="J38:J66" si="10">B3-J3</f>
         <v>-5.1282051282051953</v>
       </c>
     </row>
@@ -10945,71 +10951,71 @@
         <v>15.384615384615401</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0873093151358972</v>
       </c>
       <c r="E39" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5641025641025976</v>
       </c>
       <c r="F39" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="G39" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0873093151358972</v>
       </c>
       <c r="H39" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.3531320999358911</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.4443362544641047</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-1.2820512820512988</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-7.6923076923077076</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-6.5238558909153994</v>
       </c>
       <c r="E40" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.1282051282050958</v>
       </c>
       <c r="F40" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.846153846153797</v>
       </c>
       <c r="G40" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0710808178845923</v>
       </c>
       <c r="H40" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0710808178845923</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.4605647517154097</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.4102564102563946</v>
       </c>
       <c r="D41" s="5">
@@ -11017,877 +11023,877 @@
         <v>4.9496916585409991</v>
       </c>
       <c r="E41" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.6923076923076934</v>
       </c>
       <c r="F41" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.1282051282050958</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.11359948065900483</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.4813372281409869</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10.012982797840991</v>
       </c>
       <c r="J41" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.4102564102563946</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C42" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.53846153846159</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.6514118792384949</v>
       </c>
       <c r="E42" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="F42" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7.4488802337384925</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.146056475161501</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>9.9805258033384945</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.1282051282051953</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>7.6923076923076934</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.7147030185385006</v>
       </c>
       <c r="E43" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="F43" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.6923076923076934</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.1830574488384968</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.6514118792384949</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.6514118792384949</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.4102564102564941</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>11.538461538461505</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.6027263875845961</v>
       </c>
       <c r="E44" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.5641025641025976</v>
       </c>
       <c r="F44" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.2820512820512988</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.8685491723846042</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.134371957184598</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-2.7263875365154036</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.5641025641025976</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.5641025641024981</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.7750730282692047</v>
       </c>
       <c r="E45" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.4102564102563946</v>
       </c>
       <c r="F45" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-5.1282051282050958</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-1.5092502434691966</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.24342745856920089</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>3.554040895830795</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.8685491723846042</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5641025641025976</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.1282051282050958</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.19474196691540158</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.4001947419845919</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.0710808178846065</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.2820512820512988</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>11.197663096384602</v>
       </c>
       <c r="E47" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.4102564102563946</v>
       </c>
       <c r="F47" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.5641025641025976</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0710808178845923</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-2.7263875365154036</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-0.19474196691540158</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.2820512820512988</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.2820512820512988</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.5254787406204997</v>
       </c>
       <c r="E48" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-6.4102564102563946</v>
       </c>
       <c r="F48" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.5378123985795042</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.25965595582049161</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-5.3229470951204974</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>5.12820512820511</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>15.0925024342923</v>
       </c>
       <c r="E49" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.4102564102564088</v>
       </c>
       <c r="F49" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.6923076923077076</v>
       </c>
       <c r="G49" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>18.88997078869231</v>
       </c>
       <c r="H49" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.497565725392306</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>12.560856864692312</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.8461538461538112</v>
       </c>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.2820512820512988</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.8360921778819943</v>
       </c>
       <c r="E50" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F50" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.2820512820512988</v>
       </c>
       <c r="G50" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.22719896141799722</v>
       </c>
       <c r="H50" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.22719896141799722</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.8360921778819943</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.2820512820511993</v>
       </c>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C51" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>8.9743589743589069</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.5864978903333053</v>
       </c>
       <c r="E51" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-3.8461538461538964</v>
       </c>
       <c r="F51" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-5.1282051282051953</v>
       </c>
       <c r="G51" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.5864978903333053</v>
       </c>
       <c r="H51" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.1181434599332931</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.4767932489667004</v>
       </c>
       <c r="J51" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-7.6923076923076934</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>3.554040895830795</v>
       </c>
       <c r="E52" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-7.6923076923076934</v>
       </c>
       <c r="F52" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-4.0408958130691985</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-7.8383641674691944</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-6.5725413826692005</v>
       </c>
       <c r="J52" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-1.2820512820511993</v>
       </c>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.6984745212871957</v>
       </c>
       <c r="E53" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.5641025641025976</v>
       </c>
       <c r="F53" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-2.5641025641025976</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.6984745212871957</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1035378123872022</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-0.16228497241280593</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.901006166787198</v>
       </c>
       <c r="E54" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="F54" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.4102564102563946</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.6351833819871899</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1035378123872022</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>1.103537812387188</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.1282051282051953</v>
       </c>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.5641025641026118</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.747160012940995</v>
       </c>
       <c r="E55" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10.256410256410192</v>
       </c>
       <c r="F55" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.6923076923076934</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.747160012940995</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>7.4813372281409869</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.9496916585409849</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>10.256410256410192</v>
       </c>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-1.2820512820512988</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.4605647517153955</v>
       </c>
       <c r="E56" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-1.2820512820512988</v>
       </c>
       <c r="F56" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.8685491723846042</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.8685491723846042</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.134371957184598</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.4102564102563946</v>
       </c>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-6.4102564102564941</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.0548523206333016</v>
       </c>
       <c r="E57" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-2.5641025641025976</v>
       </c>
       <c r="F57" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.8461538461538964</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.21097046416670651</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.21097046416670651</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-0.2109704641666923</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.1282051282050958</v>
       </c>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.4102564102563946</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>2.369360597187196</v>
       </c>
       <c r="E58" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.1282051282051953</v>
       </c>
       <c r="F58" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.1035378123872022</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>11.230120090887198</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4.901006166787198</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-3.8461538461538964</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-2.7588445310179992</v>
       </c>
       <c r="E59" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.846153846153797</v>
       </c>
       <c r="F59" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1.0386238234819984</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-5.2904901006180012</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.3044466082820065</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-5.1282051282051953</v>
       </c>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>6.4102564102563946</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>10.012982797840991</v>
       </c>
       <c r="E60" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.1282051282050958</v>
       </c>
       <c r="F60" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.5641025641024981</v>
       </c>
       <c r="G60" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11.278805582640999</v>
       </c>
       <c r="H60" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.11359948065900483</v>
       </c>
       <c r="I60" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6.215514443340993</v>
       </c>
       <c r="J60" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>6.4102564102563946</v>
       </c>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-10.256410256410192</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-4.0408958130691985</v>
       </c>
       <c r="E61" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5641025641025976</v>
       </c>
       <c r="F61" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="G61" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-2.7750730282692047</v>
       </c>
       <c r="H61" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-5.3067185978691924</v>
       </c>
       <c r="I61" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-1.5092502434691966</v>
       </c>
       <c r="J61" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>3.8461538461538964</v>
       </c>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C62" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>15.384615384615401</v>
       </c>
       <c r="D62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4.901006166787198</v>
       </c>
       <c r="E62" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="F62" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.5641025641025976</v>
       </c>
       <c r="G62" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.6351833819871899</v>
       </c>
       <c r="H62" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.901006166787198</v>
       </c>
       <c r="I62" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-0.16228497241280593</v>
       </c>
       <c r="J62" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.1282051282051953</v>
       </c>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C63" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="D63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8.6822460240358907</v>
       </c>
       <c r="E63" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2.5641025641025976</v>
       </c>
       <c r="F63" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="G63" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>8.6822460240358907</v>
       </c>
       <c r="H63" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.6189548847358992</v>
       </c>
       <c r="I63" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-5.2418046088641006</v>
       </c>
       <c r="J63" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>2.5641025641025976</v>
       </c>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C64" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="D64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-1.5417072378717904</v>
       </c>
       <c r="E64" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-5.1282051282050958</v>
       </c>
       <c r="F64" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="G64" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-0.27588445307179654</v>
       </c>
       <c r="H64" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-4.0733528075717942</v>
       </c>
       <c r="I64" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-15.465757870771796</v>
       </c>
       <c r="J64" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-2.5641025641025976</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C65" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>10.256410256410291</v>
       </c>
       <c r="D65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>17.591691009389791</v>
       </c>
       <c r="E65" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.2820512820512988</v>
       </c>
       <c r="F65" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>3.8461538461538964</v>
       </c>
       <c r="G65" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>11.262577085389793</v>
       </c>
       <c r="H65" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>6.1992859460897876</v>
       </c>
       <c r="I65" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2.4018175916897917</v>
       </c>
       <c r="J65" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>5.1282051282051953</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C66" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-3.846153846153797</v>
       </c>
       <c r="D66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-5.3229470951204974</v>
       </c>
       <c r="E66" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>-10.256410256410291</v>
       </c>
       <c r="F66" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-10.256410256410291</v>
       </c>
       <c r="G66" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-4.0571243103205035</v>
       </c>
       <c r="H66" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.25965595582049161</v>
       </c>
       <c r="I66" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>-5.3229470951204974</v>
       </c>
       <c r="J66" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>-3.846153846153797</v>
       </c>
     </row>
@@ -12806,8 +12812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:J66"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13837,7 +13843,7 @@
         <v>91.863960916943341</v>
       </c>
       <c r="I33" s="3">
-        <f t="shared" ref="I33" si="1">AVERAGE(I2:I31)</f>
+        <f>AVERAGE(I2:I31)</f>
         <v>90.427927927923349</v>
       </c>
       <c r="J33" s="3">
@@ -13850,35 +13856,35 @@
         <v>2</v>
       </c>
       <c r="B34" s="3">
-        <f t="shared" ref="B34:H34" si="2">STDEV(B2:B31)</f>
+        <f t="shared" ref="B34:H34" si="1">STDEV(B2:B31)</f>
         <v>0.88310045087313938</v>
       </c>
       <c r="C34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.87645813133625439</v>
       </c>
       <c r="D34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.148864513385107</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.91191217593427876</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1.2038566577634504</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.80807390619830022</v>
       </c>
       <c r="H34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0.61755920950648258</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" ref="I34" si="3">STDEV(I2:I31)</f>
+        <f>STDEV(I2:I31)</f>
         <v>1.2709734569407567</v>
       </c>
       <c r="J34" s="3">
@@ -13899,31 +13905,31 @@
         <v>3.4077710054823713</v>
       </c>
       <c r="D35" s="3">
-        <f t="shared" ref="D35:J35" si="4">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
         <v>34.192428872385101</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.0728558916991835</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>25.637036744923122</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>11.934600314310837</v>
       </c>
       <c r="H35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.34063500243371553</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>7.1477409755261654</v>
       </c>
       <c r="J35" s="3" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -13967,1103 +13973,1103 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
-        <f t="shared" ref="B38:B66" si="5">J3-B3</f>
+        <f t="shared" ref="B38:B66" si="3">J3-B3</f>
         <v>-1.3528748590754986</v>
       </c>
       <c r="C38" s="3">
-        <f t="shared" ref="C38:C66" si="6">J3-C3</f>
+        <f t="shared" ref="C38:C66" si="4">J3-C3</f>
         <v>-0.9019165727169991</v>
       </c>
       <c r="D38" s="3">
-        <f t="shared" ref="D38:D66" si="7">J3-D3</f>
+        <f t="shared" ref="D38:D66" si="5">J3-D3</f>
         <v>5.4114994362986977</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" ref="E38:E66" si="8">J3-E3</f>
+        <f t="shared" ref="E38:E66" si="6">J3-E3</f>
         <v>-0.22547914317920004</v>
       </c>
       <c r="F38" s="3">
-        <f t="shared" ref="F38:F66" si="9">J3-F3</f>
+        <f t="shared" ref="F38:F66" si="7">J3-F3</f>
         <v>3.1567080044986966</v>
       </c>
       <c r="G38" s="3">
-        <f t="shared" ref="G38:G66" si="10">J3-G3</f>
+        <f t="shared" ref="G38:G66" si="8">J3-G3</f>
         <v>2.2547914317986937</v>
       </c>
       <c r="H38" s="3">
-        <f t="shared" ref="H38:H66" si="11">J3-H3</f>
+        <f t="shared" ref="H38:H66" si="9">J3-H3</f>
         <v>-0.67643742950130559</v>
       </c>
       <c r="I38" s="3">
-        <f t="shared" ref="I38:I66" si="12">J3-I3</f>
+        <f t="shared" ref="I38:I66" si="10">J3-I3</f>
         <v>0.32806199659869151</v>
       </c>
       <c r="J38" s="3">
-        <f t="shared" ref="J38:J66" si="13">J3-J3</f>
+        <f t="shared" ref="J38:J66" si="11">J3-J3</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.78917700112739908</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.33821871476889953</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.3134160090052944</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.8038331454339982</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.2987598647052891</v>
       </c>
       <c r="G39" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.78917700110528699</v>
       </c>
       <c r="H39" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.11273957159470172</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="10"/>
+        <v>1.7931685914052906</v>
+      </c>
+      <c r="J39" s="3">
         <f t="shared" si="11"/>
-        <v>-0.11273957159470172</v>
-      </c>
-      <c r="I39" s="3">
-        <f t="shared" si="12"/>
-        <v>1.7931685914052906</v>
-      </c>
-      <c r="J39" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C40" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.11273957158960002</v>
       </c>
       <c r="D40" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.7204058624712957</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.5783540022547982</v>
       </c>
       <c r="F40" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.3821871476713028</v>
       </c>
       <c r="G40" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.22547914317128459</v>
       </c>
       <c r="H40" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.3528748590287023</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1154615720712968</v>
+      </c>
+      <c r="J40" s="3">
         <f t="shared" si="11"/>
-        <v>-1.3528748590287023</v>
-      </c>
-      <c r="I40" s="3">
-        <f t="shared" si="12"/>
-        <v>1.1154615720712968</v>
-      </c>
-      <c r="J40" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1.1273957158962986</v>
       </c>
       <c r="C41" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.4656144306651981</v>
       </c>
       <c r="D41" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>9.6956031567015941</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.1713641488162949</v>
       </c>
       <c r="F41" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.6223224352015961</v>
       </c>
       <c r="G41" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.9312288613015909</v>
       </c>
       <c r="H41" s="3">
+        <f t="shared" si="9"/>
+        <v>1.0146561443015969</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="10"/>
+        <v>4.4971408838015918</v>
+      </c>
+      <c r="J41" s="3">
         <f t="shared" si="11"/>
-        <v>1.0146561443015969</v>
-      </c>
-      <c r="I41" s="3">
-        <f t="shared" si="12"/>
-        <v>4.4971408838015918</v>
-      </c>
-      <c r="J41" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-2.1420518602030114</v>
       </c>
       <c r="C42" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.9019165727169991</v>
       </c>
       <c r="D42" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.3280721533363931</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.9165727170236977</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.156708004536398</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.1420518602363927</v>
       </c>
       <c r="H42" s="3">
+        <f t="shared" si="9"/>
+        <v>0.11273957163639636</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="10"/>
+        <v>1.9054003270363893</v>
+      </c>
+      <c r="J42" s="3">
         <f t="shared" si="11"/>
-        <v>0.11273957163639636</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="12"/>
-        <v>1.9054003270363893</v>
-      </c>
-      <c r="J42" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.22547914317920004</v>
       </c>
       <c r="C43" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.22547914317929951</v>
       </c>
       <c r="D43" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.5535512964986964</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.5783540022547982</v>
       </c>
       <c r="F43" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.8624577226986929</v>
       </c>
       <c r="G43" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.4656144306986931</v>
       </c>
       <c r="H43" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.56369785790130322</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="10"/>
+        <v>1.0037376722986977</v>
+      </c>
+      <c r="J43" s="3">
         <f t="shared" si="11"/>
-        <v>-0.56369785790130322</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="12"/>
-        <v>1.0037376722986977</v>
-      </c>
-      <c r="J43" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.67643742953779906</v>
       </c>
       <c r="C44" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.90191657271709857</v>
       </c>
       <c r="D44" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.6662908681297921</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.0146561443065991</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.9312288613297994</v>
       </c>
       <c r="G44" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.90191657272978887</v>
       </c>
       <c r="H44" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.352874859070198</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.23538194337020002</v>
+      </c>
+      <c r="J44" s="3">
         <f t="shared" si="11"/>
-        <v>-1.352874859070198</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.23538194337020002</v>
-      </c>
-      <c r="J44" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.33821871476889953</v>
       </c>
       <c r="C45" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.33821871476889953</v>
       </c>
       <c r="D45" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.4408117249363954</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.7057497181510968</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.9605411499363896</v>
       </c>
       <c r="G45" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.0146561443363851</v>
       </c>
       <c r="H45" s="3">
+        <f t="shared" si="9"/>
+        <v>0.45095828633640167</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.6982032765636035</v>
+      </c>
+      <c r="J45" s="3">
         <f t="shared" si="11"/>
-        <v>0.45095828633640167</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="12"/>
-        <v>-1.6982032765636035</v>
-      </c>
-      <c r="J45" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.22547914317929951</v>
       </c>
       <c r="C46" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.33821871476889953</v>
       </c>
       <c r="D46" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.8771138669986982</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.6910935738444977</v>
       </c>
       <c r="F46" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.7204058624986942</v>
       </c>
       <c r="G46" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.352874859098705</v>
       </c>
       <c r="H46" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.22547914320129792</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="10"/>
+        <v>1.9046385731986959</v>
+      </c>
+      <c r="J46" s="3">
         <f t="shared" si="11"/>
-        <v>-0.22547914320129792</v>
-      </c>
-      <c r="I46" s="3">
-        <f t="shared" si="12"/>
-        <v>1.9046385731986959</v>
-      </c>
-      <c r="J46" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.11273957158960002</v>
       </c>
       <c r="C47" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.11273957158960002</v>
       </c>
       <c r="D47" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.4261555805609021</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-0.22547914317920004</v>
       </c>
       <c r="F47" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>2.4802705749608975</v>
       </c>
       <c r="G47" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.33821871476088461</v>
       </c>
       <c r="H47" s="3">
+        <f t="shared" si="9"/>
+        <v>-2.4802705749390981</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.34837543293910755</v>
+      </c>
+      <c r="J47" s="3">
         <f t="shared" si="11"/>
-        <v>-2.4802705749390981</v>
-      </c>
-      <c r="I47" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.34837543293910755</v>
-      </c>
-      <c r="J47" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.11273957158960002</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.22547914317920004</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.2987598647504939</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.67643742953779906</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.5095828635505057</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.90191657275049408</v>
       </c>
       <c r="H48" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.4656144306495094</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="10"/>
+        <v>1.1157154900504906</v>
+      </c>
+      <c r="J48" s="3">
         <f t="shared" si="11"/>
-        <v>-1.4656144306495094</v>
-      </c>
-      <c r="I48" s="3">
-        <f t="shared" si="12"/>
-        <v>1.1157154900504906</v>
-      </c>
-      <c r="J48" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.22547914317929951</v>
       </c>
       <c r="C49" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.11273957158969949</v>
       </c>
       <c r="D49" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.4554678692259984</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.4656144306650987</v>
       </c>
       <c r="F49" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.2006764374259973</v>
       </c>
       <c r="G49" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.1420518602260046</v>
       </c>
       <c r="H49" s="3">
+        <f t="shared" si="9"/>
+        <v>0.67643742952598984</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="10"/>
+        <v>2.2433651238259955</v>
+      </c>
+      <c r="J49" s="3">
         <f t="shared" si="11"/>
-        <v>0.67643742952598984</v>
-      </c>
-      <c r="I49" s="3">
-        <f t="shared" si="12"/>
-        <v>2.2433651238259955</v>
-      </c>
-      <c r="J49" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.22547914317929951</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.11273957158969949</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.7790304396845897</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.5930101465614968</v>
       </c>
       <c r="F50" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7.3280721532845945</v>
       </c>
       <c r="G50" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.7057497181845918</v>
       </c>
       <c r="H50" s="3">
+        <f t="shared" si="9"/>
+        <v>0.67643742958459541</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="10"/>
+        <v>0.89252160838459815</v>
+      </c>
+      <c r="J50" s="3">
         <f t="shared" si="11"/>
-        <v>0.67643742958459541</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="12"/>
-        <v>0.89252160838459815</v>
-      </c>
-      <c r="J50" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.33821871476889953</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.33821871476889953</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.5388951522363925</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.67643742953769959</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.3968432920363938</v>
       </c>
       <c r="G51" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.3528748590363904</v>
       </c>
       <c r="H51" s="3">
+        <f t="shared" si="9"/>
+        <v>1.240135287436388</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="10"/>
+        <v>-1.6982032765636035</v>
+      </c>
+      <c r="J51" s="3">
         <f t="shared" si="11"/>
-        <v>1.240135287436388</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="12"/>
-        <v>-1.6982032765636035</v>
-      </c>
-      <c r="J51" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.22547914317929951</v>
       </c>
       <c r="C52" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D52" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.779030439705295</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.3528748590754986</v>
       </c>
       <c r="F52" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.2694475761052928</v>
       </c>
       <c r="G52" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1273957159052941</v>
       </c>
       <c r="H52" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5783540022052875</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5679433661052968</v>
+      </c>
+      <c r="J52" s="3">
         <f t="shared" si="11"/>
-        <v>1.5783540022052875</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="12"/>
-        <v>1.5679433661052968</v>
-      </c>
-      <c r="J52" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.33821871476889953</v>
       </c>
       <c r="C53" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.56369785794819904</v>
       </c>
       <c r="D53" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.2006764374430929</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.56369785794819904</v>
       </c>
       <c r="F53" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.9751972942430882</v>
       </c>
       <c r="G53" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.9165727170430955</v>
       </c>
       <c r="H53" s="3">
+        <f t="shared" si="9"/>
+        <v>1.4656144306431003</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="10"/>
+        <v>1.7939303452430977</v>
+      </c>
+      <c r="J53" s="3">
         <f t="shared" si="11"/>
-        <v>1.4656144306431003</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="12"/>
-        <v>1.7939303452430977</v>
-      </c>
-      <c r="J53" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.45095828635859903</v>
       </c>
       <c r="C54" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>-0.67643742953779906</v>
       </c>
       <c r="D54" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.2299887260259936</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.6910935738443982</v>
       </c>
       <c r="F54" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.7350620067259968</v>
       </c>
       <c r="G54" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>4.0586245772259986</v>
       </c>
       <c r="H54" s="3">
+        <f t="shared" si="9"/>
+        <v>0.22547914322599638</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="10"/>
+        <v>1.5676894482259911</v>
+      </c>
+      <c r="J54" s="3">
         <f t="shared" si="11"/>
-        <v>0.22547914322599638</v>
-      </c>
-      <c r="I54" s="3">
-        <f t="shared" si="12"/>
-        <v>1.5676894482259911</v>
-      </c>
-      <c r="J54" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.67643742953779906</v>
       </c>
       <c r="C55" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.2401352874858986</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.0879368658846005</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.9312288613303963</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.4261555805845916</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.9312288612845947</v>
       </c>
       <c r="H55" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.33821871481541166</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="10"/>
+        <v>0.44207115798459995</v>
+      </c>
+      <c r="J55" s="3">
         <f t="shared" si="11"/>
-        <v>-0.33821871481541166</v>
-      </c>
-      <c r="I55" s="3">
-        <f t="shared" si="12"/>
-        <v>0.44207115798459995</v>
-      </c>
-      <c r="J55" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.45095828635849955</v>
       </c>
       <c r="C56" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.22547914317920004</v>
       </c>
       <c r="D56" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.0045095828948973</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.5783540022547982</v>
       </c>
       <c r="F56" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.4114994362948892</v>
       </c>
       <c r="G56" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.3821871476948928</v>
       </c>
       <c r="H56" s="3">
+        <f t="shared" si="9"/>
+        <v>0.22547914319488882</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="10"/>
+        <v>3.7077099647949012</v>
+      </c>
+      <c r="J56" s="3">
         <f t="shared" si="11"/>
-        <v>0.22547914319488882</v>
-      </c>
-      <c r="I56" s="3">
-        <f t="shared" si="12"/>
-        <v>3.7077099647949012</v>
-      </c>
-      <c r="J56" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.9019165727169991</v>
       </c>
       <c r="C57" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>1.2401352874858986</v>
       </c>
       <c r="D57" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6.4261555805741892</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.2547914317925972</v>
       </c>
       <c r="F57" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.0879368658741981</v>
       </c>
       <c r="G57" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.2694475760741852</v>
       </c>
       <c r="H57" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2401352874741889</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="10"/>
+        <v>3.0322882070741883</v>
+      </c>
+      <c r="J57" s="3">
         <f t="shared" si="11"/>
-        <v>1.2401352874741889</v>
-      </c>
-      <c r="I57" s="3">
-        <f t="shared" si="12"/>
-        <v>3.0322882070741883</v>
-      </c>
-      <c r="J57" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.56369785794809957</v>
       </c>
       <c r="C58" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.45095828635849955</v>
       </c>
       <c r="D58" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.1172491544533898</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.2547914317924977</v>
       </c>
       <c r="F58" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7.2153325817534011</v>
       </c>
       <c r="G58" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.6076662908534018</v>
       </c>
       <c r="H58" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2401352874533984</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="10"/>
+        <v>2.5820916745533964</v>
+      </c>
+      <c r="J58" s="3">
         <f t="shared" si="11"/>
-        <v>1.2401352874533984</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="12"/>
-        <v>2.5820916745533964</v>
-      </c>
-      <c r="J58" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.22547914317920004</v>
       </c>
       <c r="C59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.22547914317920004</v>
       </c>
       <c r="D59" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.1025930101778982</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.8038331454339982</v>
       </c>
       <c r="F59" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.8624577226779024</v>
       </c>
       <c r="G59" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.2547914317779032</v>
       </c>
       <c r="H59" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.2401352875221079</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="10"/>
+        <v>2.8057933920779021</v>
+      </c>
+      <c r="J59" s="3">
         <f t="shared" si="11"/>
-        <v>-1.2401352875221079</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="12"/>
-        <v>2.8057933920779021</v>
-      </c>
-      <c r="J59" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.11273957158960002</v>
       </c>
       <c r="C60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.56369785794809957</v>
       </c>
       <c r="D60" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.9751972942089964</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-0.56369785794819904</v>
       </c>
       <c r="F60" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>7.5535512965089993</v>
       </c>
       <c r="G60" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.1420518602089942</v>
       </c>
       <c r="H60" s="3">
+        <f t="shared" si="9"/>
+        <v>0.33821871480900256</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="10"/>
+        <v>-0.46035325069099997</v>
+      </c>
+      <c r="J60" s="3">
         <f t="shared" si="11"/>
-        <v>0.33821871480900256</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="12"/>
-        <v>-0.46035325069099997</v>
-      </c>
-      <c r="J60" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.45095828635849955</v>
       </c>
       <c r="C61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.67643742953769959</v>
       </c>
       <c r="D61" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5.2987598647400915</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-0.45095828635859903</v>
       </c>
       <c r="F61" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>4.9605411499400986</v>
       </c>
       <c r="G61" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.1273957159400965</v>
       </c>
       <c r="H61" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.1273957158599046</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="10"/>
+        <v>1.6789055120401031</v>
+      </c>
+      <c r="J61" s="3">
         <f t="shared" si="11"/>
-        <v>-1.1273957158599046</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="12"/>
-        <v>1.6789055120401031</v>
-      </c>
-      <c r="J61" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>-0.22547914317920004</v>
       </c>
       <c r="C62" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.45095828635849955</v>
       </c>
       <c r="D62" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4.9605411499023973</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>-1.4656144306650987</v>
       </c>
       <c r="F62" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>3.9458850056024062</v>
       </c>
       <c r="G62" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>-0.90191657269760128</v>
       </c>
       <c r="H62" s="3">
+        <f t="shared" si="9"/>
+        <v>-1.6910935737976018</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="10"/>
+        <v>0.77724285730239728</v>
+      </c>
+      <c r="J62" s="3">
         <f t="shared" si="11"/>
-        <v>-1.6910935737976018</v>
-      </c>
-      <c r="I62" s="3">
-        <f t="shared" si="12"/>
-        <v>0.77724285730239728</v>
-      </c>
-      <c r="J62" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.33821871476889953</v>
       </c>
       <c r="C63" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.78917700112739908</v>
       </c>
       <c r="D63" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.2153325817052973</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0.67643742953779906</v>
       </c>
       <c r="F63" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.7497181511052986</v>
       </c>
       <c r="G63" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.5930101466052946</v>
       </c>
       <c r="H63" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6910935738052899</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="10"/>
+        <v>2.468844267005295</v>
+      </c>
+      <c r="J63" s="3">
         <f t="shared" si="11"/>
-        <v>1.6910935738052899</v>
-      </c>
-      <c r="I63" s="3">
-        <f t="shared" si="12"/>
-        <v>2.468844267005295</v>
-      </c>
-      <c r="J63" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="C64" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.22547914317929951</v>
       </c>
       <c r="D64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8.6809470123845927</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.3528748590755981</v>
       </c>
       <c r="F64" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.9898534385845892</v>
       </c>
       <c r="G64" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>1.465614430684596</v>
       </c>
       <c r="H64" s="3">
+        <f t="shared" si="9"/>
+        <v>0.56369785798459304</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="10"/>
+        <v>2.0186477345845901</v>
+      </c>
+      <c r="J64" s="3">
         <f t="shared" si="11"/>
-        <v>0.56369785798459304</v>
-      </c>
-      <c r="I64" s="3">
-        <f t="shared" si="12"/>
-        <v>2.0186477345845901</v>
-      </c>
-      <c r="J64" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.56369785794809957</v>
       </c>
       <c r="C65" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.11273957158960002</v>
       </c>
       <c r="D65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7.2153325817534011</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>1.2401352874858986</v>
       </c>
       <c r="F65" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.2006764374533958</v>
       </c>
       <c r="G65" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>3.2694475760533948</v>
       </c>
       <c r="H65" s="3">
+        <f t="shared" si="9"/>
+        <v>0.9019165727533931</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="10"/>
+        <v>3.9334430258533928</v>
+      </c>
+      <c r="J65" s="3">
         <f t="shared" si="11"/>
-        <v>0.9019165727533931</v>
-      </c>
-      <c r="I65" s="3">
-        <f t="shared" si="12"/>
-        <v>3.9334430258533928</v>
-      </c>
-      <c r="J65" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>0.56369785794809957</v>
       </c>
       <c r="C66" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.56369785794809957</v>
       </c>
       <c r="D66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>10.259301014694898</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>2.2547914317924977</v>
       </c>
       <c r="F66" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>6.2006764373949039</v>
       </c>
       <c r="G66" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>2.2547914317948994</v>
       </c>
       <c r="H66" s="3">
+        <f t="shared" si="9"/>
+        <v>-0.11273957160510406</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="10"/>
+        <v>1.4554577124948906</v>
+      </c>
+      <c r="J66" s="3">
         <f t="shared" si="11"/>
-        <v>-0.11273957160510406</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="12"/>
-        <v>1.4554577124948906</v>
-      </c>
-      <c r="J66" s="3">
-        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
@@ -15075,6 +15081,1555 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J66"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="16.625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>98.148148148148195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>98.353909465020607</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>98.765432098765402</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>98.628257887517194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>98.559670781893004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>98.559670781893004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>98.285322359396403</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>98.079561042524006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>98.010973936899902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>98.422496570644697</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>98.216735253772299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>98.010973936899902</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>98.765432098765402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="E15" s="3">
+        <v>98.422496570644697</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>98.079561042524006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>98.559670781893004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>98.559670781893004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>98.422496570644697</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>98.422496570644697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <v>98.353909465020607</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="E22" s="3">
+        <v>98.216735253772299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="E23" s="3">
+        <v>98.696844993141298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3">
+        <v>98.765432098765402</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3">
+        <v>98.079561042524006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="E26" s="3">
+        <v>98.834019204389605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="E27" s="3">
+        <v>98.4910836762689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="E28" s="3">
+        <v>98.559670781893004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="E29" s="3">
+        <v>98.216735253772299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="E30" s="3">
+        <v>97.805212620027405</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="E31" s="3">
+        <v>98.696844993141298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="e">
+        <f t="shared" ref="B33:J33" si="0">AVERAGE(B2:B31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E33" s="3">
+        <f>AVERAGE(E2:E31)</f>
+        <v>98.399634202103343</v>
+      </c>
+      <c r="F33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" s="3" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3" t="e">
+        <f t="shared" ref="B34:I34" si="1">STDEV(B2:B31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I34" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" s="3" t="e">
+        <f>STDEV(J2:J31)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="e">
+        <f>(AVERAGE(B37:B66)/STDEV(B37:B66))*SQRT(50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C35" s="3" t="e">
+        <f>(AVERAGE(C37:C66)/STDEV(C37:C66))*SQRT(50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D35" s="3" t="e">
+        <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" s="3" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B37" s="3">
+        <f>J2-B2</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="3">
+        <f>J2-C2</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="3">
+        <f>J2-D2</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="3">
+        <f>J2-E2</f>
+        <v>-98.148148148148195</v>
+      </c>
+      <c r="F37" s="3">
+        <f>J2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="3">
+        <f>J2-G2</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <f>J2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <f>J2-I2</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <f>J2-J2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B38" s="3">
+        <f t="shared" ref="B38:B66" si="3">J3-B3</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" ref="C38:C66" si="4">J3-C3</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <f t="shared" ref="D38:D66" si="5">J3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" ref="E38:E66" si="6">J3-E3</f>
+        <v>-98.353909465020607</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" ref="F38:F66" si="7">J3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" ref="G38:G66" si="8">J3-G3</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38:H66" si="9">J3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <f t="shared" ref="I38:I66" si="10">J3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" ref="J38:J66" si="11">J3-J3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B39" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.765432098765402</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B40" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.628257887517194</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.559670781893004</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.559670781893004</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B43" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.285322359396403</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.079561042524006</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B45" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.010973936899902</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B46" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.422496570644697</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B47" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.216735253772299</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.010973936899902</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B49" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.765432098765402</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B50" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.422496570644697</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B51" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.079561042524006</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B52" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.559670781893004</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.559670781893004</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B54" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.422496570644697</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.422496570644697</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B56" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.353909465020607</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.216735253772299</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B58" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C58" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.696844993141298</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B59" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C59" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.765432098765402</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B60" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C60" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.079561042524006</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B61" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C61" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.834019204389605</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B62" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C62" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.4910836762689</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B63" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C63" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.559670781893004</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C64" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.216735253772299</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B65" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C65" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="6"/>
+        <v>-97.805212620027405</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B66" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C66" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="6"/>
+        <v>-98.696844993141298</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D128"/>
   <sheetViews>

--- a/statistic/result.xlsx
+++ b/statistic/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" firstSheet="6" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="plant 940" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
     <sheet name="mkl C=10 100 10000 1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
   <si>
     <t>均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,6 +428,42 @@
     <t>1v1 c=8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>UFO-MKL λ=1/(100*Ytrian)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSD-MKL C=10 γ=0.0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1v1 C=16 _2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conv-MKL C=64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMC C=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OneVsRest C=100 _2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1VRest C=32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SG-MKL C=128, γ=0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFO-MKL C=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -789,7 +824,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="31.25" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="17.75" customWidth="1"/>
     <col min="9" max="9" width="20.375" customWidth="1"/>
@@ -7486,10 +7521,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:T66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7497,7 +7532,7 @@
     <col min="1" max="16384" width="16.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
@@ -7525,8 +7560,26 @@
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -7557,8 +7610,26 @@
       <c r="J2" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M2" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N2" s="3">
+        <v>80</v>
+      </c>
+      <c r="O2" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P2" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T2" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -7589,8 +7660,26 @@
       <c r="J3" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M3" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N3" s="3">
+        <v>80</v>
+      </c>
+      <c r="O3" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P3" s="3">
+        <v>100</v>
+      </c>
+      <c r="T3" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -7621,8 +7710,26 @@
       <c r="J4" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M4" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N4" s="3">
+        <v>80</v>
+      </c>
+      <c r="O4" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P4" s="3">
+        <v>90</v>
+      </c>
+      <c r="T4" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -7653,8 +7760,26 @@
       <c r="J5" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M5" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N5" s="3">
+        <v>90</v>
+      </c>
+      <c r="O5" s="3">
+        <v>100</v>
+      </c>
+      <c r="P5" s="3">
+        <v>100</v>
+      </c>
+      <c r="T5" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -7685,8 +7810,26 @@
       <c r="J6" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M6" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N6" s="3">
+        <v>90</v>
+      </c>
+      <c r="O6" s="3">
+        <v>90</v>
+      </c>
+      <c r="P6" s="3">
+        <v>90</v>
+      </c>
+      <c r="T6" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -7717,8 +7860,26 @@
       <c r="J7" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="3">
+        <v>100</v>
+      </c>
+      <c r="M7" s="3">
+        <v>100</v>
+      </c>
+      <c r="N7" s="3">
+        <v>90</v>
+      </c>
+      <c r="O7" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P7" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -7749,8 +7910,26 @@
       <c r="J8" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -7781,8 +7960,26 @@
       <c r="J9" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M9" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N9" s="3">
+        <v>100</v>
+      </c>
+      <c r="O9" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P9" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T9" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -7813,8 +8010,26 @@
       <c r="J10" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>100</v>
+      </c>
+      <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
+        <v>90</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+      <c r="P10" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T10" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -7845,8 +8060,26 @@
       <c r="J11" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="3">
+        <v>100</v>
+      </c>
+      <c r="M11" s="3">
+        <v>100</v>
+      </c>
+      <c r="N11" s="3">
+        <v>90</v>
+      </c>
+      <c r="O11" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P11" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T11" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -7877,8 +8110,26 @@
       <c r="J12" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>100</v>
+      </c>
+      <c r="N12" s="3">
+        <v>80</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+      <c r="P12" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -7909,8 +8160,26 @@
       <c r="J13" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M13" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N13" s="3">
+        <v>100</v>
+      </c>
+      <c r="O13" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P13" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T13" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -7941,8 +8210,26 @@
       <c r="J14" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M14" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N14" s="3">
+        <v>90</v>
+      </c>
+      <c r="O14" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P14" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T14" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -7973,8 +8260,26 @@
       <c r="J15" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M15" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N15" s="3">
+        <v>90</v>
+      </c>
+      <c r="O15" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P15" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T15" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -8005,8 +8310,26 @@
       <c r="J16" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M16" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N16" s="3">
+        <v>80</v>
+      </c>
+      <c r="O16" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P16" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T16" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -8037,8 +8360,26 @@
       <c r="J17" s="3">
         <v>90</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M17" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N17" s="3">
+        <v>90</v>
+      </c>
+      <c r="O17" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P17" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T17" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -8069,8 +8410,26 @@
       <c r="J18" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M18" s="3">
+        <v>90</v>
+      </c>
+      <c r="N18" s="3">
+        <v>90</v>
+      </c>
+      <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T18" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -8101,8 +8460,26 @@
       <c r="J19" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M19" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N19" s="3">
+        <v>100</v>
+      </c>
+      <c r="O19" s="3">
+        <v>100</v>
+      </c>
+      <c r="P19" s="3">
+        <v>100</v>
+      </c>
+      <c r="T19" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -8133,8 +8510,26 @@
       <c r="J20" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>100</v>
+      </c>
+      <c r="M20" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N20" s="3">
+        <v>90</v>
+      </c>
+      <c r="O20" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P20" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -8165,8 +8560,26 @@
       <c r="J21" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M21" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N21" s="3">
+        <v>90</v>
+      </c>
+      <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -8197,8 +8610,26 @@
       <c r="J22" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M22" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N22" s="3">
+        <v>90</v>
+      </c>
+      <c r="O22" s="3">
+        <v>90</v>
+      </c>
+      <c r="P22" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T22" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -8229,8 +8660,26 @@
       <c r="J23" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P23" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T23" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -8261,8 +8710,26 @@
       <c r="J24" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M24" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N24" s="3">
+        <v>90</v>
+      </c>
+      <c r="O24" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P24" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T24" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -8293,8 +8760,26 @@
       <c r="J25" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M25" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N25" s="3">
+        <v>90</v>
+      </c>
+      <c r="O25" s="3">
+        <v>90</v>
+      </c>
+      <c r="P25" s="3">
+        <v>90</v>
+      </c>
+      <c r="T25" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -8325,8 +8810,26 @@
       <c r="J26" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
+        <v>100</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="T26" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8357,8 +8860,26 @@
       <c r="J27" s="3">
         <v>86.6666666666667</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M27" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N27" s="3">
+        <v>80</v>
+      </c>
+      <c r="O27" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P27" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T27" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8389,8 +8910,26 @@
       <c r="J28" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M28" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N28" s="3">
+        <v>80</v>
+      </c>
+      <c r="O28" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P28" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T28" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8421,8 +8960,26 @@
       <c r="J29" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M29" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N29" s="3">
+        <v>90</v>
+      </c>
+      <c r="O29" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P29" s="3">
+        <v>100</v>
+      </c>
+      <c r="T29" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8453,8 +9010,26 @@
       <c r="J30" s="3">
         <v>96.6666666666667</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M30" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N30" s="3">
+        <v>70</v>
+      </c>
+      <c r="O30" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P30" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T30" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8485,8 +9060,46 @@
       <c r="J31" s="3">
         <v>93.3333333333333</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M31" s="3">
+        <v>100</v>
+      </c>
+      <c r="N31" s="3">
+        <v>90</v>
+      </c>
+      <c r="O31" s="3">
+        <v>100</v>
+      </c>
+      <c r="P31" s="3">
+        <v>100</v>
+      </c>
+      <c r="T31" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M32" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -8526,8 +9139,26 @@
         <f>AVERAGE(J2:J31)</f>
         <v>95.555555555555571</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M33" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P33" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T33" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -8567,8 +9198,26 @@
         <f>STDEV(J2:J31)</f>
         <v>3.0742202491827708</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M34" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N34" s="3">
+        <v>90</v>
+      </c>
+      <c r="O34" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P34" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T34" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -8608,8 +9257,46 @@
         <f t="shared" si="2"/>
         <v>5.2898446234602146</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
+        <v>70</v>
+      </c>
+      <c r="O35" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P35" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="L36" s="3">
+        <v>100</v>
+      </c>
+      <c r="M36" s="3">
+        <v>100</v>
+      </c>
+      <c r="N36" s="3">
+        <v>100</v>
+      </c>
+      <c r="O36" s="3">
+        <v>100</v>
+      </c>
+      <c r="P36" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T36" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f>C2-B2</f>
         <v>3.3333333333333997</v>
@@ -8646,8 +9333,26 @@
         <f>C2-J2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M37" s="3">
+        <v>100</v>
+      </c>
+      <c r="N37" s="3">
+        <v>90</v>
+      </c>
+      <c r="O37" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P37" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T37" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" ref="B38:B66" si="3">C3-B3</f>
         <v>-3.3333333333333997</v>
@@ -8684,8 +9389,26 @@
         <f t="shared" ref="J38:J66" si="11">C3-J3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38" s="3">
+        <v>100</v>
+      </c>
+      <c r="M38" s="3">
+        <v>100</v>
+      </c>
+      <c r="N38" s="3">
+        <v>80</v>
+      </c>
+      <c r="O38" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P38" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T38" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8722,8 +9445,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333997</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M39" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N39" s="3">
+        <v>90</v>
+      </c>
+      <c r="O39" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P39" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T39" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8760,8 +9501,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333997</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M40" s="3">
+        <v>90</v>
+      </c>
+      <c r="N40" s="3">
+        <v>80</v>
+      </c>
+      <c r="O40" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P40" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T40" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
@@ -8798,8 +9557,26 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M41" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N41" s="3">
+        <v>80</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8836,8 +9613,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3">
+        <v>90</v>
+      </c>
+      <c r="O42" s="3">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="P42" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T42" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8874,8 +9669,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>90</v>
+      </c>
+      <c r="O43" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
@@ -8912,8 +9725,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="M44" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N44" s="3">
+        <v>90</v>
+      </c>
+      <c r="O44" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P44" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T44" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8950,8 +9781,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333997</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M45" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N45" s="3">
+        <v>80</v>
+      </c>
+      <c r="O45" s="3">
+        <v>100</v>
+      </c>
+      <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="T45" s="3">
+        <v>96.6666666666667</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -8988,8 +9837,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M46" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N46" s="3">
+        <v>90</v>
+      </c>
+      <c r="O46" s="3">
+        <v>90</v>
+      </c>
+      <c r="P46" s="3">
+        <v>86.6666666666667</v>
+      </c>
+      <c r="T46" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9026,8 +9893,26 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>100</v>
+      </c>
+      <c r="M47" s="3">
+        <v>100</v>
+      </c>
+      <c r="N47" s="3">
+        <v>80</v>
+      </c>
+      <c r="O47" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="P47" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333997</v>
@@ -9064,8 +9949,26 @@
         <f t="shared" si="11"/>
         <v>-3.3333333333333002</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M48" s="3">
+        <v>90</v>
+      </c>
+      <c r="N48" s="3">
+        <v>90</v>
+      </c>
+      <c r="O48" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P48" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T48" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="49" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
@@ -9102,8 +10005,26 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>100</v>
+      </c>
+      <c r="M49" s="3">
+        <v>100</v>
+      </c>
+      <c r="N49" s="3">
+        <v>80</v>
+      </c>
+      <c r="O49" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P49" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T49" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9140,8 +10061,26 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M50" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="N50" s="3">
+        <v>80</v>
+      </c>
+      <c r="O50" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P50" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T50" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="51" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
         <f t="shared" si="3"/>
         <v>-3.3333333333333997</v>
@@ -9178,8 +10117,26 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>93.3333333333333</v>
+      </c>
+      <c r="M51" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="N51" s="3">
+        <v>80</v>
+      </c>
+      <c r="O51" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="P51" s="3">
+        <v>96.6666666666667</v>
+      </c>
+      <c r="T51" s="3">
+        <v>93.3333333333333</v>
+      </c>
+    </row>
+    <row r="52" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <f t="shared" si="3"/>
         <v>-3.3333333333333002</v>
@@ -9216,8 +10173,44 @@
         <f t="shared" si="11"/>
         <v>6.6666666666666998</v>
       </c>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <f>AVERAGE(L2:L51)</f>
+        <v>96.466666666666626</v>
+      </c>
+      <c r="M52" s="3">
+        <f>AVERAGE(M2:M51)</f>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="N52" s="3">
+        <f>AVERAGE(N2:N51)</f>
+        <v>88</v>
+      </c>
+      <c r="O52" s="3">
+        <f t="shared" ref="O52:T52" si="12">AVERAGE(O2:O51)</f>
+        <v>95.933333333333323</v>
+      </c>
+      <c r="P52" s="3">
+        <f t="shared" si="12"/>
+        <v>95.866666666666674</v>
+      </c>
+      <c r="Q52" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S52" s="3" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T52" s="3">
+        <f t="shared" si="12"/>
+        <v>95.933333333333309</v>
+      </c>
+    </row>
+    <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -9255,7 +10248,7 @@
         <v>3.3333333333333002</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
@@ -9293,7 +10286,7 @@
         <v>6.6666666666666998</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <f t="shared" si="3"/>
         <v>-3.3333333333333002</v>
@@ -9331,7 +10324,7 @@
         <v>-3.3333333333333002</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9369,7 +10362,7 @@
         <v>3.3333333333333002</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9407,7 +10400,7 @@
         <v>3.3333333333333997</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9445,7 +10438,7 @@
         <v>3.3333333333333002</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9483,7 +10476,7 @@
         <v>3.3333333333333997</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333997</v>
@@ -9521,7 +10514,7 @@
         <v>-3.3333333333333002</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9559,7 +10552,7 @@
         <v>3.3333333333333002</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <f t="shared" si="3"/>
         <v>-3.3333333333333002</v>
@@ -9597,7 +10590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -9635,7 +10628,7 @@
         <v>6.6666666666666998</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <f t="shared" si="3"/>
         <v>-3.3333333333333997</v>
@@ -12812,8 +13805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A22" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15084,8 +16077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15095,7 +16088,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -15107,7 +16100,7 @@
         <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -15119,14 +16112,23 @@
         <v>84</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
+      <c r="B2" s="3">
+        <v>98.422496570644697</v>
+      </c>
       <c r="E2" s="3">
+        <v>98.148148148148195</v>
+      </c>
+      <c r="F2" s="3">
+        <v>95.747599451303202</v>
+      </c>
+      <c r="J2" s="3">
         <v>98.148148148148195</v>
       </c>
     </row>
@@ -15134,47 +16136,101 @@
       <c r="A3" s="3">
         <v>2</v>
       </c>
+      <c r="B3" s="3">
+        <v>98.216735253772299</v>
+      </c>
       <c r="E3" s="3">
         <v>98.353909465020607</v>
+      </c>
+      <c r="F3" s="3">
+        <v>96.159122085047997</v>
+      </c>
+      <c r="J3" s="3">
+        <v>97.599451303155007</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" s="3">
+        <v>98.148148148148195</v>
+      </c>
       <c r="E4" s="3">
         <v>98.765432098765402</v>
+      </c>
+      <c r="F4" s="3">
+        <v>95.541838134430705</v>
+      </c>
+      <c r="J4" s="3">
+        <v>98.010973936899902</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
+      <c r="B5" s="3">
+        <v>98.285322359396403</v>
+      </c>
       <c r="E5" s="3">
         <v>98.628257887517194</v>
+      </c>
+      <c r="F5" s="3">
+        <v>95.336076817558293</v>
+      </c>
+      <c r="J5" s="3">
+        <v>97.873799725651594</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
+      <c r="B6" s="3">
+        <v>98.971193415637899</v>
+      </c>
       <c r="E6" s="3">
         <v>98.559670781893004</v>
+      </c>
+      <c r="F6" s="3">
+        <v>96.021947873799704</v>
+      </c>
+      <c r="J6" s="3">
+        <v>98.628257887517194</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" s="3">
+        <v>98.285322359396403</v>
+      </c>
       <c r="E7" s="3">
         <v>98.559670781893004</v>
+      </c>
+      <c r="F7" s="3">
+        <v>95.679012345678998</v>
+      </c>
+      <c r="J7" s="3">
+        <v>97.668038408779097</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
+      <c r="B8" s="3">
+        <v>98.559670781893004</v>
+      </c>
       <c r="E8" s="3">
+        <v>98.285322359396403</v>
+      </c>
+      <c r="F8" s="3">
+        <v>94.993141289437602</v>
+      </c>
+      <c r="J8" s="3">
         <v>98.285322359396403</v>
       </c>
     </row>
@@ -15182,193 +16238,400 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" s="3">
+        <v>98.148148148148195</v>
+      </c>
       <c r="E9" s="3">
         <v>98.079561042524006</v>
+      </c>
+      <c r="F9" s="3">
+        <v>95.267489711934203</v>
+      </c>
+      <c r="J9" s="3">
+        <v>97.942386831275698</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" s="3">
+        <v>98.353909465020607</v>
+      </c>
       <c r="E10" s="3">
         <v>98.010973936899902</v>
+      </c>
+      <c r="F10" s="3">
+        <v>95.541838134430705</v>
+      </c>
+      <c r="J10" s="3">
+        <v>98.353909465020607</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" s="3">
+        <v>98.353909465020607</v>
+      </c>
       <c r="E11" s="3">
         <v>98.422496570644697</v>
+      </c>
+      <c r="F11" s="3">
+        <v>95.610425240054894</v>
+      </c>
+      <c r="J11" s="3">
+        <v>98.216735253772299</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
+      <c r="B12" s="3">
+        <v>98.4910836762689</v>
+      </c>
       <c r="E12" s="3">
         <v>98.216735253772299</v>
+      </c>
+      <c r="F12" s="3">
+        <v>95.541838134430705</v>
+      </c>
+      <c r="J12" s="3">
+        <v>98.285322359396403</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" s="3">
+        <v>98.902606310013695</v>
+      </c>
       <c r="E13" s="3">
         <v>98.010973936899902</v>
+      </c>
+      <c r="F13" s="3">
+        <v>95.816186556927306</v>
+      </c>
+      <c r="J13" s="3">
+        <v>98.422496570644697</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
+      <c r="B14" s="3">
+        <v>98.285322359396403</v>
+      </c>
       <c r="E14" s="3">
         <v>98.765432098765402</v>
+      </c>
+      <c r="F14" s="3">
+        <v>95.9533607681756</v>
+      </c>
+      <c r="J14" s="3">
+        <v>97.7366255144033</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
+      <c r="B15" s="3">
+        <v>98.765432098765402</v>
+      </c>
       <c r="E15" s="3">
         <v>98.422496570644697</v>
+      </c>
+      <c r="F15" s="3">
+        <v>95.473251028806601</v>
+      </c>
+      <c r="J15" s="3">
+        <v>98.216735253772299</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
+      <c r="B16" s="3">
+        <v>98.4910836762689</v>
+      </c>
       <c r="E16" s="3">
         <v>98.079561042524006</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="3">
+        <v>95.061728395061706</v>
+      </c>
+      <c r="J16" s="3">
+        <v>97.805212620027405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
+      <c r="B17" s="3">
+        <v>98.971193415637899</v>
+      </c>
       <c r="E17" s="3">
         <v>98.559670781893004</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="3">
+        <v>95.884773662551396</v>
+      </c>
+      <c r="J17" s="3">
+        <v>98.148148148148195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
+      <c r="B18" s="3">
+        <v>98.765432098765402</v>
+      </c>
       <c r="E18" s="3">
         <v>98.559670781893004</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="3">
+        <v>96.776406035665303</v>
+      </c>
+      <c r="J18" s="3">
+        <v>98.285322359396403</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
+      <c r="B19" s="3">
+        <v>98.148148148148195</v>
+      </c>
       <c r="E19" s="3">
         <v>98.422496570644697</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="3">
+        <v>96.227709190672101</v>
+      </c>
+      <c r="J19" s="3">
+        <v>97.805212620027405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
+      <c r="B20" s="3">
+        <v>98.559670781893004</v>
+      </c>
       <c r="E20" s="3">
         <v>98.422496570644697</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="3">
+        <v>95.336076817558293</v>
+      </c>
+      <c r="J20" s="3">
+        <v>98.216735253772299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
+      <c r="B21" s="3">
+        <v>98.285322359396403</v>
+      </c>
       <c r="E21" s="3">
         <v>98.353909465020607</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="3">
+        <v>95.336076817558293</v>
+      </c>
+      <c r="J21" s="3">
+        <v>97.873799725651594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
+      <c r="B22" s="3">
+        <v>98.559670781893004</v>
+      </c>
       <c r="E22" s="3">
         <v>98.216735253772299</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="3">
+        <v>95.061728395061706</v>
+      </c>
+      <c r="J22" s="3">
+        <v>97.942386831275698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
+      <c r="B23" s="3">
+        <v>98.422496570644697</v>
+      </c>
       <c r="E23" s="3">
         <v>98.696844993141298</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="3">
+        <v>95.884773662551396</v>
+      </c>
+      <c r="J23" s="3">
+        <v>98.148148148148195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
+      <c r="B24" s="3">
+        <v>98.834019204389605</v>
+      </c>
       <c r="E24" s="3">
         <v>98.765432098765402</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="3">
+        <v>95.747599451303202</v>
+      </c>
+      <c r="J24" s="3">
+        <v>98.079561042524006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
+      <c r="B25" s="3">
+        <v>98.285322359396403</v>
+      </c>
       <c r="E25" s="3">
         <v>98.079561042524006</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="3">
+        <v>95.19890260631</v>
+      </c>
+      <c r="J25" s="3">
+        <v>97.805212620027405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
+      <c r="B26" s="3">
+        <v>98.148148148148195</v>
+      </c>
       <c r="E26" s="3">
         <v>98.834019204389605</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="3">
+        <v>96.090534979423893</v>
+      </c>
+      <c r="J26" s="3">
+        <v>97.530864197530903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
+      <c r="B27" s="3">
+        <v>98.4910836762689</v>
+      </c>
       <c r="E27" s="3">
         <v>98.4910836762689</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="3">
+        <v>95.9533607681756</v>
+      </c>
+      <c r="J27" s="3">
+        <v>98.216735253772299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
+      <c r="B28" s="3">
+        <v>98.971193415637899</v>
+      </c>
       <c r="E28" s="3">
         <v>98.559670781893004</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="3">
+        <v>95.267489711934203</v>
+      </c>
+      <c r="J28" s="3">
+        <v>98.353909465020607</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
+      <c r="B29" s="3">
+        <v>98.216735253772299</v>
+      </c>
       <c r="E29" s="3">
         <v>98.216735253772299</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="3">
+        <v>95.473251028806601</v>
+      </c>
+      <c r="J29" s="3">
+        <v>98.010973936899902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
+      <c r="B30" s="3">
+        <v>98.559670781893004</v>
+      </c>
       <c r="E30" s="3">
         <v>97.805212620027405</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="3">
+        <v>94.924554183813399</v>
+      </c>
+      <c r="J30" s="3">
+        <v>98.079561042524006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
+      <c r="B31" s="3">
+        <v>98.353909465020607</v>
+      </c>
       <c r="E31" s="3">
         <v>98.696844993141298</v>
       </c>
+      <c r="F31" s="3">
+        <v>95.267489711934203</v>
+      </c>
+      <c r="J31" s="3">
+        <v>98.079561042524006</v>
+      </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="3" t="e">
+      <c r="B33" s="3">
         <f t="shared" ref="B33:J33" si="0">AVERAGE(B2:B31)</f>
-        <v>#DIV/0!</v>
+        <v>98.475080018289901</v>
       </c>
       <c r="C33" s="3" t="e">
         <f t="shared" si="0"/>
@@ -15382,9 +16645,9 @@
         <f>AVERAGE(E2:E31)</f>
         <v>98.399634202103343</v>
       </c>
-      <c r="F33" s="3" t="e">
+      <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>95.605852766346601</v>
       </c>
       <c r="G33" s="3" t="e">
         <f t="shared" si="0"/>
@@ -15398,18 +16661,18 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J33" s="3" t="e">
+      <c r="J33" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>98.058984910836742</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="3" t="e">
+      <c r="B34" s="3">
         <f t="shared" ref="B34:I34" si="1">STDEV(B2:B31)</f>
-        <v>#DIV/0!</v>
+        <v>0.26513754388372224</v>
       </c>
       <c r="C34" s="3" t="e">
         <f t="shared" si="1"/>
@@ -15422,9 +16685,9 @@
       <c r="E34" s="3">
         <v>0</v>
       </c>
-      <c r="F34" s="3" t="e">
+      <c r="F34" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.42200566085828944</v>
       </c>
       <c r="G34" s="3" t="e">
         <f t="shared" si="1"/>
@@ -15438,45 +16701,45 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="3" t="e">
+      <c r="J34" s="3">
         <f>STDEV(J2:J31)</f>
-        <v>#DIV/0!</v>
+        <v>0.25923936185315838</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B35" s="3" t="e">
+      <c r="B35" s="3">
         <f>(AVERAGE(B37:B66)/STDEV(B37:B66))*SQRT(50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C35" s="3" t="e">
+        <v>-14.556225909307187</v>
+      </c>
+      <c r="C35" s="3">
         <f>(AVERAGE(C37:C66)/STDEV(C37:C66))*SQRT(50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D35" s="3" t="e">
+        <v>2674.6776682006107</v>
+      </c>
+      <c r="D35" s="3">
         <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
-        <v>#DIV/0!</v>
+        <v>2674.6776682006107</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
       </c>
-      <c r="F35" s="3" t="e">
+      <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G35" s="3" t="e">
+        <v>34.963684987193538</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H35" s="3" t="e">
+        <v>2674.6776682006107</v>
+      </c>
+      <c r="H35" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I35" s="3" t="e">
+        <v>2674.6776682006107</v>
+      </c>
+      <c r="I35" s="3">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>2674.6776682006107</v>
       </c>
       <c r="J35" s="3" t="e">
         <f t="shared" si="2"/>
@@ -15486,35 +16749,35 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f>J2-B2</f>
-        <v>0</v>
+        <v>-0.2743484224965016</v>
       </c>
       <c r="C37" s="3">
         <f>J2-C2</f>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="D37" s="3">
         <f>J2-D2</f>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="E37" s="3">
         <f>J2-E2</f>
-        <v>-98.148148148148195</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <f>J2-F2</f>
-        <v>0</v>
+        <v>2.4005486968449929</v>
       </c>
       <c r="G37" s="3">
         <f>J2-G2</f>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="H37" s="3">
         <f>J2-H2</f>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="I37" s="3">
         <f>J2-I2</f>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="J37" s="3">
         <f>J2-J2</f>
@@ -15524,35 +16787,35 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" ref="B38:B66" si="3">J3-B3</f>
-        <v>0</v>
+        <v>-0.61728395061729202</v>
       </c>
       <c r="C38" s="3">
         <f t="shared" ref="C38:C66" si="4">J3-C3</f>
-        <v>0</v>
+        <v>97.599451303155007</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ref="D38:D66" si="5">J3-D3</f>
-        <v>0</v>
+        <v>97.599451303155007</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" ref="E38:E66" si="6">J3-E3</f>
-        <v>-98.353909465020607</v>
+        <v>-0.75445816186559966</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" ref="F38:F66" si="7">J3-F3</f>
-        <v>0</v>
+        <v>1.44032921810701</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" ref="G38:G66" si="8">J3-G3</f>
-        <v>0</v>
+        <v>97.599451303155007</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" ref="H38:H66" si="9">J3-H3</f>
-        <v>0</v>
+        <v>97.599451303155007</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" ref="I38:I66" si="10">J3-I3</f>
-        <v>0</v>
+        <v>97.599451303155007</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" ref="J38:J66" si="11">J3-J3</f>
@@ -15562,35 +16825,35 @@
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.13717421124829343</v>
       </c>
       <c r="C39" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="6"/>
-        <v>-98.765432098765402</v>
+        <v>-0.75445816186550019</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4691358024691965</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="11"/>
@@ -15600,35 +16863,35 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.41152263374480924</v>
       </c>
       <c r="C40" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="6"/>
-        <v>-98.628257887517194</v>
+        <v>-0.75445816186559966</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5377229080933006</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="H40" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="11"/>
@@ -15638,35 +16901,35 @@
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.34293552812070516</v>
       </c>
       <c r="C41" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.628257887517194</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.628257887517194</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="6"/>
-        <v>-98.559670781893004</v>
+        <v>6.8587105624189348E-2</v>
       </c>
       <c r="F41" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6063100137174899</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.628257887517194</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.628257887517194</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.628257887517194</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" si="11"/>
@@ -15676,35 +16939,35 @@
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.61728395061730623</v>
       </c>
       <c r="C42" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.668038408779097</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.668038408779097</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="6"/>
-        <v>-98.559670781893004</v>
+        <v>-0.89163237311390731</v>
       </c>
       <c r="F42" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9890260631000984</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.668038408779097</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.668038408779097</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.668038408779097</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="11"/>
@@ -15714,35 +16977,35 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="C43" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="6"/>
-        <v>-98.285322359396403</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.2921810699588008</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="11"/>
@@ -15752,35 +17015,35 @@
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.20576131687249699</v>
       </c>
       <c r="C44" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="6"/>
-        <v>-98.079561042524006</v>
+        <v>-0.13717421124830764</v>
       </c>
       <c r="F44" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6748971193414945</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="11"/>
@@ -15794,31 +17057,31 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="6"/>
-        <v>-98.010973936899902</v>
+        <v>0.34293552812070516</v>
       </c>
       <c r="F45" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8120713305899017</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="11"/>
@@ -15828,35 +17091,35 @@
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.13717421124830764</v>
       </c>
       <c r="C46" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="6"/>
-        <v>-98.422496570644697</v>
+        <v>-0.20576131687239751</v>
       </c>
       <c r="F46" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6063100137174047</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="11"/>
@@ -15866,35 +17129,35 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.20576131687249699</v>
       </c>
       <c r="C47" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="6"/>
-        <v>-98.216735253772299</v>
+        <v>6.8587105624104083E-2</v>
       </c>
       <c r="F47" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.7434842249656981</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="11"/>
@@ -15904,35 +17167,35 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.48010973936899859</v>
       </c>
       <c r="C48" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.422496570644697</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.422496570644697</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="6"/>
-        <v>-98.010973936899902</v>
+        <v>0.41152263374479503</v>
       </c>
       <c r="F48" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6063100137173905</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.422496570644697</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.422496570644697</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.422496570644697</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="11"/>
@@ -15942,35 +17205,35 @@
     <row r="49" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.54869684499310267</v>
       </c>
       <c r="C49" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.7366255144033</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.7366255144033</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="6"/>
-        <v>-98.765432098765402</v>
+        <v>-1.0288065843621013</v>
       </c>
       <c r="F49" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.7832647462277009</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.7366255144033</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.7366255144033</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.7366255144033</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="11"/>
@@ -15980,35 +17243,35 @@
     <row r="50" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.54869684499310267</v>
       </c>
       <c r="C50" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="6"/>
-        <v>-98.422496570644697</v>
+        <v>-0.20576131687239751</v>
       </c>
       <c r="F50" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.7434842249656981</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="11"/>
@@ -16018,35 +17281,35 @@
     <row r="51" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.68587105624149558</v>
       </c>
       <c r="C51" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="6"/>
-        <v>-98.079561042524006</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="F51" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.7434842249656981</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="11"/>
@@ -16056,35 +17319,35 @@
     <row r="52" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.82304526748970375</v>
       </c>
       <c r="C52" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="6"/>
-        <v>-98.559670781893004</v>
+        <v>-0.41152263374480924</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.263374485596799</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="H52" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="I52" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="J52" s="3">
         <f t="shared" si="11"/>
@@ -16094,35 +17357,35 @@
     <row r="53" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.48010973936899859</v>
       </c>
       <c r="C53" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="6"/>
-        <v>-98.559670781893004</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5089163237310999</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="H53" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="I53" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.285322359396403</v>
       </c>
       <c r="J53" s="3">
         <f t="shared" si="11"/>
@@ -16132,35 +17395,35 @@
     <row r="54" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.34293552812079042</v>
       </c>
       <c r="C54" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="6"/>
-        <v>-98.422496570644697</v>
+        <v>-0.61728395061729202</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.5775034293553034</v>
       </c>
       <c r="G54" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="H54" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="I54" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="J54" s="3">
         <f t="shared" si="11"/>
@@ -16170,35 +17433,35 @@
     <row r="55" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.34293552812070516</v>
       </c>
       <c r="C55" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="6"/>
-        <v>-98.422496570644697</v>
+        <v>-0.20576131687239751</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8806584362140057</v>
       </c>
       <c r="G55" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="H55" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="I55" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="J55" s="3">
         <f t="shared" si="11"/>
@@ -16208,35 +17471,35 @@
     <row r="56" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.41152263374480924</v>
       </c>
       <c r="C56" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="6"/>
-        <v>-98.353909465020607</v>
+        <v>-0.4801097393690128</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5377229080933006</v>
       </c>
       <c r="G56" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="H56" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="I56" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.873799725651594</v>
       </c>
       <c r="J56" s="3">
         <f t="shared" si="11"/>
@@ -16246,35 +17509,35 @@
     <row r="57" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.61728395061730623</v>
       </c>
       <c r="C57" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="6"/>
-        <v>-98.216735253772299</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8806584362139915</v>
       </c>
       <c r="G57" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="H57" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="I57" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.942386831275698</v>
       </c>
       <c r="J57" s="3">
         <f t="shared" si="11"/>
@@ -16284,35 +17547,35 @@
     <row r="58" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.2743484224965016</v>
       </c>
       <c r="C58" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="6"/>
-        <v>-98.696844993141298</v>
+        <v>-0.54869684499310267</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.263374485596799</v>
       </c>
       <c r="G58" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="H58" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="I58" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.148148148148195</v>
       </c>
       <c r="J58" s="3">
         <f t="shared" si="11"/>
@@ -16322,35 +17585,35 @@
     <row r="59" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.75445816186559966</v>
       </c>
       <c r="C59" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="6"/>
-        <v>-98.765432098765402</v>
+        <v>-0.6858710562413961</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.3319615912208036</v>
       </c>
       <c r="G59" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="H59" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="I59" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="J59" s="3">
         <f t="shared" si="11"/>
@@ -16360,35 +17623,35 @@
     <row r="60" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.48010973936899859</v>
       </c>
       <c r="C60" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="6"/>
-        <v>-98.079561042524006</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.6063100137174047</v>
       </c>
       <c r="G60" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="H60" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="I60" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.805212620027405</v>
       </c>
       <c r="J60" s="3">
         <f t="shared" si="11"/>
@@ -16398,35 +17661,35 @@
     <row r="61" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.61728395061729202</v>
       </c>
       <c r="C61" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>97.530864197530903</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>97.530864197530903</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="6"/>
-        <v>-98.834019204389605</v>
+        <v>-1.3031550068587023</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.44032921810701</v>
       </c>
       <c r="G61" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>97.530864197530903</v>
       </c>
       <c r="H61" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>97.530864197530903</v>
       </c>
       <c r="I61" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>97.530864197530903</v>
       </c>
       <c r="J61" s="3">
         <f t="shared" si="11"/>
@@ -16436,35 +17699,35 @@
     <row r="62" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="C62" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="6"/>
-        <v>-98.4910836762689</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.2633744855966995</v>
       </c>
       <c r="G62" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="H62" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="I62" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.216735253772299</v>
       </c>
       <c r="J62" s="3">
         <f t="shared" si="11"/>
@@ -16474,35 +17737,35 @@
     <row r="63" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.61728395061729202</v>
       </c>
       <c r="C63" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="6"/>
-        <v>-98.559670781893004</v>
+        <v>-0.20576131687239751</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.0864197530864033</v>
       </c>
       <c r="G63" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="H63" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="I63" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.353909465020607</v>
       </c>
       <c r="J63" s="3">
         <f t="shared" si="11"/>
@@ -16512,35 +17775,35 @@
     <row r="64" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.20576131687239751</v>
       </c>
       <c r="C64" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="6"/>
-        <v>-98.216735253772299</v>
+        <v>-0.20576131687239751</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.5377229080933006</v>
       </c>
       <c r="G64" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="H64" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="I64" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.010973936899902</v>
       </c>
       <c r="J64" s="3">
         <f t="shared" si="11"/>
@@ -16550,35 +17813,35 @@
     <row r="65" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.48010973936899859</v>
       </c>
       <c r="C65" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="6"/>
-        <v>-97.805212620027405</v>
+        <v>0.27434842249660107</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.1550068587106068</v>
       </c>
       <c r="G65" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="H65" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="I65" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="J65" s="3">
         <f t="shared" si="11"/>
@@ -16588,35 +17851,35 @@
     <row r="66" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>-0.27434842249660107</v>
       </c>
       <c r="C66" s="3">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="6"/>
-        <v>-98.696844993141298</v>
+        <v>-0.61728395061729202</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.8120713305898022</v>
       </c>
       <c r="G66" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="H66" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="I66" s="3">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>98.079561042524006</v>
       </c>
       <c r="J66" s="3">
         <f t="shared" si="11"/>
@@ -16626,6 +17889,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18418,7 +19682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35:D37"/>
     </sheetView>
   </sheetViews>
@@ -22719,7 +23983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I35" sqref="E35:I35"/>
     </sheetView>
   </sheetViews>
@@ -26961,7 +28225,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -31381,7 +32645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C35" sqref="C35:I35"/>
     </sheetView>
   </sheetViews>

--- a/statistic/result.xlsx
+++ b/statistic/result.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7995" tabRatio="773" firstSheet="6" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="plant 940" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="mkl C=10 100 10000 1" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -433,10 +434,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SMSD-MKL C=10 γ=0.0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1v1 C=16 _2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -462,6 +459,26 @@
   </si>
   <si>
     <t>UFO-MKL C=10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMNP C=2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC-MKL l2 C=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MC-MKL l1 C=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMSD-MKL C=10 γ=0.001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UFO-MKL C=100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7521,10 +7538,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T66"/>
+  <dimension ref="A1:T106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="L28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7561,22 +7578,31 @@
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -7625,6 +7651,15 @@
       <c r="P2" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q2" s="3">
+        <v>100</v>
+      </c>
+      <c r="R2" s="3">
+        <v>100</v>
+      </c>
+      <c r="S2" s="3">
+        <v>100</v>
+      </c>
       <c r="T2" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -7675,6 +7710,15 @@
       <c r="P3" s="3">
         <v>100</v>
       </c>
+      <c r="Q3" s="3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="3">
+        <v>100</v>
+      </c>
+      <c r="S3" s="3">
+        <v>90</v>
+      </c>
       <c r="T3" s="3">
         <v>90</v>
       </c>
@@ -7725,6 +7769,15 @@
       <c r="P4" s="3">
         <v>90</v>
       </c>
+      <c r="Q4" s="3">
+        <v>80</v>
+      </c>
+      <c r="R4" s="3">
+        <v>80</v>
+      </c>
+      <c r="S4" s="3">
+        <v>100</v>
+      </c>
       <c r="T4" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -7761,7 +7814,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L5" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M5" s="3">
         <v>96.6666666666667</v>
@@ -7773,6 +7826,15 @@
         <v>100</v>
       </c>
       <c r="P5" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>90</v>
+      </c>
+      <c r="R5" s="3">
+        <v>100</v>
+      </c>
+      <c r="S5" s="3">
         <v>100</v>
       </c>
       <c r="T5" s="3">
@@ -7825,6 +7887,15 @@
       <c r="P6" s="3">
         <v>90</v>
       </c>
+      <c r="Q6" s="3">
+        <v>100</v>
+      </c>
+      <c r="R6" s="3">
+        <v>100</v>
+      </c>
+      <c r="S6" s="3">
+        <v>90</v>
+      </c>
       <c r="T6" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -7875,6 +7946,15 @@
       <c r="P7" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q7" s="3">
+        <v>90</v>
+      </c>
+      <c r="R7" s="3">
+        <v>90</v>
+      </c>
+      <c r="S7" s="3">
+        <v>80</v>
+      </c>
       <c r="T7" s="3">
         <v>100</v>
       </c>
@@ -7925,6 +8005,15 @@
       <c r="P8" s="3">
         <v>100</v>
       </c>
+      <c r="Q8" s="3">
+        <v>90</v>
+      </c>
+      <c r="R8" s="3">
+        <v>90</v>
+      </c>
+      <c r="S8" s="3">
+        <v>100</v>
+      </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
@@ -7975,6 +8064,15 @@
       <c r="P9" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q9" s="3">
+        <v>100</v>
+      </c>
+      <c r="R9" s="3">
+        <v>80</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
       <c r="T9" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -8011,7 +8109,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
@@ -8024,6 +8122,15 @@
       </c>
       <c r="P10" s="3">
         <v>96.6666666666667</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>100</v>
+      </c>
+      <c r="R10" s="3">
+        <v>100</v>
+      </c>
+      <c r="S10" s="3">
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>96.6666666666667</v>
@@ -8075,6 +8182,15 @@
       <c r="P11" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q11" s="3">
+        <v>100</v>
+      </c>
+      <c r="R11" s="3">
+        <v>100</v>
+      </c>
+      <c r="S11" s="3">
+        <v>90</v>
+      </c>
       <c r="T11" s="3">
         <v>100</v>
       </c>
@@ -8125,6 +8241,15 @@
       <c r="P12" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q12" s="3">
+        <v>100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>80</v>
+      </c>
+      <c r="S12" s="3">
+        <v>100</v>
+      </c>
       <c r="T12" s="3">
         <v>100</v>
       </c>
@@ -8175,6 +8300,15 @@
       <c r="P13" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q13" s="3">
+        <v>100</v>
+      </c>
+      <c r="R13" s="3">
+        <v>90</v>
+      </c>
+      <c r="S13" s="3">
+        <v>100</v>
+      </c>
       <c r="T13" s="3">
         <v>90</v>
       </c>
@@ -8211,7 +8345,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L14" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M14" s="3">
         <v>93.3333333333333</v>
@@ -8224,6 +8358,15 @@
       </c>
       <c r="P14" s="3">
         <v>93.3333333333333</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
+        <v>80</v>
       </c>
       <c r="T14" s="3">
         <v>93.3333333333333</v>
@@ -8261,7 +8404,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L15" s="3">
-        <v>96.6666666666667</v>
+        <v>93.3333333333333</v>
       </c>
       <c r="M15" s="3">
         <v>93.3333333333333</v>
@@ -8274,6 +8417,15 @@
       </c>
       <c r="P15" s="3">
         <v>93.3333333333333</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>80</v>
       </c>
       <c r="T15" s="3">
         <v>93.3333333333333</v>
@@ -8325,6 +8477,15 @@
       <c r="P16" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q16" s="3">
+        <v>90</v>
+      </c>
+      <c r="R16" s="3">
+        <v>100</v>
+      </c>
+      <c r="S16" s="3">
+        <v>100</v>
+      </c>
       <c r="T16" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -8375,6 +8536,15 @@
       <c r="P17" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>90</v>
+      </c>
+      <c r="S17" s="3">
+        <v>90</v>
+      </c>
       <c r="T17" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -8411,7 +8581,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L18" s="3">
-        <v>93.3333333333333</v>
+        <v>90</v>
       </c>
       <c r="M18" s="3">
         <v>90</v>
@@ -8424,6 +8594,15 @@
       </c>
       <c r="P18" s="3">
         <v>96.6666666666667</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>90</v>
+      </c>
+      <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
+        <v>100</v>
       </c>
       <c r="T18" s="3">
         <v>90</v>
@@ -8475,6 +8654,15 @@
       <c r="P19" s="3">
         <v>100</v>
       </c>
+      <c r="Q19" s="3">
+        <v>100</v>
+      </c>
+      <c r="R19" s="3">
+        <v>100</v>
+      </c>
+      <c r="S19" s="3">
+        <v>90</v>
+      </c>
       <c r="T19" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -8525,6 +8713,15 @@
       <c r="P20" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>100</v>
+      </c>
       <c r="T20" s="3">
         <v>100</v>
       </c>
@@ -8561,7 +8758,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L21" s="3">
-        <v>96.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
         <v>96.6666666666667</v>
@@ -8574,6 +8771,15 @@
       </c>
       <c r="P21" s="3">
         <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>90</v>
+      </c>
+      <c r="S21" s="3">
+        <v>90</v>
       </c>
       <c r="T21" s="3">
         <v>96.6666666666667</v>
@@ -8625,6 +8831,15 @@
       <c r="P22" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
+        <v>90</v>
+      </c>
+      <c r="S22" s="3">
+        <v>90</v>
+      </c>
       <c r="T22" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -8661,7 +8876,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L23" s="3">
-        <v>96.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>100</v>
@@ -8674,6 +8889,15 @@
       </c>
       <c r="P23" s="3">
         <v>93.3333333333333</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>90</v>
+      </c>
+      <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
+        <v>100</v>
       </c>
       <c r="T23" s="3">
         <v>96.6666666666667</v>
@@ -8725,6 +8949,15 @@
       <c r="P24" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
+        <v>100</v>
+      </c>
       <c r="T24" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -8761,7 +8994,7 @@
         <v>100</v>
       </c>
       <c r="L25" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M25" s="3">
         <v>96.6666666666667</v>
@@ -8774,6 +9007,15 @@
       </c>
       <c r="P25" s="3">
         <v>90</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>100</v>
+      </c>
+      <c r="R25" s="3">
+        <v>100</v>
+      </c>
+      <c r="S25" s="3">
+        <v>80</v>
       </c>
       <c r="T25" s="3">
         <v>93.3333333333333</v>
@@ -8811,7 +9053,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L26" s="3">
-        <v>96.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>100</v>
@@ -8824,6 +9066,15 @@
       </c>
       <c r="P26" s="3">
         <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
+        <v>80</v>
       </c>
       <c r="T26" s="3">
         <v>96.6666666666667</v>
@@ -8875,6 +9126,15 @@
       <c r="P27" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
+        <v>90</v>
+      </c>
+      <c r="S27" s="3">
+        <v>90</v>
+      </c>
       <c r="T27" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -8911,7 +9171,7 @@
         <v>93.3333333333333</v>
       </c>
       <c r="L28" s="3">
-        <v>96.6666666666667</v>
+        <v>100</v>
       </c>
       <c r="M28" s="3">
         <v>96.6666666666667</v>
@@ -8924,6 +9184,15 @@
       </c>
       <c r="P28" s="3">
         <v>96.6666666666667</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>80</v>
+      </c>
+      <c r="R28" s="3">
+        <v>100</v>
+      </c>
+      <c r="S28" s="3">
+        <v>90</v>
       </c>
       <c r="T28" s="3">
         <v>96.6666666666667</v>
@@ -8961,7 +9230,7 @@
         <v>96.6666666666667</v>
       </c>
       <c r="L29" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M29" s="3">
         <v>96.6666666666667</v>
@@ -8974,6 +9243,15 @@
       </c>
       <c r="P29" s="3">
         <v>100</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>90</v>
+      </c>
+      <c r="R29" s="3">
+        <v>100</v>
+      </c>
+      <c r="S29" s="3">
+        <v>90</v>
       </c>
       <c r="T29" s="3">
         <v>93.3333333333333</v>
@@ -9025,6 +9303,15 @@
       <c r="P30" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q30" s="3">
+        <v>100</v>
+      </c>
+      <c r="R30" s="3">
+        <v>100</v>
+      </c>
+      <c r="S30" s="3">
+        <v>100</v>
+      </c>
       <c r="T30" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -9075,6 +9362,15 @@
       <c r="P31" s="3">
         <v>100</v>
       </c>
+      <c r="Q31" s="3">
+        <v>100</v>
+      </c>
+      <c r="R31" s="3">
+        <v>90</v>
+      </c>
+      <c r="S31" s="3">
+        <v>100</v>
+      </c>
       <c r="T31" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -9095,6 +9391,15 @@
       <c r="P32" s="3">
         <v>100</v>
       </c>
+      <c r="Q32" s="3">
+        <v>90</v>
+      </c>
+      <c r="R32" s="3">
+        <v>90</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
       <c r="T32" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -9116,7 +9421,7 @@
         <v>89.666666666666686</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E2:E31)</f>
         <v>96.666666666666686</v>
       </c>
       <c r="F33" s="3">
@@ -9154,6 +9459,15 @@
       <c r="P33" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q33" s="3">
+        <v>90</v>
+      </c>
+      <c r="R33" s="3">
+        <v>90</v>
+      </c>
+      <c r="S33" s="3">
+        <v>70</v>
+      </c>
       <c r="T33" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -9199,7 +9513,7 @@
         <v>3.0742202491827708</v>
       </c>
       <c r="L34" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M34" s="3">
         <v>93.3333333333333</v>
@@ -9212,6 +9526,15 @@
       </c>
       <c r="P34" s="3">
         <v>96.6666666666667</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>80</v>
+      </c>
+      <c r="R34" s="3">
+        <v>80</v>
+      </c>
+      <c r="S34" s="3">
+        <v>100</v>
       </c>
       <c r="T34" s="3">
         <v>93.3333333333333</v>
@@ -9238,7 +9561,7 @@
         <v>2.7268841992093162</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="2"/>
+        <f>(AVERAGE(F37:F66)/STDEV(F37:F66))*SQRT(50)</f>
         <v>5.136936356872595</v>
       </c>
       <c r="G35" s="3">
@@ -9272,6 +9595,15 @@
       <c r="P35" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+      <c r="R35" s="3">
+        <v>100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>100</v>
+      </c>
       <c r="T35" s="3">
         <v>100</v>
       </c>
@@ -9291,6 +9623,15 @@
       </c>
       <c r="P36" s="3">
         <v>96.6666666666667</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>100</v>
+      </c>
+      <c r="R36" s="3">
+        <v>100</v>
+      </c>
+      <c r="S36" s="3">
+        <v>90</v>
       </c>
       <c r="T36" s="3">
         <v>100</v>
@@ -9348,6 +9689,15 @@
       <c r="P37" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q37" s="3">
+        <v>70</v>
+      </c>
+      <c r="R37" s="3">
+        <v>100</v>
+      </c>
+      <c r="S37" s="3">
+        <v>100</v>
+      </c>
       <c r="T37" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -9404,6 +9754,15 @@
       <c r="P38" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q38" s="3">
+        <v>100</v>
+      </c>
+      <c r="R38" s="3">
+        <v>100</v>
+      </c>
+      <c r="S38" s="3">
+        <v>100</v>
+      </c>
       <c r="T38" s="3">
         <v>96.6666666666667</v>
       </c>
@@ -9460,6 +9819,15 @@
       <c r="P39" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q39" s="3">
+        <v>100</v>
+      </c>
+      <c r="R39" s="3">
+        <v>100</v>
+      </c>
+      <c r="S39" s="3">
+        <v>80</v>
+      </c>
       <c r="T39" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -9502,7 +9870,7 @@
         <v>3.3333333333333997</v>
       </c>
       <c r="L40" s="3">
-        <v>93.3333333333333</v>
+        <v>90</v>
       </c>
       <c r="M40" s="3">
         <v>90</v>
@@ -9516,6 +9884,15 @@
       <c r="P40" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q40" s="3">
+        <v>100</v>
+      </c>
+      <c r="R40" s="3">
+        <v>100</v>
+      </c>
+      <c r="S40" s="3">
+        <v>90</v>
+      </c>
       <c r="T40" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -9570,6 +9947,15 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
       <c r="T41" s="3">
@@ -9628,6 +10014,15 @@
       <c r="P42" s="3">
         <v>93.3333333333333</v>
       </c>
+      <c r="Q42" s="3">
+        <v>90</v>
+      </c>
+      <c r="R42" s="3">
+        <v>100</v>
+      </c>
+      <c r="S42" s="3">
+        <v>100</v>
+      </c>
       <c r="T42" s="3">
         <v>100</v>
       </c>
@@ -9684,6 +10079,15 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
+      <c r="Q43" s="3">
+        <v>80</v>
+      </c>
+      <c r="R43" s="3">
+        <v>90</v>
+      </c>
+      <c r="S43" s="3">
+        <v>90</v>
+      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
@@ -9740,6 +10144,15 @@
       <c r="P44" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q44" s="3">
+        <v>100</v>
+      </c>
+      <c r="R44" s="3">
+        <v>90</v>
+      </c>
+      <c r="S44" s="3">
+        <v>100</v>
+      </c>
       <c r="T44" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -9782,7 +10195,7 @@
         <v>3.3333333333333997</v>
       </c>
       <c r="L45" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M45" s="3">
         <v>93.3333333333333</v>
@@ -9794,6 +10207,15 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>90</v>
+      </c>
+      <c r="R45" s="3">
+        <v>90</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
@@ -9838,7 +10260,7 @@
         <v>3.3333333333333002</v>
       </c>
       <c r="L46" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M46" s="3">
         <v>96.6666666666667</v>
@@ -9852,6 +10274,15 @@
       <c r="P46" s="3">
         <v>86.6666666666667</v>
       </c>
+      <c r="Q46" s="3">
+        <v>90</v>
+      </c>
+      <c r="R46" s="3">
+        <v>100</v>
+      </c>
+      <c r="S46" s="3">
+        <v>100</v>
+      </c>
       <c r="T46" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -9907,6 +10338,15 @@
       </c>
       <c r="P47" s="3">
         <v>93.3333333333333</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+      <c r="R47" s="3">
+        <v>90</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
       </c>
       <c r="T47" s="3">
         <v>100</v>
@@ -9964,6 +10404,15 @@
       <c r="P48" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+      <c r="S48" s="3">
+        <v>90</v>
+      </c>
       <c r="T48" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -10020,6 +10469,15 @@
       <c r="P49" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q49" s="3">
+        <v>100</v>
+      </c>
+      <c r="R49" s="3">
+        <v>100</v>
+      </c>
+      <c r="S49" s="3">
+        <v>90</v>
+      </c>
       <c r="T49" s="3">
         <v>100</v>
       </c>
@@ -10076,6 +10534,15 @@
       <c r="P50" s="3">
         <v>96.6666666666667</v>
       </c>
+      <c r="Q50" s="3">
+        <v>100</v>
+      </c>
+      <c r="R50" s="3">
+        <v>90</v>
+      </c>
+      <c r="S50" s="3">
+        <v>100</v>
+      </c>
       <c r="T50" s="3">
         <v>93.3333333333333</v>
       </c>
@@ -10118,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="L51" s="3">
-        <v>93.3333333333333</v>
+        <v>96.6666666666667</v>
       </c>
       <c r="M51" s="3">
         <v>96.6666666666667</v>
@@ -10131,6 +10598,15 @@
       </c>
       <c r="P51" s="3">
         <v>96.6666666666667</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>100</v>
+      </c>
+      <c r="R51" s="3">
+        <v>100</v>
+      </c>
+      <c r="S51" s="3">
+        <v>100</v>
       </c>
       <c r="T51" s="3">
         <v>93.3333333333333</v>
@@ -10173,42 +10649,6 @@
         <f t="shared" si="11"/>
         <v>6.6666666666666998</v>
       </c>
-      <c r="L52" s="3">
-        <f>AVERAGE(L2:L51)</f>
-        <v>96.466666666666626</v>
-      </c>
-      <c r="M52" s="3">
-        <f>AVERAGE(M2:M51)</f>
-        <v>96.666666666666657</v>
-      </c>
-      <c r="N52" s="3">
-        <f>AVERAGE(N2:N51)</f>
-        <v>88</v>
-      </c>
-      <c r="O52" s="3">
-        <f t="shared" ref="O52:T52" si="12">AVERAGE(O2:O51)</f>
-        <v>95.933333333333323</v>
-      </c>
-      <c r="P52" s="3">
-        <f t="shared" si="12"/>
-        <v>95.866666666666674</v>
-      </c>
-      <c r="Q52" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R52" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S52" s="3" t="e">
-        <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T52" s="3">
-        <f t="shared" si="12"/>
-        <v>95.933333333333309</v>
-      </c>
     </row>
     <row r="53" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
@@ -10247,6 +10687,42 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
+      <c r="L53" s="3">
+        <f>AVERAGE(L2:L51)</f>
+        <v>96.999999999999986</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" ref="M53:T53" si="12">AVERAGE(M2:M51)</f>
+        <v>96.666666666666657</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="12"/>
+        <v>88</v>
+      </c>
+      <c r="O53" s="3">
+        <f t="shared" si="12"/>
+        <v>95.933333333333323</v>
+      </c>
+      <c r="P53" s="3">
+        <f t="shared" si="12"/>
+        <v>95.866666666666674</v>
+      </c>
+      <c r="Q53" s="3">
+        <f t="shared" si="12"/>
+        <v>95.4</v>
+      </c>
+      <c r="R53" s="3">
+        <f t="shared" si="12"/>
+        <v>95.4</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="12"/>
+        <v>94</v>
+      </c>
+      <c r="T53" s="3">
+        <f t="shared" si="12"/>
+        <v>95.933333333333309</v>
+      </c>
     </row>
     <row r="54" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
@@ -10285,6 +10761,42 @@
         <f t="shared" si="11"/>
         <v>6.6666666666666998</v>
       </c>
+      <c r="L54" s="3">
+        <f>STDEV(L2:L51)</f>
+        <v>2.6298478612350675</v>
+      </c>
+      <c r="M54" s="3">
+        <f t="shared" ref="M54:S54" si="13">STDEV(M2:M51)</f>
+        <v>2.9354352395090442</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="13"/>
+        <v>7.8246079643595161</v>
+      </c>
+      <c r="O54" s="3">
+        <f t="shared" si="13"/>
+        <v>3.2499781963336365</v>
+      </c>
+      <c r="P54" s="3">
+        <f t="shared" si="13"/>
+        <v>3.1986391664279457</v>
+      </c>
+      <c r="Q54" s="3">
+        <f t="shared" si="13"/>
+        <v>7.3429127290836531</v>
+      </c>
+      <c r="R54" s="3">
+        <f t="shared" si="13"/>
+        <v>6.4554991586828567</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="13"/>
+        <v>7.8246079643595161</v>
+      </c>
+      <c r="T54" s="3">
+        <f>STDEV(T2:T51)</f>
+        <v>2.8800667666738127</v>
+      </c>
     </row>
     <row r="55" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
@@ -10323,6 +10835,42 @@
         <f t="shared" si="11"/>
         <v>-3.3333333333333002</v>
       </c>
+      <c r="L55" s="3" t="e">
+        <f>(AVERAGE(L57:L106)/STDEV(L57:L106))*SQRT(50)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M55" s="3">
+        <f>(AVERAGE(M57:M106)/STDEV(M57:M106))*SQRT(50)</f>
+        <v>1.4000000000000148</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" ref="N55:T55" si="14">(AVERAGE(N57:N106)/STDEV(N57:N106))*SQRT(50)</f>
+        <v>7.868172950602272</v>
+      </c>
+      <c r="O55" s="3">
+        <f t="shared" si="14"/>
+        <v>1.8553627733832065</v>
+      </c>
+      <c r="P55" s="3">
+        <f t="shared" si="14"/>
+        <v>2.0526396094444062</v>
+      </c>
+      <c r="Q55" s="3">
+        <f>(AVERAGE(Q57:Q106)/STDEV(Q57:Q106))*SQRT(50)</f>
+        <v>1.394010874354576</v>
+      </c>
+      <c r="R55" s="3">
+        <f t="shared" si="14"/>
+        <v>1.5649759106238914</v>
+      </c>
+      <c r="S55" s="3">
+        <f t="shared" si="14"/>
+        <v>2.5958697768055479</v>
+      </c>
+      <c r="T55" s="3">
+        <f t="shared" si="14"/>
+        <v>4.4134182749389774</v>
+      </c>
     </row>
     <row r="56" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
@@ -10399,6 +10947,42 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333997</v>
       </c>
+      <c r="L57" s="3">
+        <f>L2-L2</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <f>L2-M2</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <f>L2-N2</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="O57" s="3">
+        <f>L2-O2</f>
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <f>L2-P2</f>
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <f>L2-Q2</f>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R57" s="3">
+        <f>L2-R2</f>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="S57" s="3">
+        <f>L2-S2</f>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="T57" s="3">
+        <f>L2-T2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
@@ -10437,6 +11021,42 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
+      <c r="L58" s="3">
+        <f t="shared" ref="L58:L106" si="15">L3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <f t="shared" ref="M58:M105" si="16">L3-M3</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" ref="N58:N96" si="17">L3-N3</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="O58" s="3">
+        <f t="shared" ref="O58:O96" si="18">L3-O3</f>
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <f t="shared" ref="P58:P96" si="19">L3-P3</f>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="Q58" s="3">
+        <f t="shared" ref="Q58:Q96" si="20">L3-Q3</f>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R58" s="3">
+        <f t="shared" ref="R58:R96" si="21">L3-R3</f>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="S58" s="3">
+        <f t="shared" ref="S58:S96" si="22">L3-S3</f>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="T58" s="3">
+        <f t="shared" ref="T58:T96" si="23">L3-T3</f>
+        <v>3.3333333333333002</v>
+      </c>
     </row>
     <row r="59" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
@@ -10475,6 +11095,42 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333997</v>
       </c>
+      <c r="L59" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="17"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="O59" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <f t="shared" si="19"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q59" s="3">
+        <f t="shared" si="20"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="R59" s="3">
+        <f t="shared" si="21"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="S59" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T59" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
     </row>
     <row r="60" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
@@ -10513,6 +11169,42 @@
         <f t="shared" si="11"/>
         <v>-3.3333333333333002</v>
       </c>
+      <c r="L60" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O60" s="3">
+        <f t="shared" si="18"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="P60" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q60" s="3">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R60" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S60" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T60" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
     </row>
     <row r="61" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
@@ -10551,6 +11243,42 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
+      <c r="L61" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O61" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P61" s="3">
+        <f t="shared" si="19"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q61" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R61" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S61" s="3">
+        <f t="shared" si="22"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="T61" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
@@ -10589,6 +11317,42 @@
         <f t="shared" si="11"/>
         <v>10</v>
       </c>
+      <c r="L62" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="O62" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P62" s="3">
+        <f t="shared" si="19"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q62" s="3">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="R62" s="3">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="S62" s="3">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="T62" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
@@ -10627,6 +11391,42 @@
         <f t="shared" si="11"/>
         <v>6.6666666666666998</v>
       </c>
+      <c r="L63" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="R63" s="3">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="S63" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
@@ -10665,8 +11465,44 @@
         <f t="shared" si="11"/>
         <v>-3.3333333333333997</v>
       </c>
-    </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <f t="shared" si="17"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="O64" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="Q64" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R64" s="3">
+        <f t="shared" si="21"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="S64" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T64" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B65" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
@@ -10703,8 +11539,44 @@
         <f t="shared" si="11"/>
         <v>3.3333333333333002</v>
       </c>
-    </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="16"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="N65" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O65" s="3">
+        <f t="shared" si="18"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="P65" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R65" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S65" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T65" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B66" s="3">
         <f t="shared" si="3"/>
         <v>3.3333333333333002</v>
@@ -10740,6 +11612,1562 @@
       <c r="J66" s="3">
         <f t="shared" si="11"/>
         <v>6.6666666666666998</v>
+      </c>
+      <c r="L66" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="O66" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P66" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q66" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="T66" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L67" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="O67" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q67" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <f t="shared" si="21"/>
+        <v>20</v>
+      </c>
+      <c r="S67" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T67" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="16"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="N68" s="3">
+        <f t="shared" si="17"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="O68" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <f t="shared" si="20"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R68" s="3">
+        <f t="shared" si="21"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="S68" s="3">
+        <f t="shared" si="22"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="T68" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="N69" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O69" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="Q69" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R69" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S69" s="3">
+        <f t="shared" si="22"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="T69" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="O70" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <f t="shared" si="20"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R70" s="3">
+        <f t="shared" si="21"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="S70" s="3">
+        <f t="shared" si="22"/>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="T70" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="N71" s="3">
+        <f t="shared" si="17"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="O71" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R71" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S71" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T71" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L72" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O72" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="P72" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="Q72" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R72" s="3">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S72" s="3">
+        <f t="shared" si="22"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="T72" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <f t="shared" si="18"/>
+        <v>-10</v>
+      </c>
+      <c r="P73" s="3">
+        <f t="shared" si="19"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="Q73" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="S73" s="3">
+        <f t="shared" si="22"/>
+        <v>-10</v>
+      </c>
+      <c r="T73" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <f t="shared" si="17"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="O74" s="3">
+        <f t="shared" si="18"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="P74" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q74" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R74" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S74" s="3">
+        <f t="shared" si="22"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="T74" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="N75" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="O75" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P75" s="3">
+        <f t="shared" si="19"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q75" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L76" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="N76" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="O76" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <f t="shared" si="21"/>
+        <v>10</v>
+      </c>
+      <c r="S76" s="3">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="T76" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O77" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P77" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R77" s="3">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S77" s="3">
+        <f t="shared" si="22"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="T77" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L78" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N78" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P78" s="3">
+        <f t="shared" si="19"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q78" s="3">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="R78" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T78" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L79" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N79" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O79" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="P79" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="Q79" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R79" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S79" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T79" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="L80" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N80" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O80" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P80" s="3">
+        <f t="shared" si="19"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q80" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R80" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S80" s="3">
+        <f t="shared" si="22"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="T80" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="81" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
+        <f t="shared" si="22"/>
+        <v>20</v>
+      </c>
+      <c r="T81" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="82" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L82" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N82" s="3">
+        <f t="shared" si="17"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="O82" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P82" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q82" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R82" s="3">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S82" s="3">
+        <f t="shared" si="22"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="T82" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="N83" s="3">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="O83" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P83" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q83" s="3">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="R83" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="T83" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="84" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O84" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q84" s="3">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R84" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S84" s="3">
+        <f t="shared" si="22"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="T84" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="85" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <f t="shared" si="17"/>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="O85" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R85" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S85" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T85" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="16"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="N86" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O86" s="3">
+        <f t="shared" si="18"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="P86" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q86" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R86" s="3">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S86" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T86" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <f t="shared" si="17"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="O87" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="P87" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q87" s="3">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R87" s="3">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S87" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T87" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <f t="shared" si="17"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="O88" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="Q88" s="3">
+        <f t="shared" si="20"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R88" s="3">
+        <f t="shared" si="21"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S88" s="3">
+        <f t="shared" si="22"/>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="T88" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="N89" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O89" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="P89" s="3">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <f t="shared" si="20"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="R89" s="3">
+        <f t="shared" si="21"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="S89" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T89" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="90" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L90" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N90" s="3">
+        <f t="shared" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="O90" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P90" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q90" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R90" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T90" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q91" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <f t="shared" si="22"/>
+        <v>10</v>
+      </c>
+      <c r="T91" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="16"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="N92" s="3">
+        <f t="shared" si="17"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O92" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="P92" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="Q92" s="3">
+        <f t="shared" si="20"/>
+        <v>26.6666666666667</v>
+      </c>
+      <c r="R92" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S92" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T92" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <f t="shared" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="O93" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P93" s="3">
+        <f t="shared" si="19"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q93" s="3">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <f t="shared" si="23"/>
+        <v>3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="94" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <f t="shared" si="17"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="O94" s="3">
+        <f t="shared" si="18"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="P94" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="Q94" s="3">
+        <f t="shared" si="20"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R94" s="3">
+        <f t="shared" si="21"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="S94" s="3">
+        <f t="shared" si="22"/>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="T94" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L95" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N95" s="3">
+        <f t="shared" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="O95" s="3">
+        <f t="shared" si="18"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="P95" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q95" s="3">
+        <f t="shared" si="20"/>
+        <v>-10</v>
+      </c>
+      <c r="R95" s="3">
+        <f t="shared" si="21"/>
+        <v>-10</v>
+      </c>
+      <c r="S95" s="3">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T95" s="3">
+        <f t="shared" si="23"/>
+        <v>-3.3333333333333002</v>
+      </c>
+    </row>
+    <row r="96" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <f>L41-L41</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <f>L41-M41</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <f t="shared" si="17"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="O96" s="3">
+        <f t="shared" si="18"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="P96" s="3">
+        <f t="shared" si="19"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q96" s="3">
+        <f t="shared" si="20"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R96" s="3">
+        <f t="shared" si="21"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S96" s="3">
+        <f t="shared" si="22"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T96" s="3">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <f>L42-L42</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <f>L42-M42</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <f>L42-N42</f>
+        <v>10</v>
+      </c>
+      <c r="O97" s="3">
+        <f>L42-O42</f>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="P97" s="3">
+        <f>L42-P42</f>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q97" s="3">
+        <f>L42-Q42</f>
+        <v>10</v>
+      </c>
+      <c r="R97" s="3">
+        <f>L42-R42</f>
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <f>L42-S42</f>
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <f>L42-T42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <f t="shared" ref="N98:N106" si="24">L43-N43</f>
+        <v>10</v>
+      </c>
+      <c r="O98" s="3">
+        <f t="shared" ref="O98:O106" si="25">L43-O43</f>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P98" s="3">
+        <f t="shared" ref="P98:P106" si="26">L43-P43</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <f t="shared" ref="Q98:Q106" si="27">L43-Q43</f>
+        <v>20</v>
+      </c>
+      <c r="R98" s="3">
+        <f t="shared" ref="R98:R106" si="28">L43-R43</f>
+        <v>10</v>
+      </c>
+      <c r="S98" s="3">
+        <f t="shared" ref="S98:S106" si="29">L43-S43</f>
+        <v>10</v>
+      </c>
+      <c r="T98" s="3">
+        <f t="shared" ref="T98:T106" si="30">L43-T43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="N99" s="3">
+        <f t="shared" si="24"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O99" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <f t="shared" si="27"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R99" s="3">
+        <f t="shared" si="28"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S99" s="3">
+        <f t="shared" si="29"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T99" s="3">
+        <f t="shared" si="30"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="100" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333997</v>
+      </c>
+      <c r="N100" s="3">
+        <f t="shared" si="24"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="O100" s="3">
+        <f t="shared" si="25"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="P100" s="3">
+        <f t="shared" si="26"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="Q100" s="3">
+        <f t="shared" si="27"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R100" s="3">
+        <f t="shared" si="28"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="S100" s="3">
+        <f t="shared" si="29"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T100" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <f t="shared" si="24"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="O101" s="3">
+        <f t="shared" si="25"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P101" s="3">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="Q101" s="3">
+        <f t="shared" si="27"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="R101" s="3">
+        <f t="shared" si="28"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S101" s="3">
+        <f t="shared" si="29"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T101" s="3">
+        <f t="shared" si="30"/>
+        <v>3.3333333333333997</v>
+      </c>
+    </row>
+    <row r="102" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L102" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="O102" s="3">
+        <f t="shared" si="25"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="P102" s="3">
+        <f t="shared" si="26"/>
+        <v>6.6666666666666998</v>
+      </c>
+      <c r="Q102" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <f t="shared" si="28"/>
+        <v>10</v>
+      </c>
+      <c r="S102" s="3">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L103" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="3">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="N103" s="3">
+        <f t="shared" si="24"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="O103" s="3">
+        <f t="shared" si="25"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="P103" s="3">
+        <f t="shared" si="26"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="Q103" s="3">
+        <f t="shared" si="27"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R103" s="3">
+        <f t="shared" si="28"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="S103" s="3">
+        <f t="shared" si="29"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="T103" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L104" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N104" s="3">
+        <f t="shared" si="24"/>
+        <v>20</v>
+      </c>
+      <c r="O104" s="3">
+        <f t="shared" si="25"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="P104" s="3">
+        <f t="shared" si="26"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="Q104" s="3">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="R104" s="3">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S104" s="3">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+      <c r="T104" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L105" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="3">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N105" s="3">
+        <f t="shared" si="24"/>
+        <v>13.3333333333333</v>
+      </c>
+      <c r="O105" s="3">
+        <f t="shared" si="25"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="P105" s="3">
+        <f t="shared" si="26"/>
+        <v>-3.3333333333333997</v>
+      </c>
+      <c r="Q105" s="3">
+        <f t="shared" si="27"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="R105" s="3">
+        <f t="shared" si="28"/>
+        <v>3.3333333333333002</v>
+      </c>
+      <c r="S105" s="3">
+        <f t="shared" si="29"/>
+        <v>-6.6666666666666998</v>
+      </c>
+      <c r="T105" s="3">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="12:20" x14ac:dyDescent="0.2">
+      <c r="L106" s="3">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="3">
+        <f>L51-M51</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="3">
+        <f t="shared" si="24"/>
+        <v>16.6666666666667</v>
+      </c>
+      <c r="O106" s="3">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P106" s="3">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q106" s="3">
+        <f t="shared" si="27"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="R106" s="3">
+        <f t="shared" si="28"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="S106" s="3">
+        <f t="shared" si="29"/>
+        <v>-3.3333333333333002</v>
+      </c>
+      <c r="T106" s="3">
+        <f t="shared" si="30"/>
+        <v>3.3333333333333997</v>
       </c>
     </row>
   </sheetData>
@@ -13803,10 +16231,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13814,7 +16242,7 @@
     <col min="1" max="16384" width="16.625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>96</v>
       </c>
@@ -13842,8 +16270,11 @@
       <c r="J1" s="3" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L1" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -13874,8 +16305,11 @@
       <c r="J2" s="3">
         <v>92.108229988725995</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L2" s="3">
+        <v>92.333709131905294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -13906,8 +16340,11 @@
       <c r="J3" s="3">
         <v>91.319052987598695</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>91.544532130777895</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -13938,8 +16375,11 @@
       <c r="J4" s="3">
         <v>92.333709131905294</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L4" s="3">
+        <v>92.784667418263794</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -13970,8 +16410,11 @@
       <c r="J5" s="3">
         <v>90.529875986471296</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L5" s="3">
+        <v>90.868094701240096</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -14002,8 +16445,11 @@
       <c r="J6" s="3">
         <v>93.461104847801593</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L6" s="3">
+        <v>92.220969560315694</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -14034,8 +16480,11 @@
       <c r="J7" s="3">
         <v>91.995490417136395</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L7" s="3">
+        <v>93.235625704622294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -14066,8 +16515,11 @@
       <c r="J8" s="3">
         <v>91.319052987598695</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>91.431792559188295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -14098,8 +16550,11 @@
       <c r="J9" s="3">
         <v>90.980834272829796</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L9" s="3">
+        <v>90.868094701240096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -14130,8 +16585,11 @@
       <c r="J10" s="3">
         <v>91.995490417136395</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L10" s="3">
+        <v>91.995490417136395</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -14162,8 +16620,11 @@
       <c r="J11" s="3">
         <v>91.319052987598695</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L11" s="3">
+        <v>90.417136414881597</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -14194,8 +16655,11 @@
       <c r="J12" s="3">
         <v>90.642615558060896</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L12" s="3">
+        <v>90.191657271702397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -14226,8 +16690,11 @@
       <c r="J13" s="3">
         <v>90.755355129650496</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>91.206313416008996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -14258,8 +16725,11 @@
       <c r="J14" s="3">
         <v>92.108229988725995</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>91.995490417136395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -14290,8 +16760,11 @@
       <c r="J15" s="3">
         <v>92.559188275084594</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>92.559188275084594</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -14322,8 +16795,11 @@
       <c r="J16" s="3">
         <v>91.995490417136395</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L16" s="3">
+        <v>91.544532130777895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -14354,8 +16830,11 @@
       <c r="J17" s="3">
         <v>92.333709131905294</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>92.671927846674194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -14386,8 +16865,11 @@
       <c r="J18" s="3">
         <v>93.010146561443094</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>92.446448703494895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -14418,8 +16900,11 @@
       <c r="J19" s="3">
         <v>92.108229988725995</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L19" s="3">
+        <v>92.333709131905294</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -14450,8 +16935,11 @@
       <c r="J20" s="3">
         <v>92.559188275084594</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>91.657271702367495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -14482,8 +16970,11 @@
       <c r="J21" s="3">
         <v>92.446448703494895</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L21" s="3">
+        <v>92.333709131905294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -14514,8 +17005,11 @@
       <c r="J22" s="3">
         <v>92.671927846674194</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>91.431792559188295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -14546,8 +17040,11 @@
       <c r="J23" s="3">
         <v>92.897406989853394</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>92.446448703494895</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -14578,8 +17075,11 @@
       <c r="J24" s="3">
         <v>91.544532130777895</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>90.868094701240096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -14610,8 +17110,11 @@
       <c r="J25" s="3">
         <v>91.206313416008996</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>90.755355129650496</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -14642,8 +17145,11 @@
       <c r="J26" s="3">
         <v>90.868094701240096</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>90.417136414881597</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -14674,8 +17180,11 @@
       <c r="J27" s="3">
         <v>90.191657271702397</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>90.078917700112697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -14706,8 +17215,11 @@
       <c r="J28" s="3">
         <v>92.333709131905294</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>91.882750845546795</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -14738,8 +17250,11 @@
       <c r="J29" s="3">
         <v>92.559188275084594</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>91.995490417136395</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -14770,8 +17285,11 @@
       <c r="J30" s="3">
         <v>92.897406989853394</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>92.446448703494895</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -14802,8 +17320,16 @@
       <c r="J31" s="3">
         <v>92.446448703494895</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>91.770011273957195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>91.770011273957195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -14843,8 +17369,11 @@
         <f>AVERAGE(J2:J31)</f>
         <v>91.916572717023669</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>90.642615558060896</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>2</v>
       </c>
@@ -14884,8 +17413,11 @@
         <f>STDEV(J2:J31)</f>
         <v>0.83223725162539142</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>91.319052987598695</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>1</v>
       </c>
@@ -14925,8 +17457,16 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>91.431792559188295</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="3">
+        <v>92.671927846674194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B37" s="3">
         <f>J2-B2</f>
         <v>-0.45095828635859903</v>
@@ -14963,8 +17503,11 @@
         <f>J2-J2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L37" s="3">
+        <v>90.078917700112697</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B38" s="3">
         <f t="shared" ref="B38:B66" si="3">J3-B3</f>
         <v>-1.3528748590754986</v>
@@ -15001,8 +17544,11 @@
         <f t="shared" ref="J38:J66" si="11">J3-J3</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L38" s="3">
+        <v>91.544532130777895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B39" s="3">
         <f t="shared" si="3"/>
         <v>0.78917700112739908</v>
@@ -15039,8 +17585,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L39" s="3">
+        <v>91.882750845546795</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -15077,8 +17626,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L40" s="3">
+        <v>91.770011273957195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B41" s="3">
         <f t="shared" si="3"/>
         <v>1.1273957158962986</v>
@@ -15115,8 +17667,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L41" s="3">
+        <v>92.108229988725995</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B42" s="3">
         <f t="shared" si="3"/>
         <v>-2.1420518602030114</v>
@@ -15153,8 +17708,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>90.642615558060896</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B43" s="3">
         <f t="shared" si="3"/>
         <v>-0.22547914317920004</v>
@@ -15191,8 +17749,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>91.657271702367495</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B44" s="3">
         <f t="shared" si="3"/>
         <v>0.67643742953779906</v>
@@ -15229,8 +17790,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>91.319052987598695</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B45" s="3">
         <f t="shared" si="3"/>
         <v>-0.33821871476889953</v>
@@ -15267,8 +17831,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>92.671927846674194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B46" s="3">
         <f t="shared" si="3"/>
         <v>0.22547914317929951</v>
@@ -15305,8 +17872,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>90.868094701240096</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B47" s="3">
         <f t="shared" si="3"/>
         <v>0.11273957158960002</v>
@@ -15343,8 +17913,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>91.657271702367495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B48" s="3">
         <f t="shared" si="3"/>
         <v>-0.11273957158960002</v>
@@ -15381,8 +17954,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>92.446448703494895</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="3">
         <f t="shared" si="3"/>
         <v>-0.22547914317929951</v>
@@ -15419,8 +17995,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>92.220969560315694</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="3">
         <f t="shared" si="3"/>
         <v>0.22547914317929951</v>
@@ -15457,8 +18036,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>93.235625704622294</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="3">
         <f t="shared" si="3"/>
         <v>0.33821871476889953</v>
@@ -15495,8 +18077,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>92.671927846674194</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B52" s="3">
         <f t="shared" si="3"/>
         <v>-0.22547914317929951</v>
@@ -15534,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="3">
         <f t="shared" si="3"/>
         <v>0.33821871476889953</v>
@@ -15571,8 +18156,12 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <f>AVERAGE(L2:L51)</f>
+        <v>91.70687711386698</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B54" s="3">
         <f t="shared" si="3"/>
         <v>-0.45095828635859903</v>
@@ -15610,7 +18199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B55" s="3">
         <f t="shared" si="3"/>
         <v>0.67643742953779906</v>
@@ -15648,7 +18237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="3">
         <f t="shared" si="3"/>
         <v>0.45095828635849955</v>
@@ -15686,7 +18275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="3">
         <f t="shared" si="3"/>
         <v>0.9019165727169991</v>
@@ -15724,7 +18313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="3">
         <f t="shared" si="3"/>
         <v>0.56369785794809957</v>
@@ -15762,7 +18351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="3">
         <f t="shared" si="3"/>
         <v>0.22547914317920004</v>
@@ -15800,7 +18389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="3">
         <f t="shared" si="3"/>
         <v>0.11273957158960002</v>
@@ -15838,7 +18427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="3">
         <f t="shared" si="3"/>
         <v>0.45095828635849955</v>
@@ -15876,7 +18465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="3">
         <f t="shared" si="3"/>
         <v>-0.22547914317920004</v>
@@ -15914,7 +18503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="3">
         <f t="shared" si="3"/>
         <v>0.33821871476889953</v>
@@ -15952,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -16078,7 +18667,7 @@
   <dimension ref="A1:J66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16088,7 +18677,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>95</v>
@@ -16100,7 +18689,7 @@
         <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
@@ -16122,6 +18711,9 @@
       <c r="B2" s="3">
         <v>98.422496570644697</v>
       </c>
+      <c r="C2" s="3">
+        <v>97.873799725651594</v>
+      </c>
       <c r="E2" s="3">
         <v>98.148148148148195</v>
       </c>
@@ -16139,6 +18731,9 @@
       <c r="B3" s="3">
         <v>98.216735253772299</v>
       </c>
+      <c r="C3" s="3">
+        <v>97.599451303155007</v>
+      </c>
       <c r="E3" s="3">
         <v>98.353909465020607</v>
       </c>
@@ -16156,6 +18751,9 @@
       <c r="B4" s="3">
         <v>98.148148148148195</v>
       </c>
+      <c r="C4" s="3">
+        <v>97.530864197530903</v>
+      </c>
       <c r="E4" s="3">
         <v>98.765432098765402</v>
       </c>
@@ -16173,6 +18771,9 @@
       <c r="B5" s="3">
         <v>98.285322359396403</v>
       </c>
+      <c r="C5" s="3">
+        <v>97.668038408779097</v>
+      </c>
       <c r="E5" s="3">
         <v>98.628257887517194</v>
       </c>
@@ -16190,6 +18791,9 @@
       <c r="B6" s="3">
         <v>98.971193415637899</v>
       </c>
+      <c r="C6" s="3">
+        <v>98.559670781893004</v>
+      </c>
       <c r="E6" s="3">
         <v>98.559670781893004</v>
       </c>
@@ -16207,6 +18811,9 @@
       <c r="B7" s="3">
         <v>98.285322359396403</v>
       </c>
+      <c r="C7" s="3">
+        <v>97.462277091906699</v>
+      </c>
       <c r="E7" s="3">
         <v>98.559670781893004</v>
       </c>
@@ -16224,6 +18831,9 @@
       <c r="B8" s="3">
         <v>98.559670781893004</v>
       </c>
+      <c r="C8" s="3">
+        <v>97.805212620027405</v>
+      </c>
       <c r="E8" s="3">
         <v>98.285322359396403</v>
       </c>
@@ -16241,6 +18851,9 @@
       <c r="B9" s="3">
         <v>98.148148148148195</v>
       </c>
+      <c r="C9" s="3">
+        <v>97.393689986282595</v>
+      </c>
       <c r="E9" s="3">
         <v>98.079561042524006</v>
       </c>
@@ -16258,6 +18871,9 @@
       <c r="B10" s="3">
         <v>98.353909465020607</v>
       </c>
+      <c r="C10" s="3">
+        <v>98.079561042524006</v>
+      </c>
       <c r="E10" s="3">
         <v>98.010973936899902</v>
       </c>
@@ -16275,6 +18891,9 @@
       <c r="B11" s="3">
         <v>98.353909465020607</v>
       </c>
+      <c r="C11" s="3">
+        <v>97.942386831275698</v>
+      </c>
       <c r="E11" s="3">
         <v>98.422496570644697</v>
       </c>
@@ -16292,6 +18911,9 @@
       <c r="B12" s="3">
         <v>98.4910836762689</v>
       </c>
+      <c r="C12" s="3">
+        <v>97.7366255144033</v>
+      </c>
       <c r="E12" s="3">
         <v>98.216735253772299</v>
       </c>
@@ -16309,6 +18931,9 @@
       <c r="B13" s="3">
         <v>98.902606310013695</v>
       </c>
+      <c r="C13" s="3">
+        <v>98.422496570644697</v>
+      </c>
       <c r="E13" s="3">
         <v>98.010973936899902</v>
       </c>
@@ -16326,6 +18951,9 @@
       <c r="B14" s="3">
         <v>98.285322359396403</v>
       </c>
+      <c r="C14" s="3">
+        <v>97.599451303155007</v>
+      </c>
       <c r="E14" s="3">
         <v>98.765432098765402</v>
       </c>
@@ -16343,6 +18971,9 @@
       <c r="B15" s="3">
         <v>98.765432098765402</v>
       </c>
+      <c r="C15" s="3">
+        <v>97.942386831275698</v>
+      </c>
       <c r="E15" s="3">
         <v>98.422496570644697</v>
       </c>
@@ -16360,6 +18991,9 @@
       <c r="B16" s="3">
         <v>98.4910836762689</v>
       </c>
+      <c r="C16" s="3">
+        <v>97.942386831275698</v>
+      </c>
       <c r="E16" s="3">
         <v>98.079561042524006</v>
       </c>
@@ -16377,6 +19011,9 @@
       <c r="B17" s="3">
         <v>98.971193415637899</v>
       </c>
+      <c r="C17" s="3">
+        <v>97.942386831275698</v>
+      </c>
       <c r="E17" s="3">
         <v>98.559670781893004</v>
       </c>
@@ -16394,6 +19031,9 @@
       <c r="B18" s="3">
         <v>98.765432098765402</v>
       </c>
+      <c r="C18" s="3">
+        <v>98.216735253772299</v>
+      </c>
       <c r="E18" s="3">
         <v>98.559670781893004</v>
       </c>
@@ -16411,6 +19051,9 @@
       <c r="B19" s="3">
         <v>98.148148148148195</v>
       </c>
+      <c r="C19" s="3">
+        <v>97.668038408779097</v>
+      </c>
       <c r="E19" s="3">
         <v>98.422496570644697</v>
       </c>
@@ -16428,6 +19071,9 @@
       <c r="B20" s="3">
         <v>98.559670781893004</v>
       </c>
+      <c r="C20" s="3">
+        <v>98.010973936899902</v>
+      </c>
       <c r="E20" s="3">
         <v>98.422496570644697</v>
       </c>
@@ -16445,6 +19091,9 @@
       <c r="B21" s="3">
         <v>98.285322359396403</v>
       </c>
+      <c r="C21" s="3">
+        <v>97.873799725651594</v>
+      </c>
       <c r="E21" s="3">
         <v>98.353909465020607</v>
       </c>
@@ -16462,6 +19111,9 @@
       <c r="B22" s="3">
         <v>98.559670781893004</v>
       </c>
+      <c r="C22" s="3">
+        <v>97.873799725651594</v>
+      </c>
       <c r="E22" s="3">
         <v>98.216735253772299</v>
       </c>
@@ -16479,6 +19131,9 @@
       <c r="B23" s="3">
         <v>98.422496570644697</v>
       </c>
+      <c r="C23" s="3">
+        <v>97.805212620027405</v>
+      </c>
       <c r="E23" s="3">
         <v>98.696844993141298</v>
       </c>
@@ -16496,6 +19151,9 @@
       <c r="B24" s="3">
         <v>98.834019204389605</v>
       </c>
+      <c r="C24" s="3">
+        <v>98.079561042524006</v>
+      </c>
       <c r="E24" s="3">
         <v>98.765432098765402</v>
       </c>
@@ -16513,6 +19171,9 @@
       <c r="B25" s="3">
         <v>98.285322359396403</v>
       </c>
+      <c r="C25" s="3">
+        <v>97.599451303155007</v>
+      </c>
       <c r="E25" s="3">
         <v>98.079561042524006</v>
       </c>
@@ -16530,6 +19191,9 @@
       <c r="B26" s="3">
         <v>98.148148148148195</v>
       </c>
+      <c r="C26" s="3">
+        <v>97.530864197530903</v>
+      </c>
       <c r="E26" s="3">
         <v>98.834019204389605</v>
       </c>
@@ -16547,6 +19211,9 @@
       <c r="B27" s="3">
         <v>98.4910836762689</v>
       </c>
+      <c r="C27" s="3">
+        <v>98.079561042524006</v>
+      </c>
       <c r="E27" s="3">
         <v>98.4910836762689</v>
       </c>
@@ -16564,6 +19231,9 @@
       <c r="B28" s="3">
         <v>98.971193415637899</v>
       </c>
+      <c r="C28" s="3">
+        <v>98.148148148148195</v>
+      </c>
       <c r="E28" s="3">
         <v>98.559670781893004</v>
       </c>
@@ -16581,6 +19251,9 @@
       <c r="B29" s="3">
         <v>98.216735253772299</v>
       </c>
+      <c r="C29" s="3">
+        <v>97.805212620027405</v>
+      </c>
       <c r="E29" s="3">
         <v>98.216735253772299</v>
       </c>
@@ -16598,6 +19271,9 @@
       <c r="B30" s="3">
         <v>98.559670781893004</v>
       </c>
+      <c r="C30" s="3">
+        <v>97.805212620027405</v>
+      </c>
       <c r="E30" s="3">
         <v>97.805212620027405</v>
       </c>
@@ -16615,6 +19291,9 @@
       <c r="B31" s="3">
         <v>98.353909465020607</v>
       </c>
+      <c r="C31" s="3">
+        <v>97.530864197530903</v>
+      </c>
       <c r="E31" s="3">
         <v>98.696844993141298</v>
       </c>
@@ -16633,9 +19312,9 @@
         <f t="shared" ref="B33:J33" si="0">AVERAGE(B2:B31)</f>
         <v>98.475080018289901</v>
       </c>
-      <c r="C33" s="3" t="e">
+      <c r="C33" s="3">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>97.850937357110169</v>
       </c>
       <c r="D33" s="3" t="e">
         <f t="shared" si="0"/>
@@ -16674,9 +19353,9 @@
         <f t="shared" ref="B34:I34" si="1">STDEV(B2:B31)</f>
         <v>0.26513754388372224</v>
       </c>
-      <c r="C34" s="3" t="e">
+      <c r="C34" s="3">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.27631228738160873</v>
       </c>
       <c r="D34" s="3" t="e">
         <f t="shared" si="1"/>
@@ -16716,7 +19395,7 @@
       </c>
       <c r="C35" s="3">
         <f>(AVERAGE(C37:C66)/STDEV(C37:C66))*SQRT(50)</f>
-        <v>2674.6776682006107</v>
+        <v>8.1478330963164236</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ref="D35:J35" si="2">(AVERAGE(D37:D66)/STDEV(D37:D66))*SQRT(50)</f>
@@ -16753,7 +19432,7 @@
       </c>
       <c r="C37" s="3">
         <f>J2-C2</f>
-        <v>98.148148148148195</v>
+        <v>0.27434842249660107</v>
       </c>
       <c r="D37" s="3">
         <f>J2-D2</f>
@@ -16791,7 +19470,7 @@
       </c>
       <c r="C38" s="3">
         <f t="shared" ref="C38:C66" si="4">J3-C3</f>
-        <v>97.599451303155007</v>
+        <v>0</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" ref="D38:D66" si="5">J3-D3</f>
@@ -16829,7 +19508,7 @@
       </c>
       <c r="C39" s="3">
         <f t="shared" si="4"/>
-        <v>98.010973936899902</v>
+        <v>0.48010973936899859</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="5"/>
@@ -16867,7 +19546,7 @@
       </c>
       <c r="C40" s="3">
         <f t="shared" si="4"/>
-        <v>97.873799725651594</v>
+        <v>0.20576131687249699</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="5"/>
@@ -16905,7 +19584,7 @@
       </c>
       <c r="C41" s="3">
         <f t="shared" si="4"/>
-        <v>98.628257887517194</v>
+        <v>6.8587105624189348E-2</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="5"/>
@@ -16943,7 +19622,7 @@
       </c>
       <c r="C42" s="3">
         <f t="shared" si="4"/>
-        <v>97.668038408779097</v>
+        <v>0.20576131687239751</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="5"/>
@@ -16981,7 +19660,7 @@
       </c>
       <c r="C43" s="3">
         <f t="shared" si="4"/>
-        <v>98.285322359396403</v>
+        <v>0.48010973936899859</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="5"/>
@@ -17019,7 +19698,7 @@
       </c>
       <c r="C44" s="3">
         <f t="shared" si="4"/>
-        <v>97.942386831275698</v>
+        <v>0.54869684499310267</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="5"/>
@@ -17057,7 +19736,7 @@
       </c>
       <c r="C45" s="3">
         <f t="shared" si="4"/>
-        <v>98.353909465020607</v>
+        <v>0.27434842249660107</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="5"/>
@@ -17095,7 +19774,7 @@
       </c>
       <c r="C46" s="3">
         <f t="shared" si="4"/>
-        <v>98.216735253772299</v>
+        <v>0.27434842249660107</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="5"/>
@@ -17133,7 +19812,7 @@
       </c>
       <c r="C47" s="3">
         <f t="shared" si="4"/>
-        <v>98.285322359396403</v>
+        <v>0.54869684499310267</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="5"/>
@@ -17171,7 +19850,7 @@
       </c>
       <c r="C48" s="3">
         <f t="shared" si="4"/>
-        <v>98.422496570644697</v>
+        <v>0</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="5"/>
@@ -17209,7 +19888,7 @@
       </c>
       <c r="C49" s="3">
         <f t="shared" si="4"/>
-        <v>97.7366255144033</v>
+        <v>0.13717421124829343</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="5"/>
@@ -17247,7 +19926,7 @@
       </c>
       <c r="C50" s="3">
         <f t="shared" si="4"/>
-        <v>98.216735253772299</v>
+        <v>0.27434842249660107</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="5"/>
@@ -17285,7 +19964,7 @@
       </c>
       <c r="C51" s="3">
         <f t="shared" si="4"/>
-        <v>97.805212620027405</v>
+        <v>-0.13717421124829343</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="5"/>
@@ -17323,7 +20002,7 @@
       </c>
       <c r="C52" s="3">
         <f t="shared" si="4"/>
-        <v>98.148148148148195</v>
+        <v>0.20576131687249699</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="5"/>
@@ -17361,7 +20040,7 @@
       </c>
       <c r="C53" s="3">
         <f t="shared" si="4"/>
-        <v>98.285322359396403</v>
+        <v>6.8587105624104083E-2</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="5"/>
@@ -17399,7 +20078,7 @@
       </c>
       <c r="C54" s="3">
         <f t="shared" si="4"/>
-        <v>97.805212620027405</v>
+        <v>0.13717421124830764</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="5"/>
@@ -17437,7 +20116,7 @@
       </c>
       <c r="C55" s="3">
         <f t="shared" si="4"/>
-        <v>98.216735253772299</v>
+        <v>0.20576131687239751</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="5"/>
@@ -17475,7 +20154,7 @@
       </c>
       <c r="C56" s="3">
         <f t="shared" si="4"/>
-        <v>97.873799725651594</v>
+        <v>0</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="5"/>
@@ -17513,7 +20192,7 @@
       </c>
       <c r="C57" s="3">
         <f t="shared" si="4"/>
-        <v>97.942386831275698</v>
+        <v>6.8587105624104083E-2</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="5"/>
@@ -17551,7 +20230,7 @@
       </c>
       <c r="C58" s="3">
         <f t="shared" si="4"/>
-        <v>98.148148148148195</v>
+        <v>0.34293552812079042</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="5"/>
@@ -17589,7 +20268,7 @@
       </c>
       <c r="C59" s="3">
         <f t="shared" si="4"/>
-        <v>98.079561042524006</v>
+        <v>0</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="5"/>
@@ -17627,7 +20306,7 @@
       </c>
       <c r="C60" s="3">
         <f t="shared" si="4"/>
-        <v>97.805212620027405</v>
+        <v>0.20576131687239751</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="5"/>
@@ -17665,7 +20344,7 @@
       </c>
       <c r="C61" s="3">
         <f t="shared" si="4"/>
-        <v>97.530864197530903</v>
+        <v>0</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="5"/>
@@ -17703,7 +20382,7 @@
       </c>
       <c r="C62" s="3">
         <f t="shared" si="4"/>
-        <v>98.216735253772299</v>
+        <v>0.13717421124829343</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="5"/>
@@ -17741,7 +20420,7 @@
       </c>
       <c r="C63" s="3">
         <f t="shared" si="4"/>
-        <v>98.353909465020607</v>
+        <v>0.20576131687241173</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="5"/>
@@ -17779,7 +20458,7 @@
       </c>
       <c r="C64" s="3">
         <f t="shared" si="4"/>
-        <v>98.010973936899902</v>
+        <v>0.20576131687249699</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="5"/>
@@ -17817,7 +20496,7 @@
       </c>
       <c r="C65" s="3">
         <f t="shared" si="4"/>
-        <v>98.079561042524006</v>
+        <v>0.27434842249660107</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="5"/>
@@ -17855,7 +20534,7 @@
       </c>
       <c r="C66" s="3">
         <f t="shared" si="4"/>
-        <v>98.079561042524006</v>
+        <v>0.54869684499310267</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="5"/>
@@ -28225,8 +30904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="B22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
